--- a/data/trans_orig/P62-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P62-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{943E1564-9EC1-4D37-AB43-282DF5F9C3F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F4AB986F-79E1-4EA1-99DE-778D3FFD2F98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{91C38373-0629-4EAA-B195-B4049D2B8D93}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{73B9DCDB-0999-4032-AFCA-95C89BF18E38}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="431">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="445">
   <si>
     <t>Población según si percibe alguna pensión en 2007 (Tasa respuesta: 56,61%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>61,75%</t>
   </si>
   <si>
-    <t>47,2%</t>
-  </si>
-  <si>
-    <t>72,72%</t>
+    <t>48,19%</t>
+  </si>
+  <si>
+    <t>73,84%</t>
   </si>
   <si>
     <t>25,9%</t>
   </si>
   <si>
-    <t>18,02%</t>
-  </si>
-  <si>
-    <t>34,57%</t>
+    <t>17,7%</t>
+  </si>
+  <si>
+    <t>35,49%</t>
   </si>
   <si>
     <t>40,26%</t>
   </si>
   <si>
-    <t>32,01%</t>
-  </si>
-  <si>
-    <t>48,7%</t>
+    <t>32,86%</t>
+  </si>
+  <si>
+    <t>48,02%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>38,25%</t>
   </si>
   <si>
-    <t>27,28%</t>
-  </si>
-  <si>
-    <t>52,8%</t>
+    <t>26,16%</t>
+  </si>
+  <si>
+    <t>51,81%</t>
   </si>
   <si>
     <t>74,1%</t>
   </si>
   <si>
-    <t>65,43%</t>
-  </si>
-  <si>
-    <t>81,98%</t>
+    <t>64,51%</t>
+  </si>
+  <si>
+    <t>82,3%</t>
   </si>
   <si>
     <t>59,74%</t>
   </si>
   <si>
-    <t>51,3%</t>
-  </si>
-  <si>
-    <t>67,99%</t>
+    <t>51,98%</t>
+  </si>
+  <si>
+    <t>67,14%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,1198 +140,1240 @@
     <t>54,74%</t>
   </si>
   <si>
+    <t>48,74%</t>
+  </si>
+  <si>
+    <t>60,55%</t>
+  </si>
+  <si>
+    <t>23,49%</t>
+  </si>
+  <si>
+    <t>19,5%</t>
+  </si>
+  <si>
+    <t>27,48%</t>
+  </si>
+  <si>
+    <t>34,67%</t>
+  </si>
+  <si>
+    <t>31,67%</t>
+  </si>
+  <si>
+    <t>38,55%</t>
+  </si>
+  <si>
+    <t>45,26%</t>
+  </si>
+  <si>
+    <t>39,45%</t>
+  </si>
+  <si>
+    <t>51,26%</t>
+  </si>
+  <si>
+    <t>76,51%</t>
+  </si>
+  <si>
+    <t>72,52%</t>
+  </si>
+  <si>
+    <t>80,5%</t>
+  </si>
+  <si>
+    <t>65,33%</t>
+  </si>
+  <si>
+    <t>61,45%</t>
+  </si>
+  <si>
+    <t>68,33%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>56,22%</t>
+  </si>
+  <si>
+    <t>51,31%</t>
+  </si>
+  <si>
+    <t>61,07%</t>
+  </si>
+  <si>
+    <t>21,89%</t>
+  </si>
+  <si>
+    <t>18,97%</t>
+  </si>
+  <si>
+    <t>25,46%</t>
+  </si>
+  <si>
+    <t>34,38%</t>
+  </si>
+  <si>
+    <t>31,54%</t>
+  </si>
+  <si>
+    <t>37,12%</t>
+  </si>
+  <si>
+    <t>43,78%</t>
+  </si>
+  <si>
+    <t>38,93%</t>
+  </si>
+  <si>
+    <t>48,69%</t>
+  </si>
+  <si>
+    <t>78,11%</t>
+  </si>
+  <si>
+    <t>74,54%</t>
+  </si>
+  <si>
+    <t>81,03%</t>
+  </si>
+  <si>
+    <t>65,62%</t>
+  </si>
+  <si>
+    <t>62,88%</t>
+  </si>
+  <si>
+    <t>68,46%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>57,61%</t>
+  </si>
+  <si>
+    <t>51,65%</t>
+  </si>
+  <si>
+    <t>63,63%</t>
+  </si>
+  <si>
+    <t>25,91%</t>
+  </si>
+  <si>
+    <t>21,85%</t>
+  </si>
+  <si>
+    <t>30,12%</t>
+  </si>
+  <si>
+    <t>37,53%</t>
+  </si>
+  <si>
+    <t>33,99%</t>
+  </si>
+  <si>
+    <t>40,98%</t>
+  </si>
+  <si>
+    <t>42,39%</t>
+  </si>
+  <si>
+    <t>36,37%</t>
+  </si>
+  <si>
     <t>48,35%</t>
   </si>
   <si>
+    <t>74,09%</t>
+  </si>
+  <si>
+    <t>69,88%</t>
+  </si>
+  <si>
+    <t>78,15%</t>
+  </si>
+  <si>
+    <t>62,47%</t>
+  </si>
+  <si>
+    <t>59,02%</t>
+  </si>
+  <si>
+    <t>66,01%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>49,47%</t>
+  </si>
+  <si>
+    <t>44,7%</t>
+  </si>
+  <si>
+    <t>54,4%</t>
+  </si>
+  <si>
+    <t>27,3%</t>
+  </si>
+  <si>
+    <t>23,99%</t>
+  </si>
+  <si>
+    <t>31,22%</t>
+  </si>
+  <si>
+    <t>35,53%</t>
+  </si>
+  <si>
+    <t>32,43%</t>
+  </si>
+  <si>
+    <t>38,49%</t>
+  </si>
+  <si>
+    <t>50,53%</t>
+  </si>
+  <si>
+    <t>45,6%</t>
+  </si>
+  <si>
+    <t>55,3%</t>
+  </si>
+  <si>
+    <t>72,7%</t>
+  </si>
+  <si>
+    <t>68,78%</t>
+  </si>
+  <si>
+    <t>76,01%</t>
+  </si>
+  <si>
+    <t>64,47%</t>
+  </si>
+  <si>
+    <t>61,51%</t>
+  </si>
+  <si>
+    <t>67,57%</t>
+  </si>
+  <si>
+    <t>54,56%</t>
+  </si>
+  <si>
+    <t>51,92%</t>
+  </si>
+  <si>
+    <t>57,11%</t>
+  </si>
+  <si>
+    <t>24,64%</t>
+  </si>
+  <si>
+    <t>22,78%</t>
+  </si>
+  <si>
+    <t>26,38%</t>
+  </si>
+  <si>
+    <t>35,61%</t>
+  </si>
+  <si>
+    <t>34,1%</t>
+  </si>
+  <si>
+    <t>37,14%</t>
+  </si>
+  <si>
+    <t>45,44%</t>
+  </si>
+  <si>
+    <t>42,89%</t>
+  </si>
+  <si>
+    <t>48,08%</t>
+  </si>
+  <si>
+    <t>75,36%</t>
+  </si>
+  <si>
+    <t>73,62%</t>
+  </si>
+  <si>
+    <t>77,22%</t>
+  </si>
+  <si>
+    <t>64,39%</t>
+  </si>
+  <si>
+    <t>62,86%</t>
+  </si>
+  <si>
+    <t>65,9%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si percibe alguna pensión en 2012 (Tasa respuesta: 65,16%)</t>
+  </si>
+  <si>
+    <t>42,66%</t>
+  </si>
+  <si>
+    <t>31,25%</t>
+  </si>
+  <si>
+    <t>54,75%</t>
+  </si>
+  <si>
+    <t>29,95%</t>
+  </si>
+  <si>
+    <t>21,06%</t>
+  </si>
+  <si>
+    <t>41,88%</t>
+  </si>
+  <si>
+    <t>35,38%</t>
+  </si>
+  <si>
+    <t>27,71%</t>
+  </si>
+  <si>
+    <t>43,4%</t>
+  </si>
+  <si>
+    <t>57,34%</t>
+  </si>
+  <si>
+    <t>45,25%</t>
+  </si>
+  <si>
+    <t>68,75%</t>
+  </si>
+  <si>
+    <t>70,05%</t>
+  </si>
+  <si>
+    <t>58,12%</t>
+  </si>
+  <si>
+    <t>78,94%</t>
+  </si>
+  <si>
+    <t>64,62%</t>
+  </si>
+  <si>
+    <t>56,6%</t>
+  </si>
+  <si>
+    <t>72,29%</t>
+  </si>
+  <si>
+    <t>50,55%</t>
+  </si>
+  <si>
+    <t>45,18%</t>
+  </si>
+  <si>
+    <t>55,94%</t>
+  </si>
+  <si>
+    <t>31,99%</t>
+  </si>
+  <si>
+    <t>27,59%</t>
+  </si>
+  <si>
+    <t>36,38%</t>
+  </si>
+  <si>
+    <t>40,46%</t>
+  </si>
+  <si>
+    <t>36,8%</t>
+  </si>
+  <si>
+    <t>43,92%</t>
+  </si>
+  <si>
+    <t>49,45%</t>
+  </si>
+  <si>
+    <t>44,06%</t>
+  </si>
+  <si>
+    <t>54,82%</t>
+  </si>
+  <si>
+    <t>68,01%</t>
+  </si>
+  <si>
+    <t>63,62%</t>
+  </si>
+  <si>
+    <t>72,41%</t>
+  </si>
+  <si>
+    <t>59,54%</t>
+  </si>
+  <si>
+    <t>56,08%</t>
+  </si>
+  <si>
+    <t>63,2%</t>
+  </si>
+  <si>
+    <t>40,9%</t>
+  </si>
+  <si>
+    <t>36,93%</t>
+  </si>
+  <si>
+    <t>45,22%</t>
+  </si>
+  <si>
+    <t>27,87%</t>
+  </si>
+  <si>
+    <t>24,51%</t>
+  </si>
+  <si>
+    <t>31,11%</t>
+  </si>
+  <si>
+    <t>33,66%</t>
+  </si>
+  <si>
+    <t>31,13%</t>
+  </si>
+  <si>
+    <t>59,1%</t>
+  </si>
+  <si>
+    <t>54,78%</t>
+  </si>
+  <si>
+    <t>63,07%</t>
+  </si>
+  <si>
+    <t>72,13%</t>
+  </si>
+  <si>
+    <t>68,89%</t>
+  </si>
+  <si>
+    <t>75,49%</t>
+  </si>
+  <si>
+    <t>66,34%</t>
+  </si>
+  <si>
+    <t>68,87%</t>
+  </si>
+  <si>
+    <t>39,03%</t>
+  </si>
+  <si>
+    <t>34,37%</t>
+  </si>
+  <si>
+    <t>43,9%</t>
+  </si>
+  <si>
+    <t>26,46%</t>
+  </si>
+  <si>
+    <t>22,46%</t>
+  </si>
+  <si>
+    <t>30,26%</t>
+  </si>
+  <si>
+    <t>31,94%</t>
+  </si>
+  <si>
+    <t>28,9%</t>
+  </si>
+  <si>
+    <t>35,2%</t>
+  </si>
+  <si>
     <t>60,97%</t>
   </si>
   <si>
-    <t>23,49%</t>
-  </si>
-  <si>
-    <t>19,65%</t>
-  </si>
-  <si>
-    <t>27,66%</t>
-  </si>
-  <si>
-    <t>34,67%</t>
-  </si>
-  <si>
-    <t>31,18%</t>
-  </si>
-  <si>
-    <t>37,93%</t>
-  </si>
-  <si>
-    <t>45,26%</t>
-  </si>
-  <si>
-    <t>39,03%</t>
-  </si>
-  <si>
-    <t>51,65%</t>
-  </si>
-  <si>
-    <t>76,51%</t>
-  </si>
-  <si>
-    <t>72,34%</t>
-  </si>
-  <si>
-    <t>80,35%</t>
-  </si>
-  <si>
-    <t>65,33%</t>
-  </si>
-  <si>
-    <t>62,07%</t>
-  </si>
-  <si>
-    <t>68,82%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>56,22%</t>
-  </si>
-  <si>
-    <t>51,12%</t>
-  </si>
-  <si>
-    <t>61,28%</t>
-  </si>
-  <si>
-    <t>21,89%</t>
-  </si>
-  <si>
-    <t>18,99%</t>
-  </si>
-  <si>
-    <t>25,25%</t>
-  </si>
-  <si>
-    <t>34,38%</t>
-  </si>
-  <si>
-    <t>31,74%</t>
-  </si>
-  <si>
-    <t>37,36%</t>
-  </si>
-  <si>
-    <t>43,78%</t>
-  </si>
-  <si>
-    <t>38,72%</t>
-  </si>
-  <si>
-    <t>48,88%</t>
-  </si>
-  <si>
-    <t>78,11%</t>
-  </si>
-  <si>
-    <t>74,75%</t>
-  </si>
-  <si>
-    <t>81,01%</t>
-  </si>
-  <si>
-    <t>65,62%</t>
-  </si>
-  <si>
-    <t>62,64%</t>
-  </si>
-  <si>
-    <t>68,26%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>57,61%</t>
-  </si>
-  <si>
-    <t>51,51%</t>
-  </si>
-  <si>
-    <t>63,47%</t>
-  </si>
-  <si>
-    <t>25,91%</t>
-  </si>
-  <si>
-    <t>22,1%</t>
+    <t>56,1%</t>
+  </si>
+  <si>
+    <t>65,63%</t>
+  </si>
+  <si>
+    <t>73,54%</t>
+  </si>
+  <si>
+    <t>69,74%</t>
+  </si>
+  <si>
+    <t>77,54%</t>
+  </si>
+  <si>
+    <t>68,06%</t>
+  </si>
+  <si>
+    <t>64,8%</t>
+  </si>
+  <si>
+    <t>71,1%</t>
+  </si>
+  <si>
+    <t>47,36%</t>
+  </si>
+  <si>
+    <t>43,1%</t>
+  </si>
+  <si>
+    <t>52,32%</t>
+  </si>
+  <si>
+    <t>30,45%</t>
+  </si>
+  <si>
+    <t>27,01%</t>
+  </si>
+  <si>
+    <t>33,93%</t>
+  </si>
+  <si>
+    <t>37,4%</t>
+  </si>
+  <si>
+    <t>34,68%</t>
+  </si>
+  <si>
+    <t>40,66%</t>
+  </si>
+  <si>
+    <t>52,64%</t>
+  </si>
+  <si>
+    <t>47,68%</t>
+  </si>
+  <si>
+    <t>56,9%</t>
+  </si>
+  <si>
+    <t>69,55%</t>
+  </si>
+  <si>
+    <t>66,07%</t>
+  </si>
+  <si>
+    <t>72,99%</t>
+  </si>
+  <si>
+    <t>62,6%</t>
+  </si>
+  <si>
+    <t>59,34%</t>
+  </si>
+  <si>
+    <t>65,32%</t>
+  </si>
+  <si>
+    <t>44,02%</t>
+  </si>
+  <si>
+    <t>41,45%</t>
+  </si>
+  <si>
+    <t>46,32%</t>
+  </si>
+  <si>
+    <t>29,07%</t>
+  </si>
+  <si>
+    <t>27,08%</t>
+  </si>
+  <si>
+    <t>30,69%</t>
+  </si>
+  <si>
+    <t>35,58%</t>
+  </si>
+  <si>
+    <t>33,96%</t>
+  </si>
+  <si>
+    <t>36,98%</t>
+  </si>
+  <si>
+    <t>55,98%</t>
+  </si>
+  <si>
+    <t>53,68%</t>
+  </si>
+  <si>
+    <t>58,55%</t>
+  </si>
+  <si>
+    <t>70,93%</t>
+  </si>
+  <si>
+    <t>69,31%</t>
+  </si>
+  <si>
+    <t>72,92%</t>
+  </si>
+  <si>
+    <t>64,42%</t>
+  </si>
+  <si>
+    <t>63,02%</t>
+  </si>
+  <si>
+    <t>66,04%</t>
+  </si>
+  <si>
+    <t>Población según si percibe alguna pensión en 2015 (Tasa respuesta: 63,37%)</t>
+  </si>
+  <si>
+    <t>41,25%</t>
+  </si>
+  <si>
+    <t>30,35%</t>
+  </si>
+  <si>
+    <t>53,39%</t>
+  </si>
+  <si>
+    <t>23,98%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>35,12%</t>
+  </si>
+  <si>
+    <t>31,77%</t>
+  </si>
+  <si>
+    <t>24,97%</t>
+  </si>
+  <si>
+    <t>58,75%</t>
+  </si>
+  <si>
+    <t>46,61%</t>
+  </si>
+  <si>
+    <t>69,65%</t>
+  </si>
+  <si>
+    <t>76,02%</t>
+  </si>
+  <si>
+    <t>64,88%</t>
+  </si>
+  <si>
+    <t>83,79%</t>
+  </si>
+  <si>
+    <t>68,23%</t>
+  </si>
+  <si>
+    <t>75,03%</t>
+  </si>
+  <si>
+    <t>45,15%</t>
+  </si>
+  <si>
+    <t>40,22%</t>
+  </si>
+  <si>
+    <t>50,25%</t>
+  </si>
+  <si>
+    <t>31,14%</t>
+  </si>
+  <si>
+    <t>26,71%</t>
+  </si>
+  <si>
+    <t>36,1%</t>
+  </si>
+  <si>
+    <t>37,62%</t>
+  </si>
+  <si>
+    <t>34,08%</t>
+  </si>
+  <si>
+    <t>40,92%</t>
+  </si>
+  <si>
+    <t>54,85%</t>
+  </si>
+  <si>
+    <t>49,75%</t>
+  </si>
+  <si>
+    <t>59,78%</t>
+  </si>
+  <si>
+    <t>68,86%</t>
+  </si>
+  <si>
+    <t>63,9%</t>
+  </si>
+  <si>
+    <t>73,29%</t>
+  </si>
+  <si>
+    <t>62,38%</t>
+  </si>
+  <si>
+    <t>59,08%</t>
+  </si>
+  <si>
+    <t>65,92%</t>
+  </si>
+  <si>
+    <t>43,97%</t>
+  </si>
+  <si>
+    <t>39,88%</t>
+  </si>
+  <si>
+    <t>48,45%</t>
+  </si>
+  <si>
+    <t>27,05%</t>
+  </si>
+  <si>
+    <t>23,41%</t>
+  </si>
+  <si>
+    <t>30,54%</t>
+  </si>
+  <si>
+    <t>34,56%</t>
+  </si>
+  <si>
+    <t>31,78%</t>
+  </si>
+  <si>
+    <t>37,3%</t>
+  </si>
+  <si>
+    <t>56,03%</t>
+  </si>
+  <si>
+    <t>51,55%</t>
+  </si>
+  <si>
+    <t>60,12%</t>
+  </si>
+  <si>
+    <t>72,95%</t>
+  </si>
+  <si>
+    <t>69,46%</t>
+  </si>
+  <si>
+    <t>76,59%</t>
+  </si>
+  <si>
+    <t>65,44%</t>
+  </si>
+  <si>
+    <t>62,7%</t>
+  </si>
+  <si>
+    <t>68,22%</t>
+  </si>
+  <si>
+    <t>46,69%</t>
+  </si>
+  <si>
+    <t>41,86%</t>
+  </si>
+  <si>
+    <t>52,33%</t>
+  </si>
+  <si>
+    <t>27,37%</t>
+  </si>
+  <si>
+    <t>23,6%</t>
+  </si>
+  <si>
+    <t>31,86%</t>
+  </si>
+  <si>
+    <t>35,79%</t>
+  </si>
+  <si>
+    <t>32,39%</t>
+  </si>
+  <si>
+    <t>38,95%</t>
+  </si>
+  <si>
+    <t>53,31%</t>
+  </si>
+  <si>
+    <t>47,67%</t>
+  </si>
+  <si>
+    <t>58,14%</t>
+  </si>
+  <si>
+    <t>72,63%</t>
+  </si>
+  <si>
+    <t>68,14%</t>
+  </si>
+  <si>
+    <t>76,4%</t>
+  </si>
+  <si>
+    <t>64,21%</t>
+  </si>
+  <si>
+    <t>61,05%</t>
+  </si>
+  <si>
+    <t>67,61%</t>
+  </si>
+  <si>
+    <t>50,3%</t>
+  </si>
+  <si>
+    <t>45,81%</t>
+  </si>
+  <si>
+    <t>54,26%</t>
+  </si>
+  <si>
+    <t>35,75%</t>
+  </si>
+  <si>
+    <t>32,02%</t>
+  </si>
+  <si>
+    <t>39,62%</t>
+  </si>
+  <si>
+    <t>42,01%</t>
+  </si>
+  <si>
+    <t>39,39%</t>
+  </si>
+  <si>
+    <t>44,89%</t>
+  </si>
+  <si>
+    <t>49,7%</t>
+  </si>
+  <si>
+    <t>45,74%</t>
+  </si>
+  <si>
+    <t>54,19%</t>
+  </si>
+  <si>
+    <t>64,25%</t>
+  </si>
+  <si>
+    <t>60,38%</t>
+  </si>
+  <si>
+    <t>67,98%</t>
+  </si>
+  <si>
+    <t>57,99%</t>
+  </si>
+  <si>
+    <t>55,11%</t>
+  </si>
+  <si>
+    <t>60,61%</t>
+  </si>
+  <si>
+    <t>46,36%</t>
+  </si>
+  <si>
+    <t>44,0%</t>
+  </si>
+  <si>
+    <t>48,61%</t>
   </si>
   <si>
     <t>30,18%</t>
   </si>
   <si>
-    <t>37,53%</t>
-  </si>
-  <si>
-    <t>33,58%</t>
-  </si>
-  <si>
-    <t>40,71%</t>
-  </si>
-  <si>
-    <t>42,39%</t>
-  </si>
-  <si>
-    <t>36,53%</t>
-  </si>
-  <si>
-    <t>48,49%</t>
-  </si>
-  <si>
-    <t>74,09%</t>
+    <t>28,18%</t>
+  </si>
+  <si>
+    <t>32,28%</t>
+  </si>
+  <si>
+    <t>37,33%</t>
+  </si>
+  <si>
+    <t>35,9%</t>
+  </si>
+  <si>
+    <t>38,83%</t>
+  </si>
+  <si>
+    <t>53,64%</t>
+  </si>
+  <si>
+    <t>51,39%</t>
+  </si>
+  <si>
+    <t>56,0%</t>
   </si>
   <si>
     <t>69,82%</t>
   </si>
   <si>
-    <t>77,9%</t>
-  </si>
-  <si>
-    <t>62,47%</t>
-  </si>
-  <si>
-    <t>59,29%</t>
-  </si>
-  <si>
-    <t>66,42%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>49,47%</t>
-  </si>
-  <si>
-    <t>44,83%</t>
-  </si>
-  <si>
-    <t>54,99%</t>
-  </si>
-  <si>
-    <t>27,3%</t>
-  </si>
-  <si>
-    <t>23,87%</t>
-  </si>
-  <si>
-    <t>30,61%</t>
-  </si>
-  <si>
-    <t>35,53%</t>
-  </si>
-  <si>
-    <t>32,51%</t>
-  </si>
-  <si>
-    <t>38,5%</t>
-  </si>
-  <si>
-    <t>50,53%</t>
-  </si>
-  <si>
-    <t>45,01%</t>
-  </si>
-  <si>
-    <t>55,17%</t>
-  </si>
-  <si>
-    <t>72,7%</t>
-  </si>
-  <si>
-    <t>69,39%</t>
-  </si>
-  <si>
-    <t>76,13%</t>
-  </si>
-  <si>
-    <t>64,47%</t>
-  </si>
-  <si>
-    <t>61,5%</t>
-  </si>
-  <si>
-    <t>67,49%</t>
-  </si>
-  <si>
-    <t>54,56%</t>
-  </si>
-  <si>
-    <t>51,86%</t>
-  </si>
-  <si>
-    <t>57,12%</t>
-  </si>
-  <si>
-    <t>24,64%</t>
-  </si>
-  <si>
-    <t>22,86%</t>
-  </si>
-  <si>
-    <t>26,49%</t>
-  </si>
-  <si>
-    <t>35,61%</t>
-  </si>
-  <si>
-    <t>34,19%</t>
-  </si>
-  <si>
-    <t>37,31%</t>
-  </si>
-  <si>
-    <t>45,44%</t>
-  </si>
-  <si>
-    <t>42,88%</t>
-  </si>
-  <si>
-    <t>48,14%</t>
-  </si>
-  <si>
-    <t>75,36%</t>
-  </si>
-  <si>
-    <t>73,51%</t>
-  </si>
-  <si>
-    <t>77,14%</t>
-  </si>
-  <si>
-    <t>64,39%</t>
-  </si>
-  <si>
-    <t>62,69%</t>
-  </si>
-  <si>
-    <t>65,81%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si percibe alguna pensión en 2012 (Tasa respuesta: 65,16%)</t>
-  </si>
-  <si>
-    <t>42,66%</t>
-  </si>
-  <si>
-    <t>30,88%</t>
-  </si>
-  <si>
-    <t>55,04%</t>
-  </si>
-  <si>
-    <t>29,95%</t>
-  </si>
-  <si>
-    <t>20,78%</t>
-  </si>
-  <si>
-    <t>40,39%</t>
-  </si>
-  <si>
-    <t>35,38%</t>
-  </si>
-  <si>
-    <t>27,03%</t>
-  </si>
-  <si>
-    <t>43,41%</t>
-  </si>
-  <si>
-    <t>57,34%</t>
-  </si>
-  <si>
-    <t>44,96%</t>
-  </si>
-  <si>
-    <t>69,12%</t>
-  </si>
-  <si>
-    <t>70,05%</t>
-  </si>
-  <si>
-    <t>59,61%</t>
-  </si>
-  <si>
-    <t>79,22%</t>
-  </si>
-  <si>
-    <t>64,62%</t>
-  </si>
-  <si>
-    <t>56,59%</t>
-  </si>
-  <si>
-    <t>72,97%</t>
-  </si>
-  <si>
-    <t>50,55%</t>
-  </si>
-  <si>
-    <t>44,97%</t>
-  </si>
-  <si>
-    <t>55,87%</t>
-  </si>
-  <si>
-    <t>31,99%</t>
-  </si>
-  <si>
-    <t>26,95%</t>
-  </si>
-  <si>
-    <t>36,32%</t>
-  </si>
-  <si>
-    <t>40,46%</t>
-  </si>
-  <si>
-    <t>36,79%</t>
-  </si>
-  <si>
-    <t>44,07%</t>
-  </si>
-  <si>
-    <t>49,45%</t>
-  </si>
-  <si>
-    <t>44,13%</t>
-  </si>
-  <si>
-    <t>55,03%</t>
-  </si>
-  <si>
-    <t>68,01%</t>
-  </si>
-  <si>
-    <t>63,68%</t>
-  </si>
-  <si>
-    <t>73,05%</t>
-  </si>
-  <si>
-    <t>59,54%</t>
-  </si>
-  <si>
-    <t>55,93%</t>
-  </si>
-  <si>
-    <t>63,21%</t>
-  </si>
-  <si>
-    <t>40,9%</t>
-  </si>
-  <si>
-    <t>36,86%</t>
-  </si>
-  <si>
-    <t>45,09%</t>
-  </si>
-  <si>
-    <t>27,87%</t>
-  </si>
-  <si>
-    <t>24,25%</t>
-  </si>
-  <si>
-    <t>31,2%</t>
-  </si>
-  <si>
-    <t>33,66%</t>
-  </si>
-  <si>
-    <t>31,07%</t>
-  </si>
-  <si>
-    <t>36,29%</t>
-  </si>
-  <si>
-    <t>59,1%</t>
-  </si>
-  <si>
-    <t>54,91%</t>
-  </si>
-  <si>
-    <t>63,14%</t>
-  </si>
-  <si>
-    <t>72,13%</t>
-  </si>
-  <si>
-    <t>68,8%</t>
-  </si>
-  <si>
-    <t>75,75%</t>
-  </si>
-  <si>
-    <t>66,34%</t>
-  </si>
-  <si>
-    <t>63,71%</t>
-  </si>
-  <si>
-    <t>68,93%</t>
-  </si>
-  <si>
-    <t>34,26%</t>
-  </si>
-  <si>
-    <t>44,24%</t>
-  </si>
-  <si>
-    <t>26,46%</t>
-  </si>
-  <si>
-    <t>22,79%</t>
-  </si>
-  <si>
-    <t>30,58%</t>
-  </si>
-  <si>
-    <t>31,94%</t>
-  </si>
-  <si>
-    <t>29,07%</t>
+    <t>67,72%</t>
+  </si>
+  <si>
+    <t>71,82%</t>
+  </si>
+  <si>
+    <t>62,67%</t>
+  </si>
+  <si>
+    <t>61,17%</t>
+  </si>
+  <si>
+    <t>64,1%</t>
+  </si>
+  <si>
+    <t>Población según si percibe alguna pensión en 2023 (Tasa respuesta: 57,09%)</t>
+  </si>
+  <si>
+    <t>61,79%</t>
+  </si>
+  <si>
+    <t>46,96%</t>
+  </si>
+  <si>
+    <t>75,27%</t>
+  </si>
+  <si>
+    <t>43,33%</t>
+  </si>
+  <si>
+    <t>35,4%</t>
+  </si>
+  <si>
+    <t>51,28%</t>
+  </si>
+  <si>
+    <t>50,17%</t>
+  </si>
+  <si>
+    <t>42,52%</t>
+  </si>
+  <si>
+    <t>57,52%</t>
+  </si>
+  <si>
+    <t>38,21%</t>
+  </si>
+  <si>
+    <t>24,73%</t>
+  </si>
+  <si>
+    <t>53,04%</t>
+  </si>
+  <si>
+    <t>56,67%</t>
+  </si>
+  <si>
+    <t>48,72%</t>
+  </si>
+  <si>
+    <t>64,6%</t>
+  </si>
+  <si>
+    <t>49,83%</t>
+  </si>
+  <si>
+    <t>42,48%</t>
+  </si>
+  <si>
+    <t>57,48%</t>
+  </si>
+  <si>
+    <t>62,31%</t>
+  </si>
+  <si>
+    <t>54,18%</t>
+  </si>
+  <si>
+    <t>68,47%</t>
+  </si>
+  <si>
+    <t>40,7%</t>
+  </si>
+  <si>
+    <t>36,91%</t>
+  </si>
+  <si>
+    <t>44,92%</t>
+  </si>
+  <si>
+    <t>49,69%</t>
+  </si>
+  <si>
+    <t>45,86%</t>
+  </si>
+  <si>
+    <t>53,44%</t>
+  </si>
+  <si>
+    <t>37,69%</t>
+  </si>
+  <si>
+    <t>31,53%</t>
+  </si>
+  <si>
+    <t>45,82%</t>
+  </si>
+  <si>
+    <t>59,3%</t>
+  </si>
+  <si>
+    <t>55,08%</t>
+  </si>
+  <si>
+    <t>63,09%</t>
+  </si>
+  <si>
+    <t>50,31%</t>
+  </si>
+  <si>
+    <t>46,56%</t>
+  </si>
+  <si>
+    <t>54,14%</t>
+  </si>
+  <si>
+    <t>53,78%</t>
+  </si>
+  <si>
+    <t>47,41%</t>
+  </si>
+  <si>
+    <t>59,53%</t>
+  </si>
+  <si>
+    <t>33,67%</t>
+  </si>
+  <si>
+    <t>30,83%</t>
+  </si>
+  <si>
+    <t>36,89%</t>
+  </si>
+  <si>
+    <t>41,64%</t>
+  </si>
+  <si>
+    <t>38,91%</t>
+  </si>
+  <si>
+    <t>44,69%</t>
+  </si>
+  <si>
+    <t>46,22%</t>
+  </si>
+  <si>
+    <t>40,47%</t>
+  </si>
+  <si>
+    <t>52,59%</t>
+  </si>
+  <si>
+    <t>66,33%</t>
+  </si>
+  <si>
+    <t>63,11%</t>
+  </si>
+  <si>
+    <t>69,17%</t>
+  </si>
+  <si>
+    <t>58,36%</t>
+  </si>
+  <si>
+    <t>55,31%</t>
+  </si>
+  <si>
+    <t>61,09%</t>
+  </si>
+  <si>
+    <t>60,69%</t>
+  </si>
+  <si>
+    <t>53,41%</t>
+  </si>
+  <si>
+    <t>67,28%</t>
+  </si>
+  <si>
+    <t>49,46%</t>
   </si>
   <si>
     <t>35,27%</t>
   </si>
   <si>
-    <t>55,76%</t>
-  </si>
-  <si>
-    <t>65,74%</t>
-  </si>
-  <si>
-    <t>73,54%</t>
-  </si>
-  <si>
-    <t>69,42%</t>
-  </si>
-  <si>
-    <t>77,21%</t>
-  </si>
-  <si>
-    <t>68,06%</t>
+    <t>73,39%</t>
+  </si>
+  <si>
+    <t>53,9%</t>
+  </si>
+  <si>
+    <t>46,38%</t>
+  </si>
+  <si>
+    <t>72,14%</t>
+  </si>
+  <si>
+    <t>39,31%</t>
+  </si>
+  <si>
+    <t>32,72%</t>
+  </si>
+  <si>
+    <t>46,59%</t>
+  </si>
+  <si>
+    <t>50,54%</t>
+  </si>
+  <si>
+    <t>26,61%</t>
   </si>
   <si>
     <t>64,73%</t>
   </si>
   <si>
-    <t>70,93%</t>
-  </si>
-  <si>
-    <t>47,36%</t>
-  </si>
-  <si>
-    <t>42,94%</t>
-  </si>
-  <si>
-    <t>51,69%</t>
-  </si>
-  <si>
-    <t>30,45%</t>
-  </si>
-  <si>
-    <t>27,1%</t>
-  </si>
-  <si>
-    <t>33,84%</t>
-  </si>
-  <si>
-    <t>37,4%</t>
-  </si>
-  <si>
-    <t>34,81%</t>
-  </si>
-  <si>
-    <t>40,58%</t>
-  </si>
-  <si>
-    <t>52,64%</t>
-  </si>
-  <si>
-    <t>48,31%</t>
-  </si>
-  <si>
-    <t>57,06%</t>
-  </si>
-  <si>
-    <t>69,55%</t>
-  </si>
-  <si>
-    <t>66,16%</t>
-  </si>
-  <si>
-    <t>72,9%</t>
-  </si>
-  <si>
-    <t>62,6%</t>
-  </si>
-  <si>
-    <t>59,42%</t>
-  </si>
-  <si>
-    <t>65,19%</t>
-  </si>
-  <si>
-    <t>44,02%</t>
-  </si>
-  <si>
-    <t>41,74%</t>
-  </si>
-  <si>
-    <t>46,27%</t>
-  </si>
-  <si>
-    <t>27,22%</t>
-  </si>
-  <si>
-    <t>30,93%</t>
-  </si>
-  <si>
-    <t>35,58%</t>
-  </si>
-  <si>
-    <t>37,12%</t>
-  </si>
-  <si>
-    <t>55,98%</t>
-  </si>
-  <si>
-    <t>53,73%</t>
-  </si>
-  <si>
-    <t>58,26%</t>
-  </si>
-  <si>
-    <t>69,07%</t>
-  </si>
-  <si>
-    <t>72,78%</t>
-  </si>
-  <si>
-    <t>64,42%</t>
-  </si>
-  <si>
-    <t>62,88%</t>
-  </si>
-  <si>
-    <t>Población según si percibe alguna pensión en 2015 (Tasa respuesta: 63,37%)</t>
-  </si>
-  <si>
-    <t>41,25%</t>
-  </si>
-  <si>
-    <t>29,93%</t>
-  </si>
-  <si>
-    <t>53,93%</t>
-  </si>
-  <si>
-    <t>23,98%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>34,31%</t>
-  </si>
-  <si>
-    <t>31,77%</t>
-  </si>
-  <si>
-    <t>24,87%</t>
-  </si>
-  <si>
-    <t>39,33%</t>
-  </si>
-  <si>
-    <t>58,75%</t>
-  </si>
-  <si>
-    <t>46,07%</t>
-  </si>
-  <si>
-    <t>70,07%</t>
-  </si>
-  <si>
-    <t>76,02%</t>
-  </si>
-  <si>
-    <t>65,69%</t>
-  </si>
-  <si>
-    <t>84,49%</t>
-  </si>
-  <si>
-    <t>68,23%</t>
-  </si>
-  <si>
-    <t>60,67%</t>
-  </si>
-  <si>
-    <t>75,13%</t>
-  </si>
-  <si>
-    <t>45,15%</t>
-  </si>
-  <si>
-    <t>40,07%</t>
-  </si>
-  <si>
-    <t>50,66%</t>
-  </si>
-  <si>
-    <t>31,14%</t>
-  </si>
-  <si>
-    <t>26,81%</t>
-  </si>
-  <si>
-    <t>37,62%</t>
-  </si>
-  <si>
-    <t>34,18%</t>
-  </si>
-  <si>
-    <t>40,94%</t>
-  </si>
-  <si>
-    <t>54,85%</t>
-  </si>
-  <si>
-    <t>49,34%</t>
-  </si>
-  <si>
-    <t>59,93%</t>
-  </si>
-  <si>
-    <t>68,86%</t>
-  </si>
-  <si>
-    <t>73,19%</t>
-  </si>
-  <si>
-    <t>62,38%</t>
-  </si>
-  <si>
-    <t>59,06%</t>
-  </si>
-  <si>
-    <t>65,82%</t>
-  </si>
-  <si>
-    <t>43,97%</t>
-  </si>
-  <si>
-    <t>39,89%</t>
-  </si>
-  <si>
-    <t>48,13%</t>
-  </si>
-  <si>
-    <t>27,05%</t>
-  </si>
-  <si>
-    <t>23,55%</t>
-  </si>
-  <si>
-    <t>30,39%</t>
-  </si>
-  <si>
-    <t>34,56%</t>
-  </si>
-  <si>
-    <t>31,78%</t>
-  </si>
-  <si>
-    <t>37,44%</t>
-  </si>
-  <si>
-    <t>56,03%</t>
-  </si>
-  <si>
-    <t>51,87%</t>
-  </si>
-  <si>
-    <t>60,11%</t>
-  </si>
-  <si>
-    <t>72,95%</t>
-  </si>
-  <si>
-    <t>69,61%</t>
-  </si>
-  <si>
-    <t>76,45%</t>
-  </si>
-  <si>
-    <t>65,44%</t>
-  </si>
-  <si>
-    <t>62,56%</t>
-  </si>
-  <si>
-    <t>68,22%</t>
-  </si>
-  <si>
-    <t>46,69%</t>
-  </si>
-  <si>
-    <t>40,82%</t>
-  </si>
-  <si>
-    <t>27,37%</t>
-  </si>
-  <si>
-    <t>23,21%</t>
-  </si>
-  <si>
-    <t>35,79%</t>
-  </si>
-  <si>
-    <t>32,72%</t>
-  </si>
-  <si>
-    <t>39,19%</t>
-  </si>
-  <si>
-    <t>53,31%</t>
-  </si>
-  <si>
-    <t>59,18%</t>
-  </si>
-  <si>
-    <t>72,63%</t>
-  </si>
-  <si>
-    <t>76,79%</t>
-  </si>
-  <si>
-    <t>64,21%</t>
-  </si>
-  <si>
-    <t>60,81%</t>
-  </si>
-  <si>
-    <t>67,28%</t>
-  </si>
-  <si>
-    <t>50,3%</t>
-  </si>
-  <si>
-    <t>46,0%</t>
-  </si>
-  <si>
-    <t>54,58%</t>
-  </si>
-  <si>
-    <t>35,75%</t>
-  </si>
-  <si>
-    <t>39,63%</t>
-  </si>
-  <si>
-    <t>42,01%</t>
-  </si>
-  <si>
-    <t>39,21%</t>
-  </si>
-  <si>
-    <t>44,81%</t>
-  </si>
-  <si>
-    <t>49,7%</t>
-  </si>
-  <si>
-    <t>45,42%</t>
-  </si>
-  <si>
-    <t>54,0%</t>
-  </si>
-  <si>
-    <t>64,25%</t>
-  </si>
-  <si>
-    <t>60,37%</t>
-  </si>
-  <si>
-    <t>57,99%</t>
-  </si>
-  <si>
-    <t>55,19%</t>
-  </si>
-  <si>
-    <t>60,79%</t>
-  </si>
-  <si>
-    <t>46,36%</t>
-  </si>
-  <si>
-    <t>43,94%</t>
-  </si>
-  <si>
-    <t>48,4%</t>
-  </si>
-  <si>
-    <t>28,2%</t>
-  </si>
-  <si>
-    <t>32,06%</t>
-  </si>
-  <si>
-    <t>37,33%</t>
-  </si>
-  <si>
-    <t>35,92%</t>
-  </si>
-  <si>
-    <t>53,64%</t>
-  </si>
-  <si>
-    <t>51,6%</t>
-  </si>
-  <si>
-    <t>56,06%</t>
-  </si>
-  <si>
-    <t>67,94%</t>
-  </si>
-  <si>
-    <t>71,8%</t>
-  </si>
-  <si>
-    <t>62,67%</t>
-  </si>
-  <si>
-    <t>64,08%</t>
-  </si>
-  <si>
-    <t>Población según si percibe alguna pensión en 2023 (Tasa respuesta: 57,09%)</t>
-  </si>
-  <si>
-    <t>61,79%</t>
-  </si>
-  <si>
-    <t>45,59%</t>
-  </si>
-  <si>
-    <t>75,01%</t>
-  </si>
-  <si>
-    <t>43,33%</t>
-  </si>
-  <si>
-    <t>51,35%</t>
-  </si>
-  <si>
-    <t>50,17%</t>
-  </si>
-  <si>
-    <t>42,7%</t>
-  </si>
-  <si>
-    <t>57,63%</t>
-  </si>
-  <si>
-    <t>38,21%</t>
-  </si>
-  <si>
-    <t>24,99%</t>
-  </si>
-  <si>
-    <t>54,41%</t>
-  </si>
-  <si>
-    <t>56,67%</t>
-  </si>
-  <si>
-    <t>48,65%</t>
-  </si>
-  <si>
-    <t>49,83%</t>
-  </si>
-  <si>
-    <t>42,37%</t>
-  </si>
-  <si>
-    <t>57,3%</t>
-  </si>
-  <si>
-    <t>62,31%</t>
-  </si>
-  <si>
-    <t>54,54%</t>
-  </si>
-  <si>
-    <t>68,1%</t>
-  </si>
-  <si>
-    <t>40,7%</t>
-  </si>
-  <si>
-    <t>36,33%</t>
-  </si>
-  <si>
-    <t>44,52%</t>
-  </si>
-  <si>
-    <t>49,69%</t>
-  </si>
-  <si>
-    <t>46,13%</t>
-  </si>
-  <si>
-    <t>53,33%</t>
-  </si>
-  <si>
-    <t>37,69%</t>
-  </si>
-  <si>
-    <t>31,9%</t>
-  </si>
-  <si>
-    <t>45,46%</t>
-  </si>
-  <si>
-    <t>59,3%</t>
-  </si>
-  <si>
-    <t>55,48%</t>
-  </si>
-  <si>
-    <t>63,67%</t>
-  </si>
-  <si>
-    <t>50,31%</t>
-  </si>
-  <si>
-    <t>46,67%</t>
-  </si>
-  <si>
-    <t>53,87%</t>
-  </si>
-  <si>
-    <t>53,78%</t>
-  </si>
-  <si>
-    <t>48,11%</t>
-  </si>
-  <si>
-    <t>59,45%</t>
-  </si>
-  <si>
-    <t>33,67%</t>
-  </si>
-  <si>
-    <t>37,2%</t>
-  </si>
-  <si>
-    <t>41,64%</t>
-  </si>
-  <si>
-    <t>38,64%</t>
-  </si>
-  <si>
-    <t>44,38%</t>
-  </si>
-  <si>
-    <t>46,22%</t>
-  </si>
-  <si>
-    <t>40,55%</t>
-  </si>
-  <si>
-    <t>51,89%</t>
-  </si>
-  <si>
-    <t>66,33%</t>
-  </si>
-  <si>
-    <t>62,8%</t>
-  </si>
-  <si>
-    <t>58,36%</t>
-  </si>
-  <si>
-    <t>55,62%</t>
-  </si>
-  <si>
-    <t>61,36%</t>
-  </si>
-  <si>
-    <t>60,69%</t>
-  </si>
-  <si>
-    <t>53,95%</t>
-  </si>
-  <si>
-    <t>67,61%</t>
-  </si>
-  <si>
-    <t>49,46%</t>
-  </si>
-  <si>
-    <t>35,29%</t>
-  </si>
-  <si>
-    <t>73,64%</t>
-  </si>
-  <si>
-    <t>53,9%</t>
-  </si>
-  <si>
-    <t>46,03%</t>
-  </si>
-  <si>
-    <t>67,58%</t>
-  </si>
-  <si>
-    <t>39,31%</t>
-  </si>
-  <si>
-    <t>32,39%</t>
-  </si>
-  <si>
-    <t>46,05%</t>
-  </si>
-  <si>
-    <t>50,54%</t>
-  </si>
-  <si>
-    <t>26,36%</t>
-  </si>
-  <si>
-    <t>64,71%</t>
-  </si>
-  <si>
     <t>46,1%</t>
   </si>
   <si>
-    <t>32,42%</t>
-  </si>
-  <si>
-    <t>53,97%</t>
+    <t>27,86%</t>
+  </si>
+  <si>
+    <t>53,62%</t>
   </si>
   <si>
     <t>51,53%</t>
   </si>
   <si>
-    <t>46,02%</t>
-  </si>
-  <si>
-    <t>55,94%</t>
+    <t>46,76%</t>
   </si>
   <si>
     <t>39,64%</t>
   </si>
   <si>
-    <t>36,03%</t>
-  </si>
-  <si>
-    <t>42,85%</t>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>42,97%</t>
   </si>
   <si>
     <t>44,49%</t>
   </si>
   <si>
-    <t>41,72%</t>
-  </si>
-  <si>
-    <t>47,54%</t>
+    <t>41,69%</t>
   </si>
   <si>
     <t>48,47%</t>
   </si>
   <si>
-    <t>44,06%</t>
-  </si>
-  <si>
-    <t>53,98%</t>
+    <t>53,24%</t>
   </si>
   <si>
     <t>60,36%</t>
   </si>
   <si>
-    <t>57,15%</t>
-  </si>
-  <si>
-    <t>63,97%</t>
+    <t>57,03%</t>
+  </si>
+  <si>
+    <t>63,75%</t>
   </si>
   <si>
     <t>55,51%</t>
   </si>
   <si>
-    <t>52,46%</t>
-  </si>
-  <si>
-    <t>58,28%</t>
+    <t>58,31%</t>
   </si>
   <si>
     <t>56,39%</t>
   </si>
   <si>
-    <t>53,29%</t>
-  </si>
-  <si>
-    <t>59,16%</t>
+    <t>53,51%</t>
+  </si>
+  <si>
+    <t>59,33%</t>
   </si>
   <si>
     <t>40,69%</t>
   </si>
   <si>
-    <t>37,06%</t>
-  </si>
-  <si>
-    <t>50,73%</t>
+    <t>37,11%</t>
+  </si>
+  <si>
+    <t>49,65%</t>
   </si>
   <si>
     <t>47,01%</t>
   </si>
   <si>
-    <t>44,77%</t>
-  </si>
-  <si>
-    <t>52,66%</t>
+    <t>44,75%</t>
+  </si>
+  <si>
+    <t>51,74%</t>
   </si>
   <si>
     <t>43,61%</t>
   </si>
   <si>
-    <t>40,84%</t>
-  </si>
-  <si>
-    <t>46,71%</t>
+    <t>40,67%</t>
+  </si>
+  <si>
+    <t>46,49%</t>
   </si>
   <si>
     <t>59,31%</t>
   </si>
   <si>
-    <t>49,27%</t>
-  </si>
-  <si>
-    <t>62,94%</t>
+    <t>50,35%</t>
+  </si>
+  <si>
+    <t>62,89%</t>
   </si>
   <si>
     <t>52,99%</t>
   </si>
   <si>
-    <t>47,34%</t>
-  </si>
-  <si>
-    <t>55,23%</t>
+    <t>48,26%</t>
+  </si>
+  <si>
+    <t>55,25%</t>
   </si>
 </sst>
 </file>
@@ -1743,7 +1785,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD7A5E47-3198-42E7-A0F5-FBF461A2BE1A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{057BE8CB-E8FD-4B08-88A9-976B064191DF}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2806,7 +2848,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C63BDDDD-6EA0-4509-8D50-6214DFC092CD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5632B9E9-7139-4DE2-B182-F1971B0F5CB5}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3276,7 +3318,7 @@
         <v>170</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>171</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3291,13 +3333,13 @@
         <v>355771</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>174</v>
       </c>
       <c r="H11" s="7">
         <v>497</v>
@@ -3306,13 +3348,13 @@
         <v>542812</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>177</v>
       </c>
       <c r="M11" s="7">
         <v>828</v>
@@ -3321,13 +3363,13 @@
         <v>898584</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3395,13 +3437,13 @@
         <v>168741</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>42</v>
+        <v>179</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="H13" s="7">
         <v>132</v>
@@ -3410,13 +3452,13 @@
         <v>147873</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="M13" s="7">
         <v>279</v>
@@ -3425,13 +3467,13 @@
         <v>316614</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3446,7 +3488,7 @@
         <v>263557</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>34</v>
+        <v>188</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>189</v>
@@ -3720,13 +3762,13 @@
         <v>748218</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>187</v>
+        <v>218</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M19" s="7">
         <v>1476</v>
@@ -3735,13 +3777,13 @@
         <v>1620438</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>114</v>
+        <v>222</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3756,13 +3798,13 @@
         <v>1109193</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="H20" s="7">
         <v>1699</v>
@@ -3771,13 +3813,13 @@
         <v>1825320</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>196</v>
+        <v>227</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="M20" s="7">
         <v>2764</v>
@@ -3786,13 +3828,13 @@
         <v>2934514</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>124</v>
+        <v>232</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3869,7 +3911,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F192CA61-6C27-4C04-A71C-285B077FF39A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1BDD077-111E-4B0A-947A-FD5846A12983}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3886,7 +3928,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3993,13 +4035,13 @@
         <v>28271</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="H4" s="7">
         <v>20</v>
@@ -4008,13 +4050,13 @@
         <v>20014</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="M4" s="7">
         <v>50</v>
@@ -4023,13 +4065,13 @@
         <v>48285</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>238</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4044,13 +4086,13 @@
         <v>40265</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="H5" s="7">
         <v>63</v>
@@ -4059,13 +4101,13 @@
         <v>63455</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="M5" s="7">
         <v>100</v>
@@ -4074,13 +4116,13 @@
         <v>103720</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>246</v>
+        <v>34</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4148,13 +4190,13 @@
         <v>161221</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="H7" s="7">
         <v>116</v>
@@ -4163,13 +4205,13 @@
         <v>129107</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>150</v>
+        <v>255</v>
       </c>
       <c r="M7" s="7">
         <v>281</v>
@@ -4178,13 +4220,13 @@
         <v>290328</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4199,13 +4241,13 @@
         <v>195855</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="H8" s="7">
         <v>286</v>
@@ -4214,13 +4256,13 @@
         <v>285474</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>158</v>
+        <v>263</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="M8" s="7">
         <v>470</v>
@@ -4229,13 +4271,13 @@
         <v>481329</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4303,13 +4345,13 @@
         <v>264615</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="H10" s="7">
         <v>175</v>
@@ -4318,13 +4360,13 @@
         <v>203855</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="M10" s="7">
         <v>437</v>
@@ -4333,13 +4375,13 @@
         <v>468470</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4354,13 +4396,13 @@
         <v>337207</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="H11" s="7">
         <v>521</v>
@@ -4369,13 +4411,13 @@
         <v>549832</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="M11" s="7">
         <v>833</v>
@@ -4384,13 +4426,13 @@
         <v>887039</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4458,13 +4500,13 @@
         <v>182071</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>71</v>
+        <v>288</v>
       </c>
       <c r="H13" s="7">
         <v>117</v>
@@ -4473,13 +4515,13 @@
         <v>138296</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>236</v>
+        <v>291</v>
       </c>
       <c r="M13" s="7">
         <v>290</v>
@@ -4488,13 +4530,13 @@
         <v>320367</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4509,13 +4551,13 @@
         <v>207855</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>81</v>
+        <v>296</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="H14" s="7">
         <v>345</v>
@@ -4524,13 +4566,13 @@
         <v>366912</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>245</v>
+        <v>299</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="M14" s="7">
         <v>535</v>
@@ -4539,13 +4581,13 @@
         <v>574767</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4613,13 +4655,13 @@
         <v>266047</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="H16" s="7">
         <v>211</v>
@@ -4628,13 +4670,13 @@
         <v>250749</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>148</v>
+        <v>308</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>300</v>
+        <v>309</v>
       </c>
       <c r="M16" s="7">
         <v>484</v>
@@ -4643,13 +4685,13 @@
         <v>516796</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>303</v>
+        <v>312</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4664,13 +4706,13 @@
         <v>262910</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>304</v>
+        <v>313</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="H17" s="7">
         <v>425</v>
@@ -4679,13 +4721,13 @@
         <v>450581</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>308</v>
+        <v>317</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>157</v>
+        <v>318</v>
       </c>
       <c r="M17" s="7">
         <v>683</v>
@@ -4694,13 +4736,13 @@
         <v>713491</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>309</v>
+        <v>319</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>311</v>
+        <v>321</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4768,13 +4810,13 @@
         <v>902225</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>313</v>
+        <v>323</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>314</v>
+        <v>324</v>
       </c>
       <c r="H19" s="7">
         <v>639</v>
@@ -4783,13 +4825,13 @@
         <v>742021</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>75</v>
+        <v>325</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>315</v>
+        <v>326</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>316</v>
+        <v>327</v>
       </c>
       <c r="M19" s="7">
         <v>1542</v>
@@ -4798,13 +4840,13 @@
         <v>1644246</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>317</v>
+        <v>328</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>318</v>
+        <v>329</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>61</v>
+        <v>330</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4819,13 +4861,13 @@
         <v>1044091</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>319</v>
+        <v>331</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>320</v>
+        <v>332</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>321</v>
+        <v>333</v>
       </c>
       <c r="H20" s="7">
         <v>1640</v>
@@ -4834,28 +4876,28 @@
         <v>1716255</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>83</v>
+        <v>334</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>322</v>
+        <v>335</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>323</v>
+        <v>336</v>
       </c>
       <c r="M20" s="7">
         <v>2621</v>
       </c>
       <c r="N20" s="7">
-        <v>2760346</v>
+        <v>2760347</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>324</v>
+        <v>337</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>53</v>
+        <v>338</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>325</v>
+        <v>339</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4897,7 +4939,7 @@
         <v>4163</v>
       </c>
       <c r="N21" s="7">
-        <v>4404592</v>
+        <v>4404593</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -4932,7 +4974,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{531EA946-4134-4ABD-9629-17E49ED35C21}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCD8B314-3DD3-49BB-85A7-08F7F3F8377E}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4949,7 +4991,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>326</v>
+        <v>340</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5056,13 +5098,13 @@
         <v>30861</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>327</v>
+        <v>341</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>328</v>
+        <v>342</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>329</v>
+        <v>343</v>
       </c>
       <c r="H4" s="7">
         <v>89</v>
@@ -5071,13 +5113,13 @@
         <v>36803</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>330</v>
+        <v>344</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>95</v>
+        <v>345</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>331</v>
+        <v>346</v>
       </c>
       <c r="M4" s="7">
         <v>136</v>
@@ -5086,13 +5128,13 @@
         <v>67664</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>332</v>
+        <v>347</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>333</v>
+        <v>348</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>334</v>
+        <v>349</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5107,13 +5149,13 @@
         <v>19082</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>335</v>
+        <v>350</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>336</v>
+        <v>351</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>337</v>
+        <v>352</v>
       </c>
       <c r="H5" s="7">
         <v>81</v>
@@ -5122,13 +5164,13 @@
         <v>48129</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>338</v>
+        <v>353</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>339</v>
+        <v>354</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>104</v>
+        <v>355</v>
       </c>
       <c r="M5" s="7">
         <v>101</v>
@@ -5137,13 +5179,13 @@
         <v>67211</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>340</v>
+        <v>356</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>341</v>
+        <v>357</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>342</v>
+        <v>358</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5211,13 +5253,13 @@
         <v>160098</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>343</v>
+        <v>359</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>344</v>
+        <v>360</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>345</v>
+        <v>361</v>
       </c>
       <c r="H7" s="7">
         <v>307</v>
@@ -5226,13 +5268,13 @@
         <v>146787</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>346</v>
+        <v>362</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>347</v>
+        <v>363</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>348</v>
+        <v>364</v>
       </c>
       <c r="M7" s="7">
         <v>537</v>
@@ -5241,13 +5283,13 @@
         <v>306885</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>349</v>
+        <v>365</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>350</v>
+        <v>366</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>351</v>
+        <v>367</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5262,13 +5304,13 @@
         <v>96848</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>352</v>
+        <v>368</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>353</v>
+        <v>369</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>354</v>
+        <v>370</v>
       </c>
       <c r="H8" s="7">
         <v>342</v>
@@ -5277,13 +5319,13 @@
         <v>213875</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>355</v>
+        <v>371</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>356</v>
+        <v>372</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>357</v>
+        <v>373</v>
       </c>
       <c r="M8" s="7">
         <v>435</v>
@@ -5292,13 +5334,13 @@
         <v>310723</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>358</v>
+        <v>374</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>359</v>
+        <v>375</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>360</v>
+        <v>376</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5366,13 +5408,13 @@
         <v>215953</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>361</v>
+        <v>377</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>362</v>
+        <v>378</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>363</v>
+        <v>379</v>
       </c>
       <c r="H10" s="7">
         <v>360</v>
@@ -5381,13 +5423,13 @@
         <v>205580</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>364</v>
+        <v>380</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>185</v>
+        <v>381</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>365</v>
+        <v>382</v>
       </c>
       <c r="M10" s="7">
         <v>647</v>
@@ -5396,13 +5438,13 @@
         <v>421533</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>366</v>
+        <v>383</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>367</v>
+        <v>384</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>368</v>
+        <v>385</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5417,13 +5459,13 @@
         <v>185620</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>369</v>
+        <v>386</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>370</v>
+        <v>387</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>371</v>
+        <v>388</v>
       </c>
       <c r="H11" s="7">
         <v>553</v>
@@ -5432,13 +5474,13 @@
         <v>405081</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>372</v>
+        <v>389</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>373</v>
+        <v>390</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>192</v>
+        <v>391</v>
       </c>
       <c r="M11" s="7">
         <v>697</v>
@@ -5447,13 +5489,13 @@
         <v>590701</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>374</v>
+        <v>392</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>375</v>
+        <v>393</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>376</v>
+        <v>394</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5521,13 +5563,13 @@
         <v>216906</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>377</v>
+        <v>395</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>378</v>
+        <v>396</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>379</v>
+        <v>397</v>
       </c>
       <c r="H13" s="7">
         <v>250</v>
@@ -5536,13 +5578,13 @@
         <v>270032</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>380</v>
+        <v>398</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>381</v>
+        <v>399</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>382</v>
+        <v>400</v>
       </c>
       <c r="M13" s="7">
         <v>496</v>
@@ -5551,13 +5593,13 @@
         <v>486938</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>383</v>
+        <v>401</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>384</v>
+        <v>402</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>385</v>
+        <v>403</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5572,13 +5614,13 @@
         <v>140473</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>386</v>
+        <v>404</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>387</v>
+        <v>405</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>388</v>
+        <v>406</v>
       </c>
       <c r="H14" s="7">
         <v>369</v>
@@ -5587,13 +5629,13 @@
         <v>275966</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>389</v>
+        <v>407</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>390</v>
+        <v>408</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>391</v>
+        <v>409</v>
       </c>
       <c r="M14" s="7">
         <v>466</v>
@@ -5602,13 +5644,13 @@
         <v>416439</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>392</v>
+        <v>410</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>393</v>
+        <v>411</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>394</v>
+        <v>412</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5676,13 +5718,13 @@
         <v>241251</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>395</v>
+        <v>413</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>396</v>
+        <v>414</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>397</v>
+        <v>143</v>
       </c>
       <c r="H16" s="7">
         <v>427</v>
@@ -5691,13 +5733,13 @@
         <v>269137</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>398</v>
+        <v>415</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>399</v>
+        <v>416</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>400</v>
+        <v>417</v>
       </c>
       <c r="M16" s="7">
         <v>752</v>
@@ -5706,13 +5748,13 @@
         <v>510388</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>401</v>
+        <v>418</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>402</v>
+        <v>419</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>403</v>
+        <v>378</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5727,13 +5769,13 @@
         <v>226906</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>404</v>
+        <v>420</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>405</v>
+        <v>135</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>406</v>
+        <v>421</v>
       </c>
       <c r="H17" s="7">
         <v>524</v>
@@ -5742,13 +5784,13 @@
         <v>409838</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>407</v>
+        <v>422</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>408</v>
+        <v>423</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>409</v>
+        <v>424</v>
       </c>
       <c r="M17" s="7">
         <v>724</v>
@@ -5757,13 +5799,13 @@
         <v>636745</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>410</v>
+        <v>425</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>411</v>
+        <v>388</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>412</v>
+        <v>426</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5831,13 +5873,13 @@
         <v>865069</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>413</v>
+        <v>427</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>414</v>
+        <v>428</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>415</v>
+        <v>429</v>
       </c>
       <c r="H19" s="7">
         <v>1433</v>
@@ -5846,13 +5888,13 @@
         <v>928340</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>416</v>
+        <v>430</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>417</v>
+        <v>431</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>418</v>
+        <v>432</v>
       </c>
       <c r="M19" s="7">
         <v>2568</v>
@@ -5861,13 +5903,13 @@
         <v>1793409</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>419</v>
+        <v>433</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>420</v>
+        <v>434</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>421</v>
+        <v>435</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5882,13 +5924,13 @@
         <v>668929</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>422</v>
+        <v>436</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>423</v>
+        <v>437</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>424</v>
+        <v>438</v>
       </c>
       <c r="H20" s="7">
         <v>1869</v>
@@ -5897,13 +5939,13 @@
         <v>1352890</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>425</v>
+        <v>439</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>426</v>
+        <v>440</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>427</v>
+        <v>441</v>
       </c>
       <c r="M20" s="7">
         <v>2423</v>
@@ -5912,13 +5954,13 @@
         <v>2021819</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>428</v>
+        <v>442</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>429</v>
+        <v>443</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>430</v>
+        <v>444</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P62-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P62-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F4AB986F-79E1-4EA1-99DE-778D3FFD2F98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BC9E0DE3-A6CD-4717-B459-ACE182F279C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{73B9DCDB-0999-4032-AFCA-95C89BF18E38}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{76CEF6B1-0624-46C3-9900-04076C586091}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="443">
   <si>
     <t>Población según si percibe alguna pensión en 2007 (Tasa respuesta: 56,61%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Si</t>
@@ -77,1233 +77,1233 @@
     <t>61,75%</t>
   </si>
   <si>
+    <t>47,13%</t>
+  </si>
+  <si>
+    <t>73,27%</t>
+  </si>
+  <si>
+    <t>25,9%</t>
+  </si>
+  <si>
+    <t>18,17%</t>
+  </si>
+  <si>
+    <t>35,41%</t>
+  </si>
+  <si>
+    <t>40,26%</t>
+  </si>
+  <si>
+    <t>32,58%</t>
+  </si>
+  <si>
+    <t>48,18%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>38,25%</t>
+  </si>
+  <si>
+    <t>26,73%</t>
+  </si>
+  <si>
+    <t>52,87%</t>
+  </si>
+  <si>
+    <t>74,1%</t>
+  </si>
+  <si>
+    <t>64,59%</t>
+  </si>
+  <si>
+    <t>81,83%</t>
+  </si>
+  <si>
+    <t>59,74%</t>
+  </si>
+  <si>
+    <t>51,82%</t>
+  </si>
+  <si>
+    <t>67,42%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>54,74%</t>
+  </si>
+  <si>
+    <t>48,98%</t>
+  </si>
+  <si>
+    <t>61,68%</t>
+  </si>
+  <si>
+    <t>23,49%</t>
+  </si>
+  <si>
+    <t>19,72%</t>
+  </si>
+  <si>
+    <t>27,41%</t>
+  </si>
+  <si>
+    <t>34,67%</t>
+  </si>
+  <si>
+    <t>31,06%</t>
+  </si>
+  <si>
+    <t>38,36%</t>
+  </si>
+  <si>
+    <t>45,26%</t>
+  </si>
+  <si>
+    <t>38,32%</t>
+  </si>
+  <si>
+    <t>51,02%</t>
+  </si>
+  <si>
+    <t>76,51%</t>
+  </si>
+  <si>
+    <t>72,59%</t>
+  </si>
+  <si>
+    <t>80,28%</t>
+  </si>
+  <si>
+    <t>65,33%</t>
+  </si>
+  <si>
+    <t>61,64%</t>
+  </si>
+  <si>
+    <t>68,94%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>56,22%</t>
+  </si>
+  <si>
+    <t>51,35%</t>
+  </si>
+  <si>
+    <t>61,42%</t>
+  </si>
+  <si>
+    <t>21,89%</t>
+  </si>
+  <si>
+    <t>18,7%</t>
+  </si>
+  <si>
+    <t>25,07%</t>
+  </si>
+  <si>
+    <t>34,38%</t>
+  </si>
+  <si>
+    <t>31,47%</t>
+  </si>
+  <si>
+    <t>37,25%</t>
+  </si>
+  <si>
+    <t>43,78%</t>
+  </si>
+  <si>
+    <t>38,58%</t>
+  </si>
+  <si>
+    <t>48,65%</t>
+  </si>
+  <si>
+    <t>78,11%</t>
+  </si>
+  <si>
+    <t>74,93%</t>
+  </si>
+  <si>
+    <t>81,3%</t>
+  </si>
+  <si>
+    <t>65,62%</t>
+  </si>
+  <si>
+    <t>62,75%</t>
+  </si>
+  <si>
+    <t>68,53%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>57,61%</t>
+  </si>
+  <si>
+    <t>51,74%</t>
+  </si>
+  <si>
+    <t>64,31%</t>
+  </si>
+  <si>
+    <t>25,91%</t>
+  </si>
+  <si>
+    <t>22,3%</t>
+  </si>
+  <si>
+    <t>29,87%</t>
+  </si>
+  <si>
+    <t>37,53%</t>
+  </si>
+  <si>
+    <t>34,24%</t>
+  </si>
+  <si>
+    <t>41,41%</t>
+  </si>
+  <si>
+    <t>42,39%</t>
+  </si>
+  <si>
+    <t>35,69%</t>
+  </si>
+  <si>
+    <t>48,26%</t>
+  </si>
+  <si>
+    <t>74,09%</t>
+  </si>
+  <si>
+    <t>70,13%</t>
+  </si>
+  <si>
+    <t>77,7%</t>
+  </si>
+  <si>
+    <t>62,47%</t>
+  </si>
+  <si>
+    <t>58,59%</t>
+  </si>
+  <si>
+    <t>65,76%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>49,47%</t>
+  </si>
+  <si>
+    <t>44,54%</t>
+  </si>
+  <si>
+    <t>55,19%</t>
+  </si>
+  <si>
+    <t>27,3%</t>
+  </si>
+  <si>
+    <t>23,76%</t>
+  </si>
+  <si>
+    <t>30,93%</t>
+  </si>
+  <si>
+    <t>35,53%</t>
+  </si>
+  <si>
+    <t>32,73%</t>
+  </si>
+  <si>
+    <t>38,56%</t>
+  </si>
+  <si>
+    <t>50,53%</t>
+  </si>
+  <si>
+    <t>44,81%</t>
+  </si>
+  <si>
+    <t>55,46%</t>
+  </si>
+  <si>
+    <t>72,7%</t>
+  </si>
+  <si>
+    <t>69,07%</t>
+  </si>
+  <si>
+    <t>76,24%</t>
+  </si>
+  <si>
+    <t>64,47%</t>
+  </si>
+  <si>
+    <t>61,44%</t>
+  </si>
+  <si>
+    <t>67,27%</t>
+  </si>
+  <si>
+    <t>54,56%</t>
+  </si>
+  <si>
+    <t>51,8%</t>
+  </si>
+  <si>
+    <t>57,15%</t>
+  </si>
+  <si>
+    <t>24,64%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>26,48%</t>
+  </si>
+  <si>
+    <t>35,61%</t>
+  </si>
+  <si>
+    <t>34,06%</t>
+  </si>
+  <si>
+    <t>37,28%</t>
+  </si>
+  <si>
+    <t>45,44%</t>
+  </si>
+  <si>
+    <t>42,85%</t>
+  </si>
+  <si>
+    <t>48,2%</t>
+  </si>
+  <si>
+    <t>75,36%</t>
+  </si>
+  <si>
+    <t>73,52%</t>
+  </si>
+  <si>
+    <t>77,17%</t>
+  </si>
+  <si>
+    <t>64,39%</t>
+  </si>
+  <si>
+    <t>62,72%</t>
+  </si>
+  <si>
+    <t>65,94%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si percibe alguna pensión en 2012 (Tasa respuesta: 65,16%)</t>
+  </si>
+  <si>
+    <t>42,66%</t>
+  </si>
+  <si>
+    <t>31,24%</t>
+  </si>
+  <si>
+    <t>54,29%</t>
+  </si>
+  <si>
+    <t>29,95%</t>
+  </si>
+  <si>
+    <t>20,7%</t>
+  </si>
+  <si>
+    <t>41,19%</t>
+  </si>
+  <si>
+    <t>35,38%</t>
+  </si>
+  <si>
+    <t>27,75%</t>
+  </si>
+  <si>
+    <t>43,36%</t>
+  </si>
+  <si>
+    <t>57,34%</t>
+  </si>
+  <si>
+    <t>45,71%</t>
+  </si>
+  <si>
+    <t>68,76%</t>
+  </si>
+  <si>
+    <t>70,05%</t>
+  </si>
+  <si>
+    <t>58,81%</t>
+  </si>
+  <si>
+    <t>79,3%</t>
+  </si>
+  <si>
+    <t>64,62%</t>
+  </si>
+  <si>
+    <t>56,64%</t>
+  </si>
+  <si>
+    <t>72,25%</t>
+  </si>
+  <si>
+    <t>50,55%</t>
+  </si>
+  <si>
+    <t>44,78%</t>
+  </si>
+  <si>
+    <t>55,58%</t>
+  </si>
+  <si>
+    <t>31,99%</t>
+  </si>
+  <si>
+    <t>27,52%</t>
+  </si>
+  <si>
+    <t>36,7%</t>
+  </si>
+  <si>
+    <t>40,46%</t>
+  </si>
+  <si>
+    <t>37,15%</t>
+  </si>
+  <si>
+    <t>44,23%</t>
+  </si>
+  <si>
+    <t>49,45%</t>
+  </si>
+  <si>
+    <t>44,42%</t>
+  </si>
+  <si>
+    <t>55,22%</t>
+  </si>
+  <si>
+    <t>68,01%</t>
+  </si>
+  <si>
+    <t>63,3%</t>
+  </si>
+  <si>
+    <t>72,48%</t>
+  </si>
+  <si>
+    <t>59,54%</t>
+  </si>
+  <si>
+    <t>55,77%</t>
+  </si>
+  <si>
+    <t>62,85%</t>
+  </si>
+  <si>
+    <t>40,9%</t>
+  </si>
+  <si>
+    <t>36,95%</t>
+  </si>
+  <si>
+    <t>45,04%</t>
+  </si>
+  <si>
+    <t>27,87%</t>
+  </si>
+  <si>
+    <t>24,59%</t>
+  </si>
+  <si>
+    <t>31,44%</t>
+  </si>
+  <si>
+    <t>33,66%</t>
+  </si>
+  <si>
+    <t>31,17%</t>
+  </si>
+  <si>
+    <t>36,5%</t>
+  </si>
+  <si>
+    <t>59,1%</t>
+  </si>
+  <si>
+    <t>54,96%</t>
+  </si>
+  <si>
+    <t>63,05%</t>
+  </si>
+  <si>
+    <t>72,13%</t>
+  </si>
+  <si>
+    <t>68,56%</t>
+  </si>
+  <si>
+    <t>75,41%</t>
+  </si>
+  <si>
+    <t>66,34%</t>
+  </si>
+  <si>
+    <t>63,5%</t>
+  </si>
+  <si>
+    <t>68,83%</t>
+  </si>
+  <si>
+    <t>39,03%</t>
+  </si>
+  <si>
+    <t>33,69%</t>
+  </si>
+  <si>
+    <t>44,18%</t>
+  </si>
+  <si>
+    <t>26,46%</t>
+  </si>
+  <si>
+    <t>22,68%</t>
+  </si>
+  <si>
+    <t>30,6%</t>
+  </si>
+  <si>
+    <t>31,94%</t>
+  </si>
+  <si>
+    <t>28,94%</t>
+  </si>
+  <si>
+    <t>35,16%</t>
+  </si>
+  <si>
+    <t>60,97%</t>
+  </si>
+  <si>
+    <t>55,82%</t>
+  </si>
+  <si>
+    <t>66,31%</t>
+  </si>
+  <si>
+    <t>73,54%</t>
+  </si>
+  <si>
+    <t>69,4%</t>
+  </si>
+  <si>
+    <t>77,32%</t>
+  </si>
+  <si>
+    <t>68,06%</t>
+  </si>
+  <si>
+    <t>64,84%</t>
+  </si>
+  <si>
+    <t>71,06%</t>
+  </si>
+  <si>
+    <t>47,36%</t>
+  </si>
+  <si>
+    <t>42,87%</t>
+  </si>
+  <si>
+    <t>51,65%</t>
+  </si>
+  <si>
+    <t>30,45%</t>
+  </si>
+  <si>
+    <t>27,15%</t>
+  </si>
+  <si>
+    <t>34,33%</t>
+  </si>
+  <si>
+    <t>37,4%</t>
+  </si>
+  <si>
+    <t>34,61%</t>
+  </si>
+  <si>
+    <t>40,38%</t>
+  </si>
+  <si>
+    <t>52,64%</t>
+  </si>
+  <si>
+    <t>48,35%</t>
+  </si>
+  <si>
+    <t>57,13%</t>
+  </si>
+  <si>
+    <t>69,55%</t>
+  </si>
+  <si>
+    <t>65,67%</t>
+  </si>
+  <si>
+    <t>72,85%</t>
+  </si>
+  <si>
+    <t>62,6%</t>
+  </si>
+  <si>
+    <t>59,62%</t>
+  </si>
+  <si>
+    <t>65,39%</t>
+  </si>
+  <si>
+    <t>44,02%</t>
+  </si>
+  <si>
+    <t>41,68%</t>
+  </si>
+  <si>
+    <t>46,32%</t>
+  </si>
+  <si>
+    <t>29,07%</t>
+  </si>
+  <si>
+    <t>27,25%</t>
+  </si>
+  <si>
+    <t>35,58%</t>
+  </si>
+  <si>
+    <t>34,17%</t>
+  </si>
+  <si>
+    <t>36,97%</t>
+  </si>
+  <si>
+    <t>55,98%</t>
+  </si>
+  <si>
+    <t>53,68%</t>
+  </si>
+  <si>
+    <t>58,32%</t>
+  </si>
+  <si>
+    <t>70,93%</t>
+  </si>
+  <si>
+    <t>72,75%</t>
+  </si>
+  <si>
+    <t>64,42%</t>
+  </si>
+  <si>
+    <t>63,03%</t>
+  </si>
+  <si>
+    <t>65,83%</t>
+  </si>
+  <si>
+    <t>Población según si percibe alguna pensión en 2016 (Tasa respuesta: 63,37%)</t>
+  </si>
+  <si>
+    <t>41,25%</t>
+  </si>
+  <si>
+    <t>28,77%</t>
+  </si>
+  <si>
+    <t>52,36%</t>
+  </si>
+  <si>
+    <t>23,98%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>33,76%</t>
+  </si>
+  <si>
+    <t>31,77%</t>
+  </si>
+  <si>
+    <t>24,05%</t>
+  </si>
+  <si>
+    <t>39,28%</t>
+  </si>
+  <si>
+    <t>58,75%</t>
+  </si>
+  <si>
+    <t>47,64%</t>
+  </si>
+  <si>
+    <t>71,23%</t>
+  </si>
+  <si>
+    <t>76,02%</t>
+  </si>
+  <si>
+    <t>66,24%</t>
+  </si>
+  <si>
+    <t>84,57%</t>
+  </si>
+  <si>
+    <t>68,23%</t>
+  </si>
+  <si>
+    <t>60,72%</t>
+  </si>
+  <si>
+    <t>75,95%</t>
+  </si>
+  <si>
+    <t>45,15%</t>
+  </si>
+  <si>
+    <t>40,4%</t>
+  </si>
+  <si>
+    <t>50,74%</t>
+  </si>
+  <si>
+    <t>31,14%</t>
+  </si>
+  <si>
+    <t>26,87%</t>
+  </si>
+  <si>
+    <t>35,98%</t>
+  </si>
+  <si>
+    <t>37,62%</t>
+  </si>
+  <si>
+    <t>33,92%</t>
+  </si>
+  <si>
+    <t>41,11%</t>
+  </si>
+  <si>
+    <t>54,85%</t>
+  </si>
+  <si>
+    <t>49,26%</t>
+  </si>
+  <si>
+    <t>59,6%</t>
+  </si>
+  <si>
+    <t>68,86%</t>
+  </si>
+  <si>
+    <t>64,02%</t>
+  </si>
+  <si>
+    <t>73,13%</t>
+  </si>
+  <si>
+    <t>62,38%</t>
+  </si>
+  <si>
+    <t>58,89%</t>
+  </si>
+  <si>
+    <t>66,08%</t>
+  </si>
+  <si>
+    <t>43,97%</t>
+  </si>
+  <si>
+    <t>40,04%</t>
+  </si>
+  <si>
+    <t>47,89%</t>
+  </si>
+  <si>
+    <t>27,05%</t>
+  </si>
+  <si>
+    <t>23,64%</t>
+  </si>
+  <si>
+    <t>30,65%</t>
+  </si>
+  <si>
+    <t>34,56%</t>
+  </si>
+  <si>
+    <t>31,96%</t>
+  </si>
+  <si>
+    <t>37,3%</t>
+  </si>
+  <si>
+    <t>56,03%</t>
+  </si>
+  <si>
+    <t>52,11%</t>
+  </si>
+  <si>
+    <t>59,96%</t>
+  </si>
+  <si>
+    <t>72,95%</t>
+  </si>
+  <si>
+    <t>69,35%</t>
+  </si>
+  <si>
+    <t>76,36%</t>
+  </si>
+  <si>
+    <t>65,44%</t>
+  </si>
+  <si>
+    <t>62,7%</t>
+  </si>
+  <si>
+    <t>68,04%</t>
+  </si>
+  <si>
+    <t>46,69%</t>
+  </si>
+  <si>
+    <t>42,01%</t>
+  </si>
+  <si>
+    <t>51,81%</t>
+  </si>
+  <si>
+    <t>27,37%</t>
+  </si>
+  <si>
+    <t>23,46%</t>
+  </si>
+  <si>
+    <t>32,26%</t>
+  </si>
+  <si>
+    <t>35,79%</t>
+  </si>
+  <si>
+    <t>32,33%</t>
+  </si>
+  <si>
+    <t>39,22%</t>
+  </si>
+  <si>
+    <t>53,31%</t>
+  </si>
+  <si>
     <t>48,19%</t>
   </si>
   <si>
-    <t>73,84%</t>
-  </si>
-  <si>
-    <t>25,9%</t>
-  </si>
-  <si>
-    <t>17,7%</t>
-  </si>
-  <si>
-    <t>35,49%</t>
-  </si>
-  <si>
-    <t>40,26%</t>
-  </si>
-  <si>
-    <t>32,86%</t>
-  </si>
-  <si>
-    <t>48,02%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>38,25%</t>
-  </si>
-  <si>
-    <t>26,16%</t>
-  </si>
-  <si>
-    <t>51,81%</t>
-  </si>
-  <si>
-    <t>74,1%</t>
-  </si>
-  <si>
-    <t>64,51%</t>
-  </si>
-  <si>
-    <t>82,3%</t>
-  </si>
-  <si>
-    <t>59,74%</t>
-  </si>
-  <si>
-    <t>51,98%</t>
-  </si>
-  <si>
-    <t>67,14%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>54,74%</t>
-  </si>
-  <si>
-    <t>48,74%</t>
-  </si>
-  <si>
-    <t>60,55%</t>
-  </si>
-  <si>
-    <t>23,49%</t>
-  </si>
-  <si>
-    <t>19,5%</t>
-  </si>
-  <si>
-    <t>27,48%</t>
-  </si>
-  <si>
-    <t>34,67%</t>
-  </si>
-  <si>
-    <t>31,67%</t>
-  </si>
-  <si>
-    <t>38,55%</t>
-  </si>
-  <si>
-    <t>45,26%</t>
-  </si>
-  <si>
-    <t>39,45%</t>
-  </si>
-  <si>
-    <t>51,26%</t>
-  </si>
-  <si>
-    <t>76,51%</t>
-  </si>
-  <si>
-    <t>72,52%</t>
-  </si>
-  <si>
-    <t>80,5%</t>
-  </si>
-  <si>
-    <t>65,33%</t>
-  </si>
-  <si>
-    <t>61,45%</t>
-  </si>
-  <si>
-    <t>68,33%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>56,22%</t>
-  </si>
-  <si>
-    <t>51,31%</t>
-  </si>
-  <si>
-    <t>61,07%</t>
-  </si>
-  <si>
-    <t>21,89%</t>
-  </si>
-  <si>
-    <t>18,97%</t>
-  </si>
-  <si>
-    <t>25,46%</t>
-  </si>
-  <si>
-    <t>34,38%</t>
-  </si>
-  <si>
-    <t>31,54%</t>
-  </si>
-  <si>
-    <t>37,12%</t>
-  </si>
-  <si>
-    <t>43,78%</t>
-  </si>
-  <si>
-    <t>38,93%</t>
-  </si>
-  <si>
-    <t>48,69%</t>
-  </si>
-  <si>
-    <t>78,11%</t>
-  </si>
-  <si>
-    <t>74,54%</t>
-  </si>
-  <si>
-    <t>81,03%</t>
-  </si>
-  <si>
-    <t>65,62%</t>
-  </si>
-  <si>
-    <t>62,88%</t>
-  </si>
-  <si>
-    <t>68,46%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>57,61%</t>
-  </si>
-  <si>
-    <t>51,65%</t>
-  </si>
-  <si>
-    <t>63,63%</t>
-  </si>
-  <si>
-    <t>25,91%</t>
-  </si>
-  <si>
-    <t>21,85%</t>
-  </si>
-  <si>
-    <t>30,12%</t>
-  </si>
-  <si>
-    <t>37,53%</t>
-  </si>
-  <si>
-    <t>33,99%</t>
-  </si>
-  <si>
-    <t>40,98%</t>
-  </si>
-  <si>
-    <t>42,39%</t>
-  </si>
-  <si>
-    <t>36,37%</t>
-  </si>
-  <si>
-    <t>48,35%</t>
-  </si>
-  <si>
-    <t>74,09%</t>
-  </si>
-  <si>
-    <t>69,88%</t>
-  </si>
-  <si>
-    <t>78,15%</t>
-  </si>
-  <si>
-    <t>62,47%</t>
-  </si>
-  <si>
-    <t>59,02%</t>
-  </si>
-  <si>
-    <t>66,01%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>49,47%</t>
-  </si>
-  <si>
-    <t>44,7%</t>
-  </si>
-  <si>
-    <t>54,4%</t>
-  </si>
-  <si>
-    <t>27,3%</t>
-  </si>
-  <si>
-    <t>23,99%</t>
-  </si>
-  <si>
-    <t>31,22%</t>
-  </si>
-  <si>
-    <t>35,53%</t>
-  </si>
-  <si>
-    <t>32,43%</t>
-  </si>
-  <si>
-    <t>38,49%</t>
-  </si>
-  <si>
-    <t>50,53%</t>
-  </si>
-  <si>
-    <t>45,6%</t>
-  </si>
-  <si>
-    <t>55,3%</t>
-  </si>
-  <si>
-    <t>72,7%</t>
-  </si>
-  <si>
-    <t>68,78%</t>
-  </si>
-  <si>
-    <t>76,01%</t>
-  </si>
-  <si>
-    <t>64,47%</t>
-  </si>
-  <si>
-    <t>61,51%</t>
-  </si>
-  <si>
-    <t>67,57%</t>
-  </si>
-  <si>
-    <t>54,56%</t>
-  </si>
-  <si>
-    <t>51,92%</t>
-  </si>
-  <si>
-    <t>57,11%</t>
-  </si>
-  <si>
-    <t>24,64%</t>
-  </si>
-  <si>
-    <t>22,78%</t>
-  </si>
-  <si>
-    <t>26,38%</t>
-  </si>
-  <si>
-    <t>35,61%</t>
-  </si>
-  <si>
-    <t>34,1%</t>
-  </si>
-  <si>
-    <t>37,14%</t>
-  </si>
-  <si>
-    <t>45,44%</t>
-  </si>
-  <si>
-    <t>42,89%</t>
-  </si>
-  <si>
-    <t>48,08%</t>
-  </si>
-  <si>
-    <t>75,36%</t>
-  </si>
-  <si>
-    <t>73,62%</t>
-  </si>
-  <si>
-    <t>77,22%</t>
-  </si>
-  <si>
-    <t>64,39%</t>
-  </si>
-  <si>
-    <t>62,86%</t>
-  </si>
-  <si>
-    <t>65,9%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si percibe alguna pensión en 2012 (Tasa respuesta: 65,16%)</t>
-  </si>
-  <si>
-    <t>42,66%</t>
-  </si>
-  <si>
-    <t>31,25%</t>
-  </si>
-  <si>
-    <t>54,75%</t>
-  </si>
-  <si>
-    <t>29,95%</t>
-  </si>
-  <si>
-    <t>21,06%</t>
-  </si>
-  <si>
-    <t>41,88%</t>
-  </si>
-  <si>
-    <t>35,38%</t>
-  </si>
-  <si>
-    <t>27,71%</t>
+    <t>57,99%</t>
+  </si>
+  <si>
+    <t>72,63%</t>
+  </si>
+  <si>
+    <t>67,74%</t>
+  </si>
+  <si>
+    <t>76,54%</t>
+  </si>
+  <si>
+    <t>64,21%</t>
+  </si>
+  <si>
+    <t>60,78%</t>
+  </si>
+  <si>
+    <t>67,67%</t>
+  </si>
+  <si>
+    <t>50,3%</t>
+  </si>
+  <si>
+    <t>46,27%</t>
+  </si>
+  <si>
+    <t>54,49%</t>
+  </si>
+  <si>
+    <t>35,75%</t>
+  </si>
+  <si>
+    <t>32,46%</t>
+  </si>
+  <si>
+    <t>39,49%</t>
+  </si>
+  <si>
+    <t>39,32%</t>
+  </si>
+  <si>
+    <t>45,06%</t>
+  </si>
+  <si>
+    <t>49,7%</t>
+  </si>
+  <si>
+    <t>45,51%</t>
+  </si>
+  <si>
+    <t>53,73%</t>
+  </si>
+  <si>
+    <t>64,25%</t>
+  </si>
+  <si>
+    <t>60,51%</t>
+  </si>
+  <si>
+    <t>67,54%</t>
+  </si>
+  <si>
+    <t>54,94%</t>
+  </si>
+  <si>
+    <t>60,68%</t>
+  </si>
+  <si>
+    <t>46,36%</t>
+  </si>
+  <si>
+    <t>43,92%</t>
+  </si>
+  <si>
+    <t>48,58%</t>
+  </si>
+  <si>
+    <t>30,18%</t>
+  </si>
+  <si>
+    <t>28,25%</t>
+  </si>
+  <si>
+    <t>32,13%</t>
+  </si>
+  <si>
+    <t>37,33%</t>
+  </si>
+  <si>
+    <t>38,74%</t>
+  </si>
+  <si>
+    <t>53,64%</t>
+  </si>
+  <si>
+    <t>51,42%</t>
+  </si>
+  <si>
+    <t>56,08%</t>
+  </si>
+  <si>
+    <t>69,82%</t>
+  </si>
+  <si>
+    <t>67,87%</t>
+  </si>
+  <si>
+    <t>71,75%</t>
+  </si>
+  <si>
+    <t>62,67%</t>
+  </si>
+  <si>
+    <t>61,26%</t>
+  </si>
+  <si>
+    <t>Población según si percibe alguna pensión en 2023 (Tasa respuesta: 57,09%)</t>
+  </si>
+  <si>
+    <t>61,79%</t>
+  </si>
+  <si>
+    <t>46,96%</t>
+  </si>
+  <si>
+    <t>75,27%</t>
+  </si>
+  <si>
+    <t>43,33%</t>
+  </si>
+  <si>
+    <t>35,4%</t>
+  </si>
+  <si>
+    <t>51,28%</t>
+  </si>
+  <si>
+    <t>50,17%</t>
+  </si>
+  <si>
+    <t>42,52%</t>
+  </si>
+  <si>
+    <t>57,52%</t>
+  </si>
+  <si>
+    <t>38,21%</t>
+  </si>
+  <si>
+    <t>24,73%</t>
+  </si>
+  <si>
+    <t>53,04%</t>
+  </si>
+  <si>
+    <t>56,67%</t>
+  </si>
+  <si>
+    <t>48,72%</t>
+  </si>
+  <si>
+    <t>64,6%</t>
+  </si>
+  <si>
+    <t>49,83%</t>
+  </si>
+  <si>
+    <t>42,48%</t>
+  </si>
+  <si>
+    <t>57,48%</t>
+  </si>
+  <si>
+    <t>62,31%</t>
+  </si>
+  <si>
+    <t>54,18%</t>
+  </si>
+  <si>
+    <t>68,47%</t>
+  </si>
+  <si>
+    <t>40,7%</t>
+  </si>
+  <si>
+    <t>36,91%</t>
+  </si>
+  <si>
+    <t>44,92%</t>
+  </si>
+  <si>
+    <t>49,69%</t>
+  </si>
+  <si>
+    <t>45,86%</t>
+  </si>
+  <si>
+    <t>53,44%</t>
+  </si>
+  <si>
+    <t>37,69%</t>
+  </si>
+  <si>
+    <t>31,53%</t>
+  </si>
+  <si>
+    <t>45,82%</t>
+  </si>
+  <si>
+    <t>59,3%</t>
+  </si>
+  <si>
+    <t>55,08%</t>
+  </si>
+  <si>
+    <t>63,09%</t>
+  </si>
+  <si>
+    <t>50,31%</t>
+  </si>
+  <si>
+    <t>46,56%</t>
+  </si>
+  <si>
+    <t>54,14%</t>
+  </si>
+  <si>
+    <t>53,78%</t>
+  </si>
+  <si>
+    <t>47,41%</t>
+  </si>
+  <si>
+    <t>59,53%</t>
+  </si>
+  <si>
+    <t>33,67%</t>
+  </si>
+  <si>
+    <t>30,83%</t>
+  </si>
+  <si>
+    <t>36,89%</t>
+  </si>
+  <si>
+    <t>41,64%</t>
+  </si>
+  <si>
+    <t>38,91%</t>
+  </si>
+  <si>
+    <t>44,69%</t>
+  </si>
+  <si>
+    <t>46,22%</t>
+  </si>
+  <si>
+    <t>40,47%</t>
+  </si>
+  <si>
+    <t>52,59%</t>
+  </si>
+  <si>
+    <t>66,33%</t>
+  </si>
+  <si>
+    <t>63,11%</t>
+  </si>
+  <si>
+    <t>69,17%</t>
+  </si>
+  <si>
+    <t>58,36%</t>
+  </si>
+  <si>
+    <t>55,31%</t>
+  </si>
+  <si>
+    <t>61,09%</t>
+  </si>
+  <si>
+    <t>60,69%</t>
+  </si>
+  <si>
+    <t>53,41%</t>
+  </si>
+  <si>
+    <t>67,28%</t>
+  </si>
+  <si>
+    <t>49,46%</t>
+  </si>
+  <si>
+    <t>35,27%</t>
+  </si>
+  <si>
+    <t>73,39%</t>
+  </si>
+  <si>
+    <t>53,9%</t>
+  </si>
+  <si>
+    <t>46,38%</t>
+  </si>
+  <si>
+    <t>72,14%</t>
+  </si>
+  <si>
+    <t>39,31%</t>
+  </si>
+  <si>
+    <t>32,72%</t>
+  </si>
+  <si>
+    <t>46,59%</t>
+  </si>
+  <si>
+    <t>50,54%</t>
+  </si>
+  <si>
+    <t>26,61%</t>
+  </si>
+  <si>
+    <t>64,73%</t>
+  </si>
+  <si>
+    <t>46,1%</t>
+  </si>
+  <si>
+    <t>27,86%</t>
+  </si>
+  <si>
+    <t>53,62%</t>
+  </si>
+  <si>
+    <t>51,53%</t>
+  </si>
+  <si>
+    <t>46,76%</t>
+  </si>
+  <si>
+    <t>56,6%</t>
+  </si>
+  <si>
+    <t>39,64%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>42,97%</t>
+  </si>
+  <si>
+    <t>44,49%</t>
+  </si>
+  <si>
+    <t>41,69%</t>
+  </si>
+  <si>
+    <t>48,47%</t>
   </si>
   <si>
     <t>43,4%</t>
   </si>
   <si>
-    <t>57,34%</t>
-  </si>
-  <si>
-    <t>45,25%</t>
-  </si>
-  <si>
-    <t>68,75%</t>
-  </si>
-  <si>
-    <t>70,05%</t>
-  </si>
-  <si>
-    <t>58,12%</t>
-  </si>
-  <si>
-    <t>78,94%</t>
-  </si>
-  <si>
-    <t>64,62%</t>
-  </si>
-  <si>
-    <t>56,6%</t>
-  </si>
-  <si>
-    <t>72,29%</t>
-  </si>
-  <si>
-    <t>50,55%</t>
-  </si>
-  <si>
-    <t>45,18%</t>
-  </si>
-  <si>
-    <t>55,94%</t>
-  </si>
-  <si>
-    <t>31,99%</t>
-  </si>
-  <si>
-    <t>27,59%</t>
-  </si>
-  <si>
-    <t>36,38%</t>
-  </si>
-  <si>
-    <t>40,46%</t>
-  </si>
-  <si>
-    <t>36,8%</t>
-  </si>
-  <si>
-    <t>43,92%</t>
-  </si>
-  <si>
-    <t>49,45%</t>
-  </si>
-  <si>
-    <t>44,06%</t>
-  </si>
-  <si>
-    <t>54,82%</t>
-  </si>
-  <si>
-    <t>68,01%</t>
-  </si>
-  <si>
-    <t>63,62%</t>
-  </si>
-  <si>
-    <t>72,41%</t>
-  </si>
-  <si>
-    <t>59,54%</t>
-  </si>
-  <si>
-    <t>56,08%</t>
-  </si>
-  <si>
-    <t>63,2%</t>
-  </si>
-  <si>
-    <t>40,9%</t>
-  </si>
-  <si>
-    <t>36,93%</t>
-  </si>
-  <si>
-    <t>45,22%</t>
-  </si>
-  <si>
-    <t>27,87%</t>
-  </si>
-  <si>
-    <t>24,51%</t>
-  </si>
-  <si>
-    <t>31,11%</t>
-  </si>
-  <si>
-    <t>33,66%</t>
-  </si>
-  <si>
-    <t>31,13%</t>
-  </si>
-  <si>
-    <t>59,1%</t>
-  </si>
-  <si>
-    <t>54,78%</t>
-  </si>
-  <si>
-    <t>63,07%</t>
-  </si>
-  <si>
-    <t>72,13%</t>
-  </si>
-  <si>
-    <t>68,89%</t>
-  </si>
-  <si>
-    <t>75,49%</t>
-  </si>
-  <si>
-    <t>66,34%</t>
-  </si>
-  <si>
-    <t>68,87%</t>
-  </si>
-  <si>
-    <t>39,03%</t>
-  </si>
-  <si>
-    <t>34,37%</t>
-  </si>
-  <si>
-    <t>43,9%</t>
-  </si>
-  <si>
-    <t>26,46%</t>
-  </si>
-  <si>
-    <t>22,46%</t>
-  </si>
-  <si>
-    <t>30,26%</t>
-  </si>
-  <si>
-    <t>31,94%</t>
-  </si>
-  <si>
-    <t>28,9%</t>
-  </si>
-  <si>
-    <t>35,2%</t>
-  </si>
-  <si>
-    <t>60,97%</t>
-  </si>
-  <si>
-    <t>56,1%</t>
-  </si>
-  <si>
-    <t>65,63%</t>
-  </si>
-  <si>
-    <t>73,54%</t>
-  </si>
-  <si>
-    <t>69,74%</t>
-  </si>
-  <si>
-    <t>77,54%</t>
-  </si>
-  <si>
-    <t>68,06%</t>
-  </si>
-  <si>
-    <t>64,8%</t>
-  </si>
-  <si>
-    <t>71,1%</t>
-  </si>
-  <si>
-    <t>47,36%</t>
-  </si>
-  <si>
-    <t>43,1%</t>
-  </si>
-  <si>
-    <t>52,32%</t>
-  </si>
-  <si>
-    <t>30,45%</t>
-  </si>
-  <si>
-    <t>27,01%</t>
-  </si>
-  <si>
-    <t>33,93%</t>
-  </si>
-  <si>
-    <t>37,4%</t>
-  </si>
-  <si>
-    <t>34,68%</t>
-  </si>
-  <si>
-    <t>40,66%</t>
-  </si>
-  <si>
-    <t>52,64%</t>
-  </si>
-  <si>
-    <t>47,68%</t>
-  </si>
-  <si>
-    <t>56,9%</t>
-  </si>
-  <si>
-    <t>69,55%</t>
-  </si>
-  <si>
-    <t>66,07%</t>
-  </si>
-  <si>
-    <t>72,99%</t>
-  </si>
-  <si>
-    <t>62,6%</t>
-  </si>
-  <si>
-    <t>59,34%</t>
-  </si>
-  <si>
-    <t>65,32%</t>
-  </si>
-  <si>
-    <t>44,02%</t>
-  </si>
-  <si>
-    <t>41,45%</t>
-  </si>
-  <si>
-    <t>46,32%</t>
-  </si>
-  <si>
-    <t>29,07%</t>
-  </si>
-  <si>
-    <t>27,08%</t>
-  </si>
-  <si>
-    <t>30,69%</t>
-  </si>
-  <si>
-    <t>35,58%</t>
-  </si>
-  <si>
-    <t>33,96%</t>
-  </si>
-  <si>
-    <t>36,98%</t>
-  </si>
-  <si>
-    <t>55,98%</t>
-  </si>
-  <si>
-    <t>53,68%</t>
-  </si>
-  <si>
-    <t>58,55%</t>
-  </si>
-  <si>
-    <t>70,93%</t>
-  </si>
-  <si>
-    <t>69,31%</t>
-  </si>
-  <si>
-    <t>72,92%</t>
-  </si>
-  <si>
-    <t>64,42%</t>
-  </si>
-  <si>
-    <t>63,02%</t>
-  </si>
-  <si>
-    <t>66,04%</t>
-  </si>
-  <si>
-    <t>Población según si percibe alguna pensión en 2015 (Tasa respuesta: 63,37%)</t>
-  </si>
-  <si>
-    <t>41,25%</t>
-  </si>
-  <si>
-    <t>30,35%</t>
-  </si>
-  <si>
-    <t>53,39%</t>
-  </si>
-  <si>
-    <t>23,98%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>35,12%</t>
-  </si>
-  <si>
-    <t>31,77%</t>
-  </si>
-  <si>
-    <t>24,97%</t>
-  </si>
-  <si>
-    <t>58,75%</t>
-  </si>
-  <si>
-    <t>46,61%</t>
-  </si>
-  <si>
-    <t>69,65%</t>
-  </si>
-  <si>
-    <t>76,02%</t>
-  </si>
-  <si>
-    <t>64,88%</t>
-  </si>
-  <si>
-    <t>83,79%</t>
-  </si>
-  <si>
-    <t>68,23%</t>
-  </si>
-  <si>
-    <t>75,03%</t>
-  </si>
-  <si>
-    <t>45,15%</t>
-  </si>
-  <si>
-    <t>40,22%</t>
-  </si>
-  <si>
-    <t>50,25%</t>
-  </si>
-  <si>
-    <t>31,14%</t>
-  </si>
-  <si>
-    <t>26,71%</t>
-  </si>
-  <si>
-    <t>36,1%</t>
-  </si>
-  <si>
-    <t>37,62%</t>
-  </si>
-  <si>
-    <t>34,08%</t>
-  </si>
-  <si>
-    <t>40,92%</t>
-  </si>
-  <si>
-    <t>54,85%</t>
-  </si>
-  <si>
-    <t>49,75%</t>
-  </si>
-  <si>
-    <t>59,78%</t>
-  </si>
-  <si>
-    <t>68,86%</t>
-  </si>
-  <si>
-    <t>63,9%</t>
-  </si>
-  <si>
-    <t>73,29%</t>
-  </si>
-  <si>
-    <t>62,38%</t>
-  </si>
-  <si>
-    <t>59,08%</t>
-  </si>
-  <si>
-    <t>65,92%</t>
-  </si>
-  <si>
-    <t>43,97%</t>
-  </si>
-  <si>
-    <t>39,88%</t>
-  </si>
-  <si>
-    <t>48,45%</t>
-  </si>
-  <si>
-    <t>27,05%</t>
-  </si>
-  <si>
-    <t>23,41%</t>
-  </si>
-  <si>
-    <t>30,54%</t>
-  </si>
-  <si>
-    <t>34,56%</t>
-  </si>
-  <si>
-    <t>31,78%</t>
-  </si>
-  <si>
-    <t>37,3%</t>
-  </si>
-  <si>
-    <t>56,03%</t>
-  </si>
-  <si>
-    <t>51,55%</t>
-  </si>
-  <si>
-    <t>60,12%</t>
-  </si>
-  <si>
-    <t>72,95%</t>
-  </si>
-  <si>
-    <t>69,46%</t>
-  </si>
-  <si>
-    <t>76,59%</t>
-  </si>
-  <si>
-    <t>65,44%</t>
-  </si>
-  <si>
-    <t>62,7%</t>
-  </si>
-  <si>
-    <t>68,22%</t>
-  </si>
-  <si>
-    <t>46,69%</t>
-  </si>
-  <si>
-    <t>41,86%</t>
-  </si>
-  <si>
-    <t>52,33%</t>
-  </si>
-  <si>
-    <t>27,37%</t>
-  </si>
-  <si>
-    <t>23,6%</t>
-  </si>
-  <si>
-    <t>31,86%</t>
-  </si>
-  <si>
-    <t>35,79%</t>
-  </si>
-  <si>
-    <t>32,39%</t>
-  </si>
-  <si>
-    <t>38,95%</t>
-  </si>
-  <si>
-    <t>53,31%</t>
-  </si>
-  <si>
-    <t>47,67%</t>
-  </si>
-  <si>
-    <t>58,14%</t>
-  </si>
-  <si>
-    <t>72,63%</t>
-  </si>
-  <si>
-    <t>68,14%</t>
-  </si>
-  <si>
-    <t>76,4%</t>
-  </si>
-  <si>
-    <t>64,21%</t>
-  </si>
-  <si>
-    <t>61,05%</t>
-  </si>
-  <si>
-    <t>67,61%</t>
-  </si>
-  <si>
-    <t>50,3%</t>
-  </si>
-  <si>
-    <t>45,81%</t>
-  </si>
-  <si>
-    <t>54,26%</t>
-  </si>
-  <si>
-    <t>35,75%</t>
-  </si>
-  <si>
-    <t>32,02%</t>
-  </si>
-  <si>
-    <t>39,62%</t>
-  </si>
-  <si>
-    <t>42,01%</t>
-  </si>
-  <si>
-    <t>39,39%</t>
-  </si>
-  <si>
-    <t>44,89%</t>
-  </si>
-  <si>
-    <t>49,7%</t>
-  </si>
-  <si>
-    <t>45,74%</t>
-  </si>
-  <si>
-    <t>54,19%</t>
-  </si>
-  <si>
-    <t>64,25%</t>
-  </si>
-  <si>
-    <t>60,38%</t>
-  </si>
-  <si>
-    <t>67,98%</t>
-  </si>
-  <si>
-    <t>57,99%</t>
-  </si>
-  <si>
-    <t>55,11%</t>
-  </si>
-  <si>
-    <t>60,61%</t>
-  </si>
-  <si>
-    <t>46,36%</t>
-  </si>
-  <si>
-    <t>44,0%</t>
-  </si>
-  <si>
-    <t>48,61%</t>
-  </si>
-  <si>
-    <t>30,18%</t>
-  </si>
-  <si>
-    <t>28,18%</t>
-  </si>
-  <si>
-    <t>32,28%</t>
-  </si>
-  <si>
-    <t>37,33%</t>
-  </si>
-  <si>
-    <t>35,9%</t>
-  </si>
-  <si>
-    <t>38,83%</t>
-  </si>
-  <si>
-    <t>53,64%</t>
-  </si>
-  <si>
-    <t>51,39%</t>
-  </si>
-  <si>
-    <t>56,0%</t>
-  </si>
-  <si>
-    <t>69,82%</t>
-  </si>
-  <si>
-    <t>67,72%</t>
-  </si>
-  <si>
-    <t>71,82%</t>
-  </si>
-  <si>
-    <t>62,67%</t>
-  </si>
-  <si>
-    <t>61,17%</t>
-  </si>
-  <si>
-    <t>64,1%</t>
-  </si>
-  <si>
-    <t>Población según si percibe alguna pensión en 2023 (Tasa respuesta: 57,09%)</t>
-  </si>
-  <si>
-    <t>61,79%</t>
-  </si>
-  <si>
-    <t>46,96%</t>
-  </si>
-  <si>
-    <t>75,27%</t>
-  </si>
-  <si>
-    <t>43,33%</t>
-  </si>
-  <si>
-    <t>35,4%</t>
-  </si>
-  <si>
-    <t>51,28%</t>
-  </si>
-  <si>
-    <t>50,17%</t>
-  </si>
-  <si>
-    <t>42,52%</t>
-  </si>
-  <si>
-    <t>57,52%</t>
-  </si>
-  <si>
-    <t>38,21%</t>
-  </si>
-  <si>
-    <t>24,73%</t>
-  </si>
-  <si>
-    <t>53,04%</t>
-  </si>
-  <si>
-    <t>56,67%</t>
-  </si>
-  <si>
-    <t>48,72%</t>
-  </si>
-  <si>
-    <t>64,6%</t>
-  </si>
-  <si>
-    <t>49,83%</t>
-  </si>
-  <si>
-    <t>42,48%</t>
-  </si>
-  <si>
-    <t>57,48%</t>
-  </si>
-  <si>
-    <t>62,31%</t>
-  </si>
-  <si>
-    <t>54,18%</t>
-  </si>
-  <si>
-    <t>68,47%</t>
-  </si>
-  <si>
-    <t>40,7%</t>
-  </si>
-  <si>
-    <t>36,91%</t>
-  </si>
-  <si>
-    <t>44,92%</t>
-  </si>
-  <si>
-    <t>49,69%</t>
-  </si>
-  <si>
-    <t>45,86%</t>
-  </si>
-  <si>
-    <t>53,44%</t>
-  </si>
-  <si>
-    <t>37,69%</t>
-  </si>
-  <si>
-    <t>31,53%</t>
-  </si>
-  <si>
-    <t>45,82%</t>
-  </si>
-  <si>
-    <t>59,3%</t>
-  </si>
-  <si>
-    <t>55,08%</t>
-  </si>
-  <si>
-    <t>63,09%</t>
-  </si>
-  <si>
-    <t>50,31%</t>
-  </si>
-  <si>
-    <t>46,56%</t>
-  </si>
-  <si>
-    <t>54,14%</t>
-  </si>
-  <si>
-    <t>53,78%</t>
-  </si>
-  <si>
-    <t>47,41%</t>
-  </si>
-  <si>
-    <t>59,53%</t>
-  </si>
-  <si>
-    <t>33,67%</t>
-  </si>
-  <si>
-    <t>30,83%</t>
-  </si>
-  <si>
-    <t>36,89%</t>
-  </si>
-  <si>
-    <t>41,64%</t>
-  </si>
-  <si>
-    <t>38,91%</t>
-  </si>
-  <si>
-    <t>44,69%</t>
-  </si>
-  <si>
-    <t>46,22%</t>
-  </si>
-  <si>
-    <t>40,47%</t>
-  </si>
-  <si>
-    <t>52,59%</t>
-  </si>
-  <si>
-    <t>66,33%</t>
-  </si>
-  <si>
-    <t>63,11%</t>
-  </si>
-  <si>
-    <t>69,17%</t>
-  </si>
-  <si>
-    <t>58,36%</t>
-  </si>
-  <si>
-    <t>55,31%</t>
-  </si>
-  <si>
-    <t>61,09%</t>
-  </si>
-  <si>
-    <t>60,69%</t>
-  </si>
-  <si>
-    <t>53,41%</t>
-  </si>
-  <si>
-    <t>67,28%</t>
-  </si>
-  <si>
-    <t>49,46%</t>
-  </si>
-  <si>
-    <t>35,27%</t>
-  </si>
-  <si>
-    <t>73,39%</t>
-  </si>
-  <si>
-    <t>53,9%</t>
-  </si>
-  <si>
-    <t>46,38%</t>
-  </si>
-  <si>
-    <t>72,14%</t>
-  </si>
-  <si>
-    <t>39,31%</t>
-  </si>
-  <si>
-    <t>32,72%</t>
-  </si>
-  <si>
-    <t>46,59%</t>
-  </si>
-  <si>
-    <t>50,54%</t>
-  </si>
-  <si>
-    <t>26,61%</t>
-  </si>
-  <si>
-    <t>64,73%</t>
-  </si>
-  <si>
-    <t>46,1%</t>
-  </si>
-  <si>
-    <t>27,86%</t>
-  </si>
-  <si>
-    <t>53,62%</t>
-  </si>
-  <si>
-    <t>51,53%</t>
-  </si>
-  <si>
-    <t>46,76%</t>
-  </si>
-  <si>
-    <t>39,64%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>42,97%</t>
-  </si>
-  <si>
-    <t>44,49%</t>
-  </si>
-  <si>
-    <t>41,69%</t>
-  </si>
-  <si>
-    <t>48,47%</t>
-  </si>
-  <si>
     <t>53,24%</t>
   </si>
   <si>
@@ -1346,9 +1346,6 @@
     <t>44,75%</t>
   </si>
   <si>
-    <t>51,74%</t>
-  </si>
-  <si>
     <t>43,61%</t>
   </si>
   <si>
@@ -1368,9 +1365,6 @@
   </si>
   <si>
     <t>52,99%</t>
-  </si>
-  <si>
-    <t>48,26%</t>
   </si>
   <si>
     <t>55,25%</t>
@@ -1785,7 +1779,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{057BE8CB-E8FD-4B08-88A9-976B064191DF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A863F26-E395-4FD4-973D-1C0CCA3BCE9F}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2848,7 +2842,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5632B9E9-7139-4DE2-B182-F1971B0F5CB5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC8F1972-EA29-4E19-92A9-E05610E4F729}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3318,7 +3312,7 @@
         <v>170</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>80</v>
+        <v>171</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3333,13 +3327,13 @@
         <v>355771</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="H11" s="7">
         <v>497</v>
@@ -3348,13 +3342,13 @@
         <v>542812</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M11" s="7">
         <v>828</v>
@@ -3363,13 +3357,13 @@
         <v>898584</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>72</v>
+        <v>179</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3437,13 +3431,13 @@
         <v>168741</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="H13" s="7">
         <v>132</v>
@@ -3452,13 +3446,13 @@
         <v>147873</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="M13" s="7">
         <v>279</v>
@@ -3467,13 +3461,13 @@
         <v>316614</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3488,13 +3482,13 @@
         <v>263557</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="H14" s="7">
         <v>378</v>
@@ -3503,13 +3497,13 @@
         <v>410995</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="M14" s="7">
         <v>625</v>
@@ -3518,13 +3512,13 @@
         <v>674551</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3592,13 +3586,13 @@
         <v>244670</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="H16" s="7">
         <v>212</v>
@@ -3607,13 +3601,13 @@
         <v>225397</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="M16" s="7">
         <v>434</v>
@@ -3622,13 +3616,13 @@
         <v>470067</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3643,13 +3637,13 @@
         <v>271930</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="H17" s="7">
         <v>493</v>
@@ -3658,13 +3652,13 @@
         <v>514781</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="M17" s="7">
         <v>766</v>
@@ -3673,13 +3667,13 @@
         <v>786711</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3747,13 +3741,13 @@
         <v>872220</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="H19" s="7">
         <v>689</v>
@@ -3762,13 +3756,13 @@
         <v>748218</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>220</v>
+        <v>94</v>
       </c>
       <c r="M19" s="7">
         <v>1476</v>
@@ -3777,13 +3771,13 @@
         <v>1620438</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3798,13 +3792,13 @@
         <v>1109193</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H20" s="7">
         <v>1699</v>
@@ -3813,10 +3807,10 @@
         <v>1825320</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>228</v>
+        <v>102</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>229</v>
@@ -3911,7 +3905,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1BDD077-111E-4B0A-947A-FD5846A12983}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{007B0D76-B301-46E0-86E6-BACF7E3699B9}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4071,7 +4065,7 @@
         <v>241</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>42</v>
+        <v>242</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4086,13 +4080,13 @@
         <v>40265</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H5" s="7">
         <v>63</v>
@@ -4101,13 +4095,13 @@
         <v>63455</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="M5" s="7">
         <v>100</v>
@@ -4116,13 +4110,13 @@
         <v>103720</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>34</v>
+        <v>250</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4190,13 +4184,13 @@
         <v>161221</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="H7" s="7">
         <v>116</v>
@@ -4205,13 +4199,13 @@
         <v>129107</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="M7" s="7">
         <v>281</v>
@@ -4220,13 +4214,13 @@
         <v>290328</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4241,13 +4235,13 @@
         <v>195855</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="H8" s="7">
         <v>286</v>
@@ -4256,13 +4250,13 @@
         <v>285474</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="M8" s="7">
         <v>470</v>
@@ -4271,13 +4265,13 @@
         <v>481329</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4345,13 +4339,13 @@
         <v>264615</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="H10" s="7">
         <v>175</v>
@@ -4360,13 +4354,13 @@
         <v>203855</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="M10" s="7">
         <v>437</v>
@@ -4375,13 +4369,13 @@
         <v>468470</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4396,13 +4390,13 @@
         <v>337207</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="H11" s="7">
         <v>521</v>
@@ -4411,13 +4405,13 @@
         <v>549832</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="M11" s="7">
         <v>833</v>
@@ -4426,13 +4420,13 @@
         <v>887039</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4500,13 +4494,13 @@
         <v>182071</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="H13" s="7">
         <v>117</v>
@@ -4515,13 +4509,13 @@
         <v>138296</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="M13" s="7">
         <v>290</v>
@@ -4530,13 +4524,13 @@
         <v>320367</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4551,13 +4545,13 @@
         <v>207855</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="H14" s="7">
         <v>345</v>
@@ -4566,13 +4560,13 @@
         <v>366912</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="M14" s="7">
         <v>535</v>
@@ -4581,13 +4575,13 @@
         <v>574767</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4655,13 +4649,13 @@
         <v>266047</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="H16" s="7">
         <v>211</v>
@@ -4670,13 +4664,13 @@
         <v>250749</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="M16" s="7">
         <v>484</v>
@@ -4685,13 +4679,13 @@
         <v>516796</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>310</v>
+        <v>289</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4706,13 +4700,13 @@
         <v>262910</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H17" s="7">
         <v>425</v>
@@ -4721,13 +4715,13 @@
         <v>450581</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="M17" s="7">
         <v>683</v>
@@ -4736,7 +4730,7 @@
         <v>713491</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>319</v>
+        <v>299</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>320</v>
@@ -4843,10 +4837,10 @@
         <v>328</v>
       </c>
       <c r="P19" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>329</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4861,13 +4855,13 @@
         <v>1044091</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>331</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>332</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>333</v>
       </c>
       <c r="H20" s="7">
         <v>1640</v>
@@ -4876,28 +4870,28 @@
         <v>1716255</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>334</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>335</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>336</v>
       </c>
       <c r="M20" s="7">
         <v>2621</v>
       </c>
       <c r="N20" s="7">
-        <v>2760347</v>
+        <v>2760346</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>337</v>
       </c>
-      <c r="P20" s="7" t="s">
-        <v>338</v>
-      </c>
       <c r="Q20" s="7" t="s">
-        <v>339</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4939,7 +4933,7 @@
         <v>4163</v>
       </c>
       <c r="N21" s="7">
-        <v>4404593</v>
+        <v>4404592</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -4974,7 +4968,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCD8B314-3DD3-49BB-85A7-08F7F3F8377E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76BFADC4-CBFB-41C6-A10C-C4FF38777464}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4991,7 +4985,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5098,13 +5092,13 @@
         <v>30861</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>341</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>343</v>
       </c>
       <c r="H4" s="7">
         <v>89</v>
@@ -5113,13 +5107,13 @@
         <v>36803</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>344</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>346</v>
       </c>
       <c r="M4" s="7">
         <v>136</v>
@@ -5128,13 +5122,13 @@
         <v>67664</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>347</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>348</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5149,13 +5143,13 @@
         <v>19082</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>350</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>352</v>
       </c>
       <c r="H5" s="7">
         <v>81</v>
@@ -5164,13 +5158,13 @@
         <v>48129</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>353</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>354</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>355</v>
       </c>
       <c r="M5" s="7">
         <v>101</v>
@@ -5179,13 +5173,13 @@
         <v>67211</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>356</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>357</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5253,13 +5247,13 @@
         <v>160098</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>359</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>361</v>
       </c>
       <c r="H7" s="7">
         <v>307</v>
@@ -5268,13 +5262,13 @@
         <v>146787</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>362</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>363</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>364</v>
       </c>
       <c r="M7" s="7">
         <v>537</v>
@@ -5283,13 +5277,13 @@
         <v>306885</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>365</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>366</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5304,13 +5298,13 @@
         <v>96848</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>368</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>369</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>370</v>
       </c>
       <c r="H8" s="7">
         <v>342</v>
@@ -5319,13 +5313,13 @@
         <v>213875</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>371</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>372</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>373</v>
       </c>
       <c r="M8" s="7">
         <v>435</v>
@@ -5334,13 +5328,13 @@
         <v>310723</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>374</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5408,13 +5402,13 @@
         <v>215953</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>377</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>379</v>
       </c>
       <c r="H10" s="7">
         <v>360</v>
@@ -5423,13 +5417,13 @@
         <v>205580</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>380</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>381</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>382</v>
       </c>
       <c r="M10" s="7">
         <v>647</v>
@@ -5438,13 +5432,13 @@
         <v>421533</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>383</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>384</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5459,13 +5453,13 @@
         <v>185620</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>386</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>388</v>
       </c>
       <c r="H11" s="7">
         <v>553</v>
@@ -5474,13 +5468,13 @@
         <v>405081</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>389</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>390</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>391</v>
       </c>
       <c r="M11" s="7">
         <v>697</v>
@@ -5489,13 +5483,13 @@
         <v>590701</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>392</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>393</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5563,13 +5557,13 @@
         <v>216906</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>395</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>396</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>397</v>
       </c>
       <c r="H13" s="7">
         <v>250</v>
@@ -5578,13 +5572,13 @@
         <v>270032</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>398</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>399</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>400</v>
       </c>
       <c r="M13" s="7">
         <v>496</v>
@@ -5593,13 +5587,13 @@
         <v>486938</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>401</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>402</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5614,13 +5608,13 @@
         <v>140473</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>404</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>405</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>406</v>
       </c>
       <c r="H14" s="7">
         <v>369</v>
@@ -5629,13 +5623,13 @@
         <v>275966</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>407</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>408</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>409</v>
       </c>
       <c r="M14" s="7">
         <v>466</v>
@@ -5644,13 +5638,13 @@
         <v>416439</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>410</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>411</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5718,13 +5712,13 @@
         <v>241251</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>413</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>414</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="H16" s="7">
         <v>427</v>
@@ -5733,13 +5727,13 @@
         <v>269137</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>415</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>416</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>417</v>
       </c>
       <c r="M16" s="7">
         <v>752</v>
@@ -5748,13 +5742,13 @@
         <v>510388</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>418</v>
       </c>
-      <c r="P16" s="7" t="s">
-        <v>419</v>
-      </c>
       <c r="Q16" s="7" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5769,10 +5763,10 @@
         <v>226906</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>420</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>421</v>
@@ -5802,7 +5796,7 @@
         <v>425</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>426</v>
@@ -5909,7 +5903,7 @@
         <v>434</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>435</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5924,13 +5918,13 @@
         <v>668929</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>436</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>437</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>438</v>
       </c>
       <c r="H20" s="7">
         <v>1869</v>
@@ -5939,13 +5933,13 @@
         <v>1352890</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>439</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>440</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>441</v>
       </c>
       <c r="M20" s="7">
         <v>2423</v>
@@ -5954,13 +5948,13 @@
         <v>2021819</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>442</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>443</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P62-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P62-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BC9E0DE3-A6CD-4717-B459-ACE182F279C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DDD302BC-DCC6-4013-BC4C-71872BF59928}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{76CEF6B1-0624-46C3-9900-04076C586091}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{419DD35D-3397-4CDD-882F-EE8F2BEDBB84}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="443">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="431">
   <si>
     <t>Población según si percibe alguna pensión en 2007 (Tasa respuesta: 56,61%)</t>
   </si>
@@ -71,34 +71,34 @@
     <t>&lt;2.000hab</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>61,75%</t>
   </si>
   <si>
-    <t>47,13%</t>
-  </si>
-  <si>
-    <t>73,27%</t>
+    <t>47,2%</t>
+  </si>
+  <si>
+    <t>72,72%</t>
   </si>
   <si>
     <t>25,9%</t>
   </si>
   <si>
-    <t>18,17%</t>
-  </si>
-  <si>
-    <t>35,41%</t>
+    <t>18,02%</t>
+  </si>
+  <si>
+    <t>34,57%</t>
   </si>
   <si>
     <t>40,26%</t>
   </si>
   <si>
-    <t>32,58%</t>
-  </si>
-  <si>
-    <t>48,18%</t>
+    <t>32,01%</t>
+  </si>
+  <si>
+    <t>48,7%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>38,25%</t>
   </si>
   <si>
-    <t>26,73%</t>
-  </si>
-  <si>
-    <t>52,87%</t>
+    <t>27,28%</t>
+  </si>
+  <si>
+    <t>52,8%</t>
   </si>
   <si>
     <t>74,1%</t>
   </si>
   <si>
-    <t>64,59%</t>
-  </si>
-  <si>
-    <t>81,83%</t>
+    <t>65,43%</t>
+  </si>
+  <si>
+    <t>81,98%</t>
   </si>
   <si>
     <t>59,74%</t>
   </si>
   <si>
-    <t>51,82%</t>
-  </si>
-  <si>
-    <t>67,42%</t>
+    <t>51,3%</t>
+  </si>
+  <si>
+    <t>67,99%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,55 +140,55 @@
     <t>54,74%</t>
   </si>
   <si>
-    <t>48,98%</t>
-  </si>
-  <si>
-    <t>61,68%</t>
+    <t>48,35%</t>
+  </si>
+  <si>
+    <t>60,97%</t>
   </si>
   <si>
     <t>23,49%</t>
   </si>
   <si>
-    <t>19,72%</t>
-  </si>
-  <si>
-    <t>27,41%</t>
+    <t>19,65%</t>
+  </si>
+  <si>
+    <t>27,66%</t>
   </si>
   <si>
     <t>34,67%</t>
   </si>
   <si>
-    <t>31,06%</t>
-  </si>
-  <si>
-    <t>38,36%</t>
+    <t>31,18%</t>
+  </si>
+  <si>
+    <t>37,93%</t>
   </si>
   <si>
     <t>45,26%</t>
   </si>
   <si>
-    <t>38,32%</t>
-  </si>
-  <si>
-    <t>51,02%</t>
+    <t>39,03%</t>
+  </si>
+  <si>
+    <t>51,65%</t>
   </si>
   <si>
     <t>76,51%</t>
   </si>
   <si>
-    <t>72,59%</t>
-  </si>
-  <si>
-    <t>80,28%</t>
+    <t>72,34%</t>
+  </si>
+  <si>
+    <t>80,35%</t>
   </si>
   <si>
     <t>65,33%</t>
   </si>
   <si>
-    <t>61,64%</t>
-  </si>
-  <si>
-    <t>68,94%</t>
+    <t>62,07%</t>
+  </si>
+  <si>
+    <t>68,82%</t>
   </si>
   <si>
     <t>10-50.000 hab</t>
@@ -197,1177 +197,1141 @@
     <t>56,22%</t>
   </si>
   <si>
+    <t>51,12%</t>
+  </si>
+  <si>
+    <t>61,28%</t>
+  </si>
+  <si>
+    <t>21,89%</t>
+  </si>
+  <si>
+    <t>18,99%</t>
+  </si>
+  <si>
+    <t>25,25%</t>
+  </si>
+  <si>
+    <t>34,38%</t>
+  </si>
+  <si>
+    <t>31,74%</t>
+  </si>
+  <si>
+    <t>37,36%</t>
+  </si>
+  <si>
+    <t>43,78%</t>
+  </si>
+  <si>
+    <t>38,72%</t>
+  </si>
+  <si>
+    <t>48,88%</t>
+  </si>
+  <si>
+    <t>78,11%</t>
+  </si>
+  <si>
+    <t>74,75%</t>
+  </si>
+  <si>
+    <t>81,01%</t>
+  </si>
+  <si>
+    <t>65,62%</t>
+  </si>
+  <si>
+    <t>62,64%</t>
+  </si>
+  <si>
+    <t>68,26%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>57,61%</t>
+  </si>
+  <si>
+    <t>51,51%</t>
+  </si>
+  <si>
+    <t>63,47%</t>
+  </si>
+  <si>
+    <t>25,91%</t>
+  </si>
+  <si>
+    <t>22,1%</t>
+  </si>
+  <si>
+    <t>30,18%</t>
+  </si>
+  <si>
+    <t>37,53%</t>
+  </si>
+  <si>
+    <t>33,58%</t>
+  </si>
+  <si>
+    <t>40,71%</t>
+  </si>
+  <si>
+    <t>42,39%</t>
+  </si>
+  <si>
+    <t>36,53%</t>
+  </si>
+  <si>
+    <t>48,49%</t>
+  </si>
+  <si>
+    <t>74,09%</t>
+  </si>
+  <si>
+    <t>69,82%</t>
+  </si>
+  <si>
+    <t>77,9%</t>
+  </si>
+  <si>
+    <t>62,47%</t>
+  </si>
+  <si>
+    <t>59,29%</t>
+  </si>
+  <si>
+    <t>66,42%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>49,47%</t>
+  </si>
+  <si>
+    <t>44,83%</t>
+  </si>
+  <si>
+    <t>54,99%</t>
+  </si>
+  <si>
+    <t>27,3%</t>
+  </si>
+  <si>
+    <t>23,87%</t>
+  </si>
+  <si>
+    <t>30,61%</t>
+  </si>
+  <si>
+    <t>35,53%</t>
+  </si>
+  <si>
+    <t>32,51%</t>
+  </si>
+  <si>
+    <t>38,5%</t>
+  </si>
+  <si>
+    <t>50,53%</t>
+  </si>
+  <si>
+    <t>45,01%</t>
+  </si>
+  <si>
+    <t>55,17%</t>
+  </si>
+  <si>
+    <t>72,7%</t>
+  </si>
+  <si>
+    <t>69,39%</t>
+  </si>
+  <si>
+    <t>76,13%</t>
+  </si>
+  <si>
+    <t>64,47%</t>
+  </si>
+  <si>
+    <t>61,5%</t>
+  </si>
+  <si>
+    <t>67,49%</t>
+  </si>
+  <si>
+    <t>54,56%</t>
+  </si>
+  <si>
+    <t>51,86%</t>
+  </si>
+  <si>
+    <t>57,12%</t>
+  </si>
+  <si>
+    <t>24,64%</t>
+  </si>
+  <si>
+    <t>22,86%</t>
+  </si>
+  <si>
+    <t>26,49%</t>
+  </si>
+  <si>
+    <t>35,61%</t>
+  </si>
+  <si>
+    <t>34,19%</t>
+  </si>
+  <si>
+    <t>37,31%</t>
+  </si>
+  <si>
+    <t>45,44%</t>
+  </si>
+  <si>
+    <t>42,88%</t>
+  </si>
+  <si>
+    <t>48,14%</t>
+  </si>
+  <si>
+    <t>75,36%</t>
+  </si>
+  <si>
+    <t>73,51%</t>
+  </si>
+  <si>
+    <t>77,14%</t>
+  </si>
+  <si>
+    <t>64,39%</t>
+  </si>
+  <si>
+    <t>62,69%</t>
+  </si>
+  <si>
+    <t>65,81%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si percibe alguna pensión en 2012 (Tasa respuesta: 65,16%)</t>
+  </si>
+  <si>
+    <t>42,66%</t>
+  </si>
+  <si>
+    <t>30,88%</t>
+  </si>
+  <si>
+    <t>55,04%</t>
+  </si>
+  <si>
+    <t>29,95%</t>
+  </si>
+  <si>
+    <t>20,78%</t>
+  </si>
+  <si>
+    <t>40,39%</t>
+  </si>
+  <si>
+    <t>35,38%</t>
+  </si>
+  <si>
+    <t>27,03%</t>
+  </si>
+  <si>
+    <t>43,41%</t>
+  </si>
+  <si>
+    <t>57,34%</t>
+  </si>
+  <si>
+    <t>44,96%</t>
+  </si>
+  <si>
+    <t>69,12%</t>
+  </si>
+  <si>
+    <t>70,05%</t>
+  </si>
+  <si>
+    <t>59,61%</t>
+  </si>
+  <si>
+    <t>79,22%</t>
+  </si>
+  <si>
+    <t>64,62%</t>
+  </si>
+  <si>
+    <t>56,59%</t>
+  </si>
+  <si>
+    <t>72,97%</t>
+  </si>
+  <si>
+    <t>50,55%</t>
+  </si>
+  <si>
+    <t>44,97%</t>
+  </si>
+  <si>
+    <t>55,87%</t>
+  </si>
+  <si>
+    <t>31,99%</t>
+  </si>
+  <si>
+    <t>26,95%</t>
+  </si>
+  <si>
+    <t>36,32%</t>
+  </si>
+  <si>
+    <t>40,46%</t>
+  </si>
+  <si>
+    <t>36,79%</t>
+  </si>
+  <si>
+    <t>44,07%</t>
+  </si>
+  <si>
+    <t>49,45%</t>
+  </si>
+  <si>
+    <t>44,13%</t>
+  </si>
+  <si>
+    <t>55,03%</t>
+  </si>
+  <si>
+    <t>68,01%</t>
+  </si>
+  <si>
+    <t>63,68%</t>
+  </si>
+  <si>
+    <t>73,05%</t>
+  </si>
+  <si>
+    <t>59,54%</t>
+  </si>
+  <si>
+    <t>55,93%</t>
+  </si>
+  <si>
+    <t>63,21%</t>
+  </si>
+  <si>
+    <t>40,9%</t>
+  </si>
+  <si>
+    <t>36,86%</t>
+  </si>
+  <si>
+    <t>45,09%</t>
+  </si>
+  <si>
+    <t>27,87%</t>
+  </si>
+  <si>
+    <t>24,25%</t>
+  </si>
+  <si>
+    <t>31,2%</t>
+  </si>
+  <si>
+    <t>33,66%</t>
+  </si>
+  <si>
+    <t>31,07%</t>
+  </si>
+  <si>
+    <t>36,29%</t>
+  </si>
+  <si>
+    <t>59,1%</t>
+  </si>
+  <si>
+    <t>54,91%</t>
+  </si>
+  <si>
+    <t>63,14%</t>
+  </si>
+  <si>
+    <t>72,13%</t>
+  </si>
+  <si>
+    <t>68,8%</t>
+  </si>
+  <si>
+    <t>75,75%</t>
+  </si>
+  <si>
+    <t>66,34%</t>
+  </si>
+  <si>
+    <t>63,71%</t>
+  </si>
+  <si>
+    <t>68,93%</t>
+  </si>
+  <si>
+    <t>34,26%</t>
+  </si>
+  <si>
+    <t>44,24%</t>
+  </si>
+  <si>
+    <t>26,46%</t>
+  </si>
+  <si>
+    <t>22,79%</t>
+  </si>
+  <si>
+    <t>30,58%</t>
+  </si>
+  <si>
+    <t>31,94%</t>
+  </si>
+  <si>
+    <t>29,07%</t>
+  </si>
+  <si>
+    <t>35,27%</t>
+  </si>
+  <si>
+    <t>55,76%</t>
+  </si>
+  <si>
+    <t>65,74%</t>
+  </si>
+  <si>
+    <t>73,54%</t>
+  </si>
+  <si>
+    <t>69,42%</t>
+  </si>
+  <si>
+    <t>77,21%</t>
+  </si>
+  <si>
+    <t>68,06%</t>
+  </si>
+  <si>
+    <t>64,73%</t>
+  </si>
+  <si>
+    <t>70,93%</t>
+  </si>
+  <si>
+    <t>47,36%</t>
+  </si>
+  <si>
+    <t>42,94%</t>
+  </si>
+  <si>
+    <t>51,69%</t>
+  </si>
+  <si>
+    <t>30,45%</t>
+  </si>
+  <si>
+    <t>27,1%</t>
+  </si>
+  <si>
+    <t>33,84%</t>
+  </si>
+  <si>
+    <t>37,4%</t>
+  </si>
+  <si>
+    <t>34,81%</t>
+  </si>
+  <si>
+    <t>40,58%</t>
+  </si>
+  <si>
+    <t>52,64%</t>
+  </si>
+  <si>
+    <t>48,31%</t>
+  </si>
+  <si>
+    <t>57,06%</t>
+  </si>
+  <si>
+    <t>69,55%</t>
+  </si>
+  <si>
+    <t>66,16%</t>
+  </si>
+  <si>
+    <t>72,9%</t>
+  </si>
+  <si>
+    <t>62,6%</t>
+  </si>
+  <si>
+    <t>59,42%</t>
+  </si>
+  <si>
+    <t>65,19%</t>
+  </si>
+  <si>
+    <t>44,02%</t>
+  </si>
+  <si>
+    <t>41,74%</t>
+  </si>
+  <si>
+    <t>46,27%</t>
+  </si>
+  <si>
+    <t>27,22%</t>
+  </si>
+  <si>
+    <t>30,93%</t>
+  </si>
+  <si>
+    <t>35,58%</t>
+  </si>
+  <si>
+    <t>37,12%</t>
+  </si>
+  <si>
+    <t>55,98%</t>
+  </si>
+  <si>
+    <t>53,73%</t>
+  </si>
+  <si>
+    <t>58,26%</t>
+  </si>
+  <si>
+    <t>69,07%</t>
+  </si>
+  <si>
+    <t>72,78%</t>
+  </si>
+  <si>
+    <t>64,42%</t>
+  </si>
+  <si>
+    <t>62,88%</t>
+  </si>
+  <si>
+    <t>Población según si percibe alguna pensión en 2016 (Tasa respuesta: 63,37%)</t>
+  </si>
+  <si>
+    <t>41,25%</t>
+  </si>
+  <si>
+    <t>29,93%</t>
+  </si>
+  <si>
+    <t>53,93%</t>
+  </si>
+  <si>
+    <t>23,98%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>34,31%</t>
+  </si>
+  <si>
+    <t>31,77%</t>
+  </si>
+  <si>
+    <t>24,87%</t>
+  </si>
+  <si>
+    <t>39,33%</t>
+  </si>
+  <si>
+    <t>58,75%</t>
+  </si>
+  <si>
+    <t>46,07%</t>
+  </si>
+  <si>
+    <t>70,07%</t>
+  </si>
+  <si>
+    <t>76,02%</t>
+  </si>
+  <si>
+    <t>65,69%</t>
+  </si>
+  <si>
+    <t>84,49%</t>
+  </si>
+  <si>
+    <t>68,23%</t>
+  </si>
+  <si>
+    <t>60,67%</t>
+  </si>
+  <si>
+    <t>75,13%</t>
+  </si>
+  <si>
+    <t>45,15%</t>
+  </si>
+  <si>
+    <t>40,07%</t>
+  </si>
+  <si>
+    <t>50,66%</t>
+  </si>
+  <si>
+    <t>31,14%</t>
+  </si>
+  <si>
+    <t>26,81%</t>
+  </si>
+  <si>
+    <t>37,62%</t>
+  </si>
+  <si>
+    <t>34,18%</t>
+  </si>
+  <si>
+    <t>40,94%</t>
+  </si>
+  <si>
+    <t>54,85%</t>
+  </si>
+  <si>
+    <t>49,34%</t>
+  </si>
+  <si>
+    <t>59,93%</t>
+  </si>
+  <si>
+    <t>68,86%</t>
+  </si>
+  <si>
+    <t>73,19%</t>
+  </si>
+  <si>
+    <t>62,38%</t>
+  </si>
+  <si>
+    <t>59,06%</t>
+  </si>
+  <si>
+    <t>65,82%</t>
+  </si>
+  <si>
+    <t>43,97%</t>
+  </si>
+  <si>
+    <t>39,89%</t>
+  </si>
+  <si>
+    <t>48,13%</t>
+  </si>
+  <si>
+    <t>27,05%</t>
+  </si>
+  <si>
+    <t>23,55%</t>
+  </si>
+  <si>
+    <t>30,39%</t>
+  </si>
+  <si>
+    <t>34,56%</t>
+  </si>
+  <si>
+    <t>31,78%</t>
+  </si>
+  <si>
+    <t>37,44%</t>
+  </si>
+  <si>
+    <t>56,03%</t>
+  </si>
+  <si>
+    <t>51,87%</t>
+  </si>
+  <si>
+    <t>60,11%</t>
+  </si>
+  <si>
+    <t>72,95%</t>
+  </si>
+  <si>
+    <t>69,61%</t>
+  </si>
+  <si>
+    <t>76,45%</t>
+  </si>
+  <si>
+    <t>65,44%</t>
+  </si>
+  <si>
+    <t>62,56%</t>
+  </si>
+  <si>
+    <t>68,22%</t>
+  </si>
+  <si>
+    <t>46,69%</t>
+  </si>
+  <si>
+    <t>40,82%</t>
+  </si>
+  <si>
+    <t>27,37%</t>
+  </si>
+  <si>
+    <t>23,21%</t>
+  </si>
+  <si>
+    <t>35,79%</t>
+  </si>
+  <si>
+    <t>32,72%</t>
+  </si>
+  <si>
+    <t>39,19%</t>
+  </si>
+  <si>
+    <t>53,31%</t>
+  </si>
+  <si>
+    <t>59,18%</t>
+  </si>
+  <si>
+    <t>72,63%</t>
+  </si>
+  <si>
+    <t>76,79%</t>
+  </si>
+  <si>
+    <t>64,21%</t>
+  </si>
+  <si>
+    <t>60,81%</t>
+  </si>
+  <si>
+    <t>67,28%</t>
+  </si>
+  <si>
+    <t>50,3%</t>
+  </si>
+  <si>
+    <t>46,0%</t>
+  </si>
+  <si>
+    <t>54,58%</t>
+  </si>
+  <si>
+    <t>35,75%</t>
+  </si>
+  <si>
+    <t>39,63%</t>
+  </si>
+  <si>
+    <t>42,01%</t>
+  </si>
+  <si>
+    <t>39,21%</t>
+  </si>
+  <si>
+    <t>44,81%</t>
+  </si>
+  <si>
+    <t>49,7%</t>
+  </si>
+  <si>
+    <t>45,42%</t>
+  </si>
+  <si>
+    <t>54,0%</t>
+  </si>
+  <si>
+    <t>64,25%</t>
+  </si>
+  <si>
+    <t>60,37%</t>
+  </si>
+  <si>
+    <t>57,99%</t>
+  </si>
+  <si>
+    <t>55,19%</t>
+  </si>
+  <si>
+    <t>60,79%</t>
+  </si>
+  <si>
+    <t>46,36%</t>
+  </si>
+  <si>
+    <t>43,94%</t>
+  </si>
+  <si>
+    <t>48,4%</t>
+  </si>
+  <si>
+    <t>28,2%</t>
+  </si>
+  <si>
+    <t>32,06%</t>
+  </si>
+  <si>
+    <t>37,33%</t>
+  </si>
+  <si>
+    <t>35,92%</t>
+  </si>
+  <si>
+    <t>53,64%</t>
+  </si>
+  <si>
+    <t>51,6%</t>
+  </si>
+  <si>
+    <t>56,06%</t>
+  </si>
+  <si>
+    <t>67,94%</t>
+  </si>
+  <si>
+    <t>71,8%</t>
+  </si>
+  <si>
+    <t>62,67%</t>
+  </si>
+  <si>
+    <t>64,08%</t>
+  </si>
+  <si>
+    <t>Población según si percibe alguna pensión en 2023 (Tasa respuesta: 57,09%)</t>
+  </si>
+  <si>
+    <t>61,79%</t>
+  </si>
+  <si>
+    <t>45,59%</t>
+  </si>
+  <si>
+    <t>75,01%</t>
+  </si>
+  <si>
+    <t>43,33%</t>
+  </si>
+  <si>
     <t>51,35%</t>
   </si>
   <si>
-    <t>61,42%</t>
-  </si>
-  <si>
-    <t>21,89%</t>
-  </si>
-  <si>
-    <t>18,7%</t>
-  </si>
-  <si>
-    <t>25,07%</t>
-  </si>
-  <si>
-    <t>34,38%</t>
-  </si>
-  <si>
-    <t>31,47%</t>
-  </si>
-  <si>
-    <t>37,25%</t>
-  </si>
-  <si>
-    <t>43,78%</t>
-  </si>
-  <si>
-    <t>38,58%</t>
+    <t>50,17%</t>
+  </si>
+  <si>
+    <t>42,7%</t>
+  </si>
+  <si>
+    <t>57,63%</t>
+  </si>
+  <si>
+    <t>38,21%</t>
+  </si>
+  <si>
+    <t>24,99%</t>
+  </si>
+  <si>
+    <t>54,41%</t>
+  </si>
+  <si>
+    <t>56,67%</t>
   </si>
   <si>
     <t>48,65%</t>
   </si>
   <si>
-    <t>78,11%</t>
-  </si>
-  <si>
-    <t>74,93%</t>
-  </si>
-  <si>
-    <t>81,3%</t>
-  </si>
-  <si>
-    <t>65,62%</t>
-  </si>
-  <si>
-    <t>62,75%</t>
-  </si>
-  <si>
-    <t>68,53%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>57,61%</t>
-  </si>
-  <si>
-    <t>51,74%</t>
-  </si>
-  <si>
-    <t>64,31%</t>
-  </si>
-  <si>
-    <t>25,91%</t>
-  </si>
-  <si>
-    <t>22,3%</t>
-  </si>
-  <si>
-    <t>29,87%</t>
-  </si>
-  <si>
-    <t>37,53%</t>
-  </si>
-  <si>
-    <t>34,24%</t>
-  </si>
-  <si>
-    <t>41,41%</t>
-  </si>
-  <si>
-    <t>42,39%</t>
-  </si>
-  <si>
-    <t>35,69%</t>
-  </si>
-  <si>
-    <t>48,26%</t>
-  </si>
-  <si>
-    <t>74,09%</t>
-  </si>
-  <si>
-    <t>70,13%</t>
-  </si>
-  <si>
-    <t>77,7%</t>
-  </si>
-  <si>
-    <t>62,47%</t>
-  </si>
-  <si>
-    <t>58,59%</t>
-  </si>
-  <si>
-    <t>65,76%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>49,47%</t>
-  </si>
-  <si>
-    <t>44,54%</t>
-  </si>
-  <si>
-    <t>55,19%</t>
-  </si>
-  <si>
-    <t>27,3%</t>
-  </si>
-  <si>
-    <t>23,76%</t>
-  </si>
-  <si>
-    <t>30,93%</t>
-  </si>
-  <si>
-    <t>35,53%</t>
-  </si>
-  <si>
-    <t>32,73%</t>
-  </si>
-  <si>
-    <t>38,56%</t>
-  </si>
-  <si>
-    <t>50,53%</t>
-  </si>
-  <si>
-    <t>44,81%</t>
-  </si>
-  <si>
-    <t>55,46%</t>
-  </si>
-  <si>
-    <t>72,7%</t>
-  </si>
-  <si>
-    <t>69,07%</t>
-  </si>
-  <si>
-    <t>76,24%</t>
-  </si>
-  <si>
-    <t>64,47%</t>
-  </si>
-  <si>
-    <t>61,44%</t>
-  </si>
-  <si>
-    <t>67,27%</t>
-  </si>
-  <si>
-    <t>54,56%</t>
-  </si>
-  <si>
-    <t>51,8%</t>
+    <t>49,83%</t>
+  </si>
+  <si>
+    <t>42,37%</t>
+  </si>
+  <si>
+    <t>57,3%</t>
+  </si>
+  <si>
+    <t>62,31%</t>
+  </si>
+  <si>
+    <t>54,54%</t>
+  </si>
+  <si>
+    <t>68,1%</t>
+  </si>
+  <si>
+    <t>40,7%</t>
+  </si>
+  <si>
+    <t>36,33%</t>
+  </si>
+  <si>
+    <t>44,52%</t>
+  </si>
+  <si>
+    <t>49,69%</t>
+  </si>
+  <si>
+    <t>46,13%</t>
+  </si>
+  <si>
+    <t>53,33%</t>
+  </si>
+  <si>
+    <t>37,69%</t>
+  </si>
+  <si>
+    <t>31,9%</t>
+  </si>
+  <si>
+    <t>45,46%</t>
+  </si>
+  <si>
+    <t>59,3%</t>
+  </si>
+  <si>
+    <t>55,48%</t>
+  </si>
+  <si>
+    <t>63,67%</t>
+  </si>
+  <si>
+    <t>50,31%</t>
+  </si>
+  <si>
+    <t>46,67%</t>
+  </si>
+  <si>
+    <t>53,87%</t>
+  </si>
+  <si>
+    <t>53,78%</t>
+  </si>
+  <si>
+    <t>48,11%</t>
+  </si>
+  <si>
+    <t>59,45%</t>
+  </si>
+  <si>
+    <t>33,67%</t>
+  </si>
+  <si>
+    <t>37,2%</t>
+  </si>
+  <si>
+    <t>41,64%</t>
+  </si>
+  <si>
+    <t>38,64%</t>
+  </si>
+  <si>
+    <t>44,38%</t>
+  </si>
+  <si>
+    <t>46,22%</t>
+  </si>
+  <si>
+    <t>40,55%</t>
+  </si>
+  <si>
+    <t>51,89%</t>
+  </si>
+  <si>
+    <t>66,33%</t>
+  </si>
+  <si>
+    <t>62,8%</t>
+  </si>
+  <si>
+    <t>58,36%</t>
+  </si>
+  <si>
+    <t>55,62%</t>
+  </si>
+  <si>
+    <t>61,36%</t>
+  </si>
+  <si>
+    <t>60,69%</t>
+  </si>
+  <si>
+    <t>53,95%</t>
+  </si>
+  <si>
+    <t>67,61%</t>
+  </si>
+  <si>
+    <t>49,46%</t>
+  </si>
+  <si>
+    <t>35,29%</t>
+  </si>
+  <si>
+    <t>73,64%</t>
+  </si>
+  <si>
+    <t>53,9%</t>
+  </si>
+  <si>
+    <t>46,03%</t>
+  </si>
+  <si>
+    <t>67,58%</t>
+  </si>
+  <si>
+    <t>39,31%</t>
+  </si>
+  <si>
+    <t>32,39%</t>
+  </si>
+  <si>
+    <t>46,05%</t>
+  </si>
+  <si>
+    <t>50,54%</t>
+  </si>
+  <si>
+    <t>26,36%</t>
+  </si>
+  <si>
+    <t>64,71%</t>
+  </si>
+  <si>
+    <t>46,1%</t>
+  </si>
+  <si>
+    <t>32,42%</t>
+  </si>
+  <si>
+    <t>53,97%</t>
+  </si>
+  <si>
+    <t>51,53%</t>
+  </si>
+  <si>
+    <t>46,02%</t>
+  </si>
+  <si>
+    <t>55,94%</t>
+  </si>
+  <si>
+    <t>39,64%</t>
+  </si>
+  <si>
+    <t>36,03%</t>
+  </si>
+  <si>
+    <t>42,85%</t>
+  </si>
+  <si>
+    <t>44,49%</t>
+  </si>
+  <si>
+    <t>41,72%</t>
+  </si>
+  <si>
+    <t>47,54%</t>
+  </si>
+  <si>
+    <t>48,47%</t>
+  </si>
+  <si>
+    <t>44,06%</t>
+  </si>
+  <si>
+    <t>53,98%</t>
+  </si>
+  <si>
+    <t>60,36%</t>
   </si>
   <si>
     <t>57,15%</t>
   </si>
   <si>
-    <t>24,64%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
-  </si>
-  <si>
-    <t>26,48%</t>
-  </si>
-  <si>
-    <t>35,61%</t>
-  </si>
-  <si>
-    <t>34,06%</t>
-  </si>
-  <si>
-    <t>37,28%</t>
-  </si>
-  <si>
-    <t>45,44%</t>
-  </si>
-  <si>
-    <t>42,85%</t>
-  </si>
-  <si>
-    <t>48,2%</t>
-  </si>
-  <si>
-    <t>75,36%</t>
-  </si>
-  <si>
-    <t>73,52%</t>
-  </si>
-  <si>
-    <t>77,17%</t>
-  </si>
-  <si>
-    <t>64,39%</t>
-  </si>
-  <si>
-    <t>62,72%</t>
-  </si>
-  <si>
-    <t>65,94%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si percibe alguna pensión en 2012 (Tasa respuesta: 65,16%)</t>
-  </si>
-  <si>
-    <t>42,66%</t>
-  </si>
-  <si>
-    <t>31,24%</t>
-  </si>
-  <si>
-    <t>54,29%</t>
-  </si>
-  <si>
-    <t>29,95%</t>
-  </si>
-  <si>
-    <t>20,7%</t>
-  </si>
-  <si>
-    <t>41,19%</t>
-  </si>
-  <si>
-    <t>35,38%</t>
-  </si>
-  <si>
-    <t>27,75%</t>
-  </si>
-  <si>
-    <t>43,36%</t>
-  </si>
-  <si>
-    <t>57,34%</t>
-  </si>
-  <si>
-    <t>45,71%</t>
-  </si>
-  <si>
-    <t>68,76%</t>
-  </si>
-  <si>
-    <t>70,05%</t>
-  </si>
-  <si>
-    <t>58,81%</t>
-  </si>
-  <si>
-    <t>79,3%</t>
-  </si>
-  <si>
-    <t>64,62%</t>
-  </si>
-  <si>
-    <t>56,64%</t>
-  </si>
-  <si>
-    <t>72,25%</t>
-  </si>
-  <si>
-    <t>50,55%</t>
-  </si>
-  <si>
-    <t>44,78%</t>
-  </si>
-  <si>
-    <t>55,58%</t>
-  </si>
-  <si>
-    <t>31,99%</t>
-  </si>
-  <si>
-    <t>27,52%</t>
-  </si>
-  <si>
-    <t>36,7%</t>
-  </si>
-  <si>
-    <t>40,46%</t>
-  </si>
-  <si>
-    <t>37,15%</t>
-  </si>
-  <si>
-    <t>44,23%</t>
-  </si>
-  <si>
-    <t>49,45%</t>
-  </si>
-  <si>
-    <t>44,42%</t>
-  </si>
-  <si>
-    <t>55,22%</t>
-  </si>
-  <si>
-    <t>68,01%</t>
-  </si>
-  <si>
-    <t>63,3%</t>
-  </si>
-  <si>
-    <t>72,48%</t>
-  </si>
-  <si>
-    <t>59,54%</t>
-  </si>
-  <si>
-    <t>55,77%</t>
-  </si>
-  <si>
-    <t>62,85%</t>
-  </si>
-  <si>
-    <t>40,9%</t>
-  </si>
-  <si>
-    <t>36,95%</t>
-  </si>
-  <si>
-    <t>45,04%</t>
-  </si>
-  <si>
-    <t>27,87%</t>
-  </si>
-  <si>
-    <t>24,59%</t>
-  </si>
-  <si>
-    <t>31,44%</t>
-  </si>
-  <si>
-    <t>33,66%</t>
-  </si>
-  <si>
-    <t>31,17%</t>
-  </si>
-  <si>
-    <t>36,5%</t>
-  </si>
-  <si>
-    <t>59,1%</t>
-  </si>
-  <si>
-    <t>54,96%</t>
-  </si>
-  <si>
-    <t>63,05%</t>
-  </si>
-  <si>
-    <t>72,13%</t>
-  </si>
-  <si>
-    <t>68,56%</t>
-  </si>
-  <si>
-    <t>75,41%</t>
-  </si>
-  <si>
-    <t>66,34%</t>
-  </si>
-  <si>
-    <t>63,5%</t>
-  </si>
-  <si>
-    <t>68,83%</t>
-  </si>
-  <si>
-    <t>39,03%</t>
-  </si>
-  <si>
-    <t>33,69%</t>
-  </si>
-  <si>
-    <t>44,18%</t>
-  </si>
-  <si>
-    <t>26,46%</t>
-  </si>
-  <si>
-    <t>22,68%</t>
-  </si>
-  <si>
-    <t>30,6%</t>
-  </si>
-  <si>
-    <t>31,94%</t>
-  </si>
-  <si>
-    <t>28,94%</t>
-  </si>
-  <si>
-    <t>35,16%</t>
-  </si>
-  <si>
-    <t>60,97%</t>
-  </si>
-  <si>
-    <t>55,82%</t>
-  </si>
-  <si>
-    <t>66,31%</t>
-  </si>
-  <si>
-    <t>73,54%</t>
-  </si>
-  <si>
-    <t>69,4%</t>
-  </si>
-  <si>
-    <t>77,32%</t>
-  </si>
-  <si>
-    <t>68,06%</t>
-  </si>
-  <si>
-    <t>64,84%</t>
-  </si>
-  <si>
-    <t>71,06%</t>
-  </si>
-  <si>
-    <t>47,36%</t>
-  </si>
-  <si>
-    <t>42,87%</t>
-  </si>
-  <si>
-    <t>51,65%</t>
-  </si>
-  <si>
-    <t>30,45%</t>
-  </si>
-  <si>
-    <t>27,15%</t>
-  </si>
-  <si>
-    <t>34,33%</t>
-  </si>
-  <si>
-    <t>37,4%</t>
-  </si>
-  <si>
-    <t>34,61%</t>
-  </si>
-  <si>
-    <t>40,38%</t>
-  </si>
-  <si>
-    <t>52,64%</t>
-  </si>
-  <si>
-    <t>48,35%</t>
-  </si>
-  <si>
-    <t>57,13%</t>
-  </si>
-  <si>
-    <t>69,55%</t>
-  </si>
-  <si>
-    <t>65,67%</t>
-  </si>
-  <si>
-    <t>72,85%</t>
-  </si>
-  <si>
-    <t>62,6%</t>
-  </si>
-  <si>
-    <t>59,62%</t>
-  </si>
-  <si>
-    <t>65,39%</t>
-  </si>
-  <si>
-    <t>44,02%</t>
-  </si>
-  <si>
-    <t>41,68%</t>
-  </si>
-  <si>
-    <t>46,32%</t>
-  </si>
-  <si>
-    <t>29,07%</t>
-  </si>
-  <si>
-    <t>27,25%</t>
-  </si>
-  <si>
-    <t>35,58%</t>
-  </si>
-  <si>
-    <t>34,17%</t>
-  </si>
-  <si>
-    <t>36,97%</t>
-  </si>
-  <si>
-    <t>55,98%</t>
-  </si>
-  <si>
-    <t>53,68%</t>
-  </si>
-  <si>
-    <t>58,32%</t>
-  </si>
-  <si>
-    <t>70,93%</t>
-  </si>
-  <si>
-    <t>72,75%</t>
-  </si>
-  <si>
-    <t>64,42%</t>
-  </si>
-  <si>
-    <t>63,03%</t>
-  </si>
-  <si>
-    <t>65,83%</t>
-  </si>
-  <si>
-    <t>Población según si percibe alguna pensión en 2016 (Tasa respuesta: 63,37%)</t>
-  </si>
-  <si>
-    <t>41,25%</t>
-  </si>
-  <si>
-    <t>28,77%</t>
-  </si>
-  <si>
-    <t>52,36%</t>
-  </si>
-  <si>
-    <t>23,98%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>33,76%</t>
-  </si>
-  <si>
-    <t>31,77%</t>
-  </si>
-  <si>
-    <t>24,05%</t>
-  </si>
-  <si>
-    <t>39,28%</t>
-  </si>
-  <si>
-    <t>58,75%</t>
-  </si>
-  <si>
-    <t>47,64%</t>
-  </si>
-  <si>
-    <t>71,23%</t>
-  </si>
-  <si>
-    <t>76,02%</t>
-  </si>
-  <si>
-    <t>66,24%</t>
-  </si>
-  <si>
-    <t>84,57%</t>
-  </si>
-  <si>
-    <t>68,23%</t>
-  </si>
-  <si>
-    <t>60,72%</t>
-  </si>
-  <si>
-    <t>75,95%</t>
-  </si>
-  <si>
-    <t>45,15%</t>
-  </si>
-  <si>
-    <t>40,4%</t>
-  </si>
-  <si>
-    <t>50,74%</t>
-  </si>
-  <si>
-    <t>31,14%</t>
-  </si>
-  <si>
-    <t>26,87%</t>
-  </si>
-  <si>
-    <t>35,98%</t>
-  </si>
-  <si>
-    <t>37,62%</t>
-  </si>
-  <si>
-    <t>33,92%</t>
-  </si>
-  <si>
-    <t>41,11%</t>
-  </si>
-  <si>
-    <t>54,85%</t>
-  </si>
-  <si>
-    <t>49,26%</t>
-  </si>
-  <si>
-    <t>59,6%</t>
-  </si>
-  <si>
-    <t>68,86%</t>
-  </si>
-  <si>
-    <t>64,02%</t>
-  </si>
-  <si>
-    <t>73,13%</t>
-  </si>
-  <si>
-    <t>62,38%</t>
-  </si>
-  <si>
-    <t>58,89%</t>
-  </si>
-  <si>
-    <t>66,08%</t>
-  </si>
-  <si>
-    <t>43,97%</t>
-  </si>
-  <si>
-    <t>40,04%</t>
-  </si>
-  <si>
-    <t>47,89%</t>
-  </si>
-  <si>
-    <t>27,05%</t>
-  </si>
-  <si>
-    <t>23,64%</t>
-  </si>
-  <si>
-    <t>30,65%</t>
-  </si>
-  <si>
-    <t>34,56%</t>
-  </si>
-  <si>
-    <t>31,96%</t>
-  </si>
-  <si>
-    <t>37,3%</t>
-  </si>
-  <si>
-    <t>56,03%</t>
-  </si>
-  <si>
-    <t>52,11%</t>
-  </si>
-  <si>
-    <t>59,96%</t>
-  </si>
-  <si>
-    <t>72,95%</t>
-  </si>
-  <si>
-    <t>69,35%</t>
-  </si>
-  <si>
-    <t>76,36%</t>
-  </si>
-  <si>
-    <t>65,44%</t>
-  </si>
-  <si>
-    <t>62,7%</t>
-  </si>
-  <si>
-    <t>68,04%</t>
-  </si>
-  <si>
-    <t>46,69%</t>
-  </si>
-  <si>
-    <t>42,01%</t>
-  </si>
-  <si>
-    <t>51,81%</t>
-  </si>
-  <si>
-    <t>27,37%</t>
-  </si>
-  <si>
-    <t>23,46%</t>
-  </si>
-  <si>
-    <t>32,26%</t>
-  </si>
-  <si>
-    <t>35,79%</t>
-  </si>
-  <si>
-    <t>32,33%</t>
-  </si>
-  <si>
-    <t>39,22%</t>
-  </si>
-  <si>
-    <t>53,31%</t>
-  </si>
-  <si>
-    <t>48,19%</t>
-  </si>
-  <si>
-    <t>57,99%</t>
-  </si>
-  <si>
-    <t>72,63%</t>
-  </si>
-  <si>
-    <t>67,74%</t>
-  </si>
-  <si>
-    <t>76,54%</t>
-  </si>
-  <si>
-    <t>64,21%</t>
-  </si>
-  <si>
-    <t>60,78%</t>
-  </si>
-  <si>
-    <t>67,67%</t>
-  </si>
-  <si>
-    <t>50,3%</t>
-  </si>
-  <si>
-    <t>46,27%</t>
-  </si>
-  <si>
-    <t>54,49%</t>
-  </si>
-  <si>
-    <t>35,75%</t>
-  </si>
-  <si>
-    <t>32,46%</t>
-  </si>
-  <si>
-    <t>39,49%</t>
-  </si>
-  <si>
-    <t>39,32%</t>
-  </si>
-  <si>
-    <t>45,06%</t>
-  </si>
-  <si>
-    <t>49,7%</t>
-  </si>
-  <si>
-    <t>45,51%</t>
-  </si>
-  <si>
-    <t>53,73%</t>
-  </si>
-  <si>
-    <t>64,25%</t>
-  </si>
-  <si>
-    <t>60,51%</t>
-  </si>
-  <si>
-    <t>67,54%</t>
-  </si>
-  <si>
-    <t>54,94%</t>
-  </si>
-  <si>
-    <t>60,68%</t>
-  </si>
-  <si>
-    <t>46,36%</t>
-  </si>
-  <si>
-    <t>43,92%</t>
-  </si>
-  <si>
-    <t>48,58%</t>
-  </si>
-  <si>
-    <t>30,18%</t>
-  </si>
-  <si>
-    <t>28,25%</t>
-  </si>
-  <si>
-    <t>32,13%</t>
-  </si>
-  <si>
-    <t>37,33%</t>
-  </si>
-  <si>
-    <t>38,74%</t>
-  </si>
-  <si>
-    <t>53,64%</t>
-  </si>
-  <si>
-    <t>51,42%</t>
-  </si>
-  <si>
-    <t>56,08%</t>
-  </si>
-  <si>
-    <t>69,82%</t>
-  </si>
-  <si>
-    <t>67,87%</t>
-  </si>
-  <si>
-    <t>71,75%</t>
-  </si>
-  <si>
-    <t>62,67%</t>
-  </si>
-  <si>
-    <t>61,26%</t>
-  </si>
-  <si>
-    <t>Población según si percibe alguna pensión en 2023 (Tasa respuesta: 57,09%)</t>
-  </si>
-  <si>
-    <t>61,79%</t>
-  </si>
-  <si>
-    <t>46,96%</t>
-  </si>
-  <si>
-    <t>75,27%</t>
-  </si>
-  <si>
-    <t>43,33%</t>
-  </si>
-  <si>
-    <t>35,4%</t>
-  </si>
-  <si>
-    <t>51,28%</t>
-  </si>
-  <si>
-    <t>50,17%</t>
-  </si>
-  <si>
-    <t>42,52%</t>
-  </si>
-  <si>
-    <t>57,52%</t>
-  </si>
-  <si>
-    <t>38,21%</t>
-  </si>
-  <si>
-    <t>24,73%</t>
-  </si>
-  <si>
-    <t>53,04%</t>
-  </si>
-  <si>
-    <t>56,67%</t>
-  </si>
-  <si>
-    <t>48,72%</t>
-  </si>
-  <si>
-    <t>64,6%</t>
-  </si>
-  <si>
-    <t>49,83%</t>
-  </si>
-  <si>
-    <t>42,48%</t>
-  </si>
-  <si>
-    <t>57,48%</t>
-  </si>
-  <si>
-    <t>62,31%</t>
-  </si>
-  <si>
-    <t>54,18%</t>
-  </si>
-  <si>
-    <t>68,47%</t>
-  </si>
-  <si>
-    <t>40,7%</t>
-  </si>
-  <si>
-    <t>36,91%</t>
-  </si>
-  <si>
-    <t>44,92%</t>
-  </si>
-  <si>
-    <t>49,69%</t>
-  </si>
-  <si>
-    <t>45,86%</t>
-  </si>
-  <si>
-    <t>53,44%</t>
-  </si>
-  <si>
-    <t>37,69%</t>
-  </si>
-  <si>
-    <t>31,53%</t>
-  </si>
-  <si>
-    <t>45,82%</t>
-  </si>
-  <si>
-    <t>59,3%</t>
-  </si>
-  <si>
-    <t>55,08%</t>
-  </si>
-  <si>
-    <t>63,09%</t>
-  </si>
-  <si>
-    <t>50,31%</t>
-  </si>
-  <si>
-    <t>46,56%</t>
-  </si>
-  <si>
-    <t>54,14%</t>
-  </si>
-  <si>
-    <t>53,78%</t>
-  </si>
-  <si>
-    <t>47,41%</t>
-  </si>
-  <si>
-    <t>59,53%</t>
-  </si>
-  <si>
-    <t>33,67%</t>
-  </si>
-  <si>
-    <t>30,83%</t>
-  </si>
-  <si>
-    <t>36,89%</t>
-  </si>
-  <si>
-    <t>41,64%</t>
-  </si>
-  <si>
-    <t>38,91%</t>
-  </si>
-  <si>
-    <t>44,69%</t>
-  </si>
-  <si>
-    <t>46,22%</t>
-  </si>
-  <si>
-    <t>40,47%</t>
-  </si>
-  <si>
-    <t>52,59%</t>
-  </si>
-  <si>
-    <t>66,33%</t>
-  </si>
-  <si>
-    <t>63,11%</t>
-  </si>
-  <si>
-    <t>69,17%</t>
-  </si>
-  <si>
-    <t>58,36%</t>
-  </si>
-  <si>
-    <t>55,31%</t>
-  </si>
-  <si>
-    <t>61,09%</t>
-  </si>
-  <si>
-    <t>60,69%</t>
-  </si>
-  <si>
-    <t>53,41%</t>
-  </si>
-  <si>
-    <t>67,28%</t>
-  </si>
-  <si>
-    <t>49,46%</t>
-  </si>
-  <si>
-    <t>35,27%</t>
-  </si>
-  <si>
-    <t>73,39%</t>
-  </si>
-  <si>
-    <t>53,9%</t>
-  </si>
-  <si>
-    <t>46,38%</t>
-  </si>
-  <si>
-    <t>72,14%</t>
-  </si>
-  <si>
-    <t>39,31%</t>
-  </si>
-  <si>
-    <t>32,72%</t>
-  </si>
-  <si>
-    <t>46,59%</t>
-  </si>
-  <si>
-    <t>50,54%</t>
-  </si>
-  <si>
-    <t>26,61%</t>
-  </si>
-  <si>
-    <t>64,73%</t>
-  </si>
-  <si>
-    <t>46,1%</t>
-  </si>
-  <si>
-    <t>27,86%</t>
-  </si>
-  <si>
-    <t>53,62%</t>
-  </si>
-  <si>
-    <t>51,53%</t>
-  </si>
-  <si>
-    <t>46,76%</t>
-  </si>
-  <si>
-    <t>56,6%</t>
-  </si>
-  <si>
-    <t>39,64%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>42,97%</t>
-  </si>
-  <si>
-    <t>44,49%</t>
-  </si>
-  <si>
-    <t>41,69%</t>
-  </si>
-  <si>
-    <t>48,47%</t>
-  </si>
-  <si>
-    <t>43,4%</t>
-  </si>
-  <si>
-    <t>53,24%</t>
-  </si>
-  <si>
-    <t>60,36%</t>
-  </si>
-  <si>
-    <t>57,03%</t>
-  </si>
-  <si>
-    <t>63,75%</t>
+    <t>63,97%</t>
   </si>
   <si>
     <t>55,51%</t>
   </si>
   <si>
-    <t>58,31%</t>
+    <t>52,46%</t>
+  </si>
+  <si>
+    <t>58,28%</t>
   </si>
   <si>
     <t>56,39%</t>
   </si>
   <si>
-    <t>53,51%</t>
-  </si>
-  <si>
-    <t>59,33%</t>
+    <t>53,29%</t>
+  </si>
+  <si>
+    <t>59,16%</t>
   </si>
   <si>
     <t>40,69%</t>
   </si>
   <si>
-    <t>37,11%</t>
-  </si>
-  <si>
-    <t>49,65%</t>
+    <t>37,06%</t>
+  </si>
+  <si>
+    <t>50,73%</t>
   </si>
   <si>
     <t>47,01%</t>
   </si>
   <si>
-    <t>44,75%</t>
+    <t>44,77%</t>
+  </si>
+  <si>
+    <t>52,66%</t>
   </si>
   <si>
     <t>43,61%</t>
   </si>
   <si>
-    <t>40,67%</t>
-  </si>
-  <si>
-    <t>46,49%</t>
+    <t>40,84%</t>
+  </si>
+  <si>
+    <t>46,71%</t>
   </si>
   <si>
     <t>59,31%</t>
   </si>
   <si>
-    <t>50,35%</t>
-  </si>
-  <si>
-    <t>62,89%</t>
+    <t>49,27%</t>
+  </si>
+  <si>
+    <t>62,94%</t>
   </si>
   <si>
     <t>52,99%</t>
   </si>
   <si>
-    <t>55,25%</t>
+    <t>47,34%</t>
+  </si>
+  <si>
+    <t>55,23%</t>
   </si>
 </sst>
 </file>
@@ -1779,7 +1743,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A863F26-E395-4FD4-973D-1C0CCA3BCE9F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BE09320-5513-4098-9E48-C377AAB3C763}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2842,7 +2806,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC8F1972-EA29-4E19-92A9-E05610E4F729}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{109B7594-05AF-4134-9614-C000F7AB54EF}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3431,13 +3395,13 @@
         <v>168741</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="H13" s="7">
         <v>132</v>
@@ -3446,13 +3410,13 @@
         <v>147873</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>186</v>
       </c>
       <c r="M13" s="7">
         <v>279</v>
@@ -3461,13 +3425,13 @@
         <v>316614</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3482,13 +3446,13 @@
         <v>263557</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>192</v>
       </c>
       <c r="H14" s="7">
         <v>378</v>
@@ -3497,13 +3461,13 @@
         <v>410995</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>195</v>
       </c>
       <c r="M14" s="7">
         <v>625</v>
@@ -3512,13 +3476,13 @@
         <v>674551</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3586,13 +3550,13 @@
         <v>244670</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>201</v>
       </c>
       <c r="H16" s="7">
         <v>212</v>
@@ -3601,13 +3565,13 @@
         <v>225397</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>204</v>
       </c>
       <c r="M16" s="7">
         <v>434</v>
@@ -3616,13 +3580,13 @@
         <v>470067</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3637,13 +3601,13 @@
         <v>271930</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>210</v>
       </c>
       <c r="H17" s="7">
         <v>493</v>
@@ -3652,13 +3616,13 @@
         <v>514781</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>213</v>
       </c>
       <c r="M17" s="7">
         <v>766</v>
@@ -3667,13 +3631,13 @@
         <v>786711</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3741,13 +3705,13 @@
         <v>872220</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>219</v>
       </c>
       <c r="H19" s="7">
         <v>689</v>
@@ -3756,13 +3720,13 @@
         <v>748218</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>220</v>
+        <v>187</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>94</v>
+        <v>219</v>
       </c>
       <c r="M19" s="7">
         <v>1476</v>
@@ -3771,13 +3735,13 @@
         <v>1620438</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>223</v>
+        <v>114</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3792,13 +3756,13 @@
         <v>1109193</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="H20" s="7">
         <v>1699</v>
@@ -3807,13 +3771,13 @@
         <v>1825320</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>228</v>
+        <v>196</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>102</v>
+        <v>225</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="M20" s="7">
         <v>2764</v>
@@ -3822,13 +3786,13 @@
         <v>2934514</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>232</v>
+        <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3905,7 +3869,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{007B0D76-B301-46E0-86E6-BACF7E3699B9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{778CE8E4-B321-4C95-9DD7-D9AE964E9A45}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3922,7 +3886,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4029,13 +3993,13 @@
         <v>28271</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="H4" s="7">
         <v>20</v>
@@ -4044,13 +4008,13 @@
         <v>20014</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="M4" s="7">
         <v>50</v>
@@ -4059,13 +4023,13 @@
         <v>48285</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4080,13 +4044,13 @@
         <v>40265</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="H5" s="7">
         <v>63</v>
@@ -4095,13 +4059,13 @@
         <v>63455</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="M5" s="7">
         <v>100</v>
@@ -4110,13 +4074,13 @@
         <v>103720</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4184,13 +4148,13 @@
         <v>161221</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="H7" s="7">
         <v>116</v>
@@ -4199,13 +4163,13 @@
         <v>129107</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>257</v>
+        <v>150</v>
       </c>
       <c r="M7" s="7">
         <v>281</v>
@@ -4214,13 +4178,13 @@
         <v>290328</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4235,13 +4199,13 @@
         <v>195855</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="H8" s="7">
         <v>286</v>
@@ -4250,13 +4214,13 @@
         <v>285474</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>265</v>
+        <v>158</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="M8" s="7">
         <v>470</v>
@@ -4265,13 +4229,13 @@
         <v>481329</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4339,13 +4303,13 @@
         <v>264615</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="H10" s="7">
         <v>175</v>
@@ -4354,13 +4318,13 @@
         <v>203855</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="M10" s="7">
         <v>437</v>
@@ -4369,13 +4333,13 @@
         <v>468470</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4390,13 +4354,13 @@
         <v>337207</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="H11" s="7">
         <v>521</v>
@@ -4405,13 +4369,13 @@
         <v>549832</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="M11" s="7">
         <v>833</v>
@@ -4420,13 +4384,13 @@
         <v>887039</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4494,13 +4458,13 @@
         <v>182071</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>290</v>
+        <v>71</v>
       </c>
       <c r="H13" s="7">
         <v>117</v>
@@ -4509,13 +4473,13 @@
         <v>138296</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>293</v>
+        <v>236</v>
       </c>
       <c r="M13" s="7">
         <v>290</v>
@@ -4524,13 +4488,13 @@
         <v>320367</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4545,13 +4509,13 @@
         <v>207855</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>298</v>
+        <v>81</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="H14" s="7">
         <v>345</v>
@@ -4560,13 +4524,13 @@
         <v>366912</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>301</v>
+        <v>245</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="M14" s="7">
         <v>535</v>
@@ -4575,13 +4539,13 @@
         <v>574767</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4649,13 +4613,13 @@
         <v>266047</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="H16" s="7">
         <v>211</v>
@@ -4664,13 +4628,13 @@
         <v>250749</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>310</v>
+        <v>148</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="M16" s="7">
         <v>484</v>
@@ -4679,13 +4643,13 @@
         <v>516796</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4700,13 +4664,13 @@
         <v>262910</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="H17" s="7">
         <v>425</v>
@@ -4715,13 +4679,13 @@
         <v>450581</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>319</v>
+        <v>157</v>
       </c>
       <c r="M17" s="7">
         <v>683</v>
@@ -4730,13 +4694,13 @@
         <v>713491</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>299</v>
+        <v>309</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4804,13 +4768,13 @@
         <v>902225</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="H19" s="7">
         <v>639</v>
@@ -4819,13 +4783,13 @@
         <v>742021</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>325</v>
+        <v>75</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="M19" s="7">
         <v>1542</v>
@@ -4834,13 +4798,13 @@
         <v>1644246</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>80</v>
+        <v>318</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>329</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4855,13 +4819,13 @@
         <v>1044091</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="H20" s="7">
         <v>1640</v>
@@ -4870,13 +4834,13 @@
         <v>1716255</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>333</v>
+        <v>83</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="M20" s="7">
         <v>2621</v>
@@ -4885,13 +4849,13 @@
         <v>2760346</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>337</v>
+        <v>53</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>72</v>
+        <v>325</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4968,7 +4932,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76BFADC4-CBFB-41C6-A10C-C4FF38777464}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B65E10A2-874B-4C37-A27A-13A2DED5A871}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4985,7 +4949,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5092,13 +5056,13 @@
         <v>30861</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="H4" s="7">
         <v>89</v>
@@ -5107,13 +5071,13 @@
         <v>36803</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>343</v>
+        <v>95</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>344</v>
+        <v>331</v>
       </c>
       <c r="M4" s="7">
         <v>136</v>
@@ -5122,13 +5086,13 @@
         <v>67664</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>345</v>
+        <v>332</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>346</v>
+        <v>333</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5143,13 +5107,13 @@
         <v>19082</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="H5" s="7">
         <v>81</v>
@@ -5158,13 +5122,13 @@
         <v>48129</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>352</v>
+        <v>339</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>353</v>
+        <v>104</v>
       </c>
       <c r="M5" s="7">
         <v>101</v>
@@ -5173,13 +5137,13 @@
         <v>67211</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>354</v>
+        <v>340</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>355</v>
+        <v>341</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>356</v>
+        <v>342</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5247,13 +5211,13 @@
         <v>160098</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>357</v>
+        <v>343</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>358</v>
+        <v>344</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>359</v>
+        <v>345</v>
       </c>
       <c r="H7" s="7">
         <v>307</v>
@@ -5262,13 +5226,13 @@
         <v>146787</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>360</v>
+        <v>346</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>361</v>
+        <v>347</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>362</v>
+        <v>348</v>
       </c>
       <c r="M7" s="7">
         <v>537</v>
@@ -5277,13 +5241,13 @@
         <v>306885</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>363</v>
+        <v>349</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>364</v>
+        <v>350</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>365</v>
+        <v>351</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5298,13 +5262,13 @@
         <v>96848</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>367</v>
+        <v>353</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>368</v>
+        <v>354</v>
       </c>
       <c r="H8" s="7">
         <v>342</v>
@@ -5313,13 +5277,13 @@
         <v>213875</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>369</v>
+        <v>355</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>370</v>
+        <v>356</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>371</v>
+        <v>357</v>
       </c>
       <c r="M8" s="7">
         <v>435</v>
@@ -5328,13 +5292,13 @@
         <v>310723</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>372</v>
+        <v>358</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>373</v>
+        <v>359</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>374</v>
+        <v>360</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5402,13 +5366,13 @@
         <v>215953</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>375</v>
+        <v>361</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>376</v>
+        <v>362</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>377</v>
+        <v>363</v>
       </c>
       <c r="H10" s="7">
         <v>360</v>
@@ -5417,13 +5381,13 @@
         <v>205580</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>378</v>
+        <v>364</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>379</v>
+        <v>185</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>380</v>
+        <v>365</v>
       </c>
       <c r="M10" s="7">
         <v>647</v>
@@ -5432,13 +5396,13 @@
         <v>421533</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>381</v>
+        <v>366</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>382</v>
+        <v>367</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>383</v>
+        <v>368</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5453,13 +5417,13 @@
         <v>185620</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>384</v>
+        <v>369</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>385</v>
+        <v>370</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>386</v>
+        <v>371</v>
       </c>
       <c r="H11" s="7">
         <v>553</v>
@@ -5468,13 +5432,13 @@
         <v>405081</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>387</v>
+        <v>372</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>388</v>
+        <v>373</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>389</v>
+        <v>192</v>
       </c>
       <c r="M11" s="7">
         <v>697</v>
@@ -5483,13 +5447,13 @@
         <v>590701</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>390</v>
+        <v>374</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>391</v>
+        <v>375</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>392</v>
+        <v>376</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5557,13 +5521,13 @@
         <v>216906</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>393</v>
+        <v>377</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>394</v>
+        <v>378</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>395</v>
+        <v>379</v>
       </c>
       <c r="H13" s="7">
         <v>250</v>
@@ -5572,13 +5536,13 @@
         <v>270032</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>396</v>
+        <v>380</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>397</v>
+        <v>381</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>398</v>
+        <v>382</v>
       </c>
       <c r="M13" s="7">
         <v>496</v>
@@ -5587,13 +5551,13 @@
         <v>486938</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>399</v>
+        <v>383</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>400</v>
+        <v>384</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5608,13 +5572,13 @@
         <v>140473</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>402</v>
+        <v>386</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>403</v>
+        <v>387</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>404</v>
+        <v>388</v>
       </c>
       <c r="H14" s="7">
         <v>369</v>
@@ -5623,13 +5587,13 @@
         <v>275966</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>405</v>
+        <v>389</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>406</v>
+        <v>390</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>407</v>
+        <v>391</v>
       </c>
       <c r="M14" s="7">
         <v>466</v>
@@ -5638,13 +5602,13 @@
         <v>416439</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>408</v>
+        <v>392</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>409</v>
+        <v>393</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>410</v>
+        <v>394</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5712,13 +5676,13 @@
         <v>241251</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>411</v>
+        <v>395</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>412</v>
+        <v>396</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>413</v>
+        <v>397</v>
       </c>
       <c r="H16" s="7">
         <v>427</v>
@@ -5727,13 +5691,13 @@
         <v>269137</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>414</v>
+        <v>398</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>415</v>
+        <v>399</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>416</v>
+        <v>400</v>
       </c>
       <c r="M16" s="7">
         <v>752</v>
@@ -5742,13 +5706,13 @@
         <v>510388</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>417</v>
+        <v>401</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>418</v>
+        <v>402</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>376</v>
+        <v>403</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5763,13 +5727,13 @@
         <v>226906</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>419</v>
+        <v>404</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>420</v>
+        <v>405</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>421</v>
+        <v>406</v>
       </c>
       <c r="H17" s="7">
         <v>524</v>
@@ -5778,13 +5742,13 @@
         <v>409838</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>422</v>
+        <v>407</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>423</v>
+        <v>408</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>424</v>
+        <v>409</v>
       </c>
       <c r="M17" s="7">
         <v>724</v>
@@ -5793,13 +5757,13 @@
         <v>636745</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>425</v>
+        <v>410</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>386</v>
+        <v>411</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>426</v>
+        <v>412</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5867,13 +5831,13 @@
         <v>865069</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>427</v>
+        <v>413</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>428</v>
+        <v>414</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>429</v>
+        <v>415</v>
       </c>
       <c r="H19" s="7">
         <v>1433</v>
@@ -5882,13 +5846,13 @@
         <v>928340</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>430</v>
+        <v>416</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>431</v>
+        <v>417</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>432</v>
+        <v>418</v>
       </c>
       <c r="M19" s="7">
         <v>2568</v>
@@ -5897,13 +5861,13 @@
         <v>1793409</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>433</v>
+        <v>419</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>434</v>
+        <v>420</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>71</v>
+        <v>421</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5918,13 +5882,13 @@
         <v>668929</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>437</v>
+        <v>424</v>
       </c>
       <c r="H20" s="7">
         <v>1869</v>
@@ -5933,13 +5897,13 @@
         <v>1352890</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>438</v>
+        <v>425</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>439</v>
+        <v>426</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>440</v>
+        <v>427</v>
       </c>
       <c r="M20" s="7">
         <v>2423</v>
@@ -5948,13 +5912,13 @@
         <v>2021819</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>441</v>
+        <v>428</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>81</v>
+        <v>429</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>442</v>
+        <v>430</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P62-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P62-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DDD302BC-DCC6-4013-BC4C-71872BF59928}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9533938B-AFC2-4FA4-9187-4E92C65DAFA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{419DD35D-3397-4CDD-882F-EE8F2BEDBB84}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{DF2EB9A4-10AE-4B9E-8A8A-3F26F78C82A5}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="431">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="368">
   <si>
     <t>Población según si percibe alguna pensión en 2007 (Tasa respuesta: 56,61%)</t>
   </si>
@@ -68,1270 +68,1081 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>61,75%</t>
-  </si>
-  <si>
-    <t>47,2%</t>
-  </si>
-  <si>
-    <t>72,72%</t>
-  </si>
-  <si>
-    <t>25,9%</t>
-  </si>
-  <si>
-    <t>18,02%</t>
-  </si>
-  <si>
-    <t>34,57%</t>
-  </si>
-  <si>
-    <t>40,26%</t>
-  </si>
-  <si>
-    <t>32,01%</t>
-  </si>
-  <si>
-    <t>48,7%</t>
+    <t>56,08%</t>
+  </si>
+  <si>
+    <t>50,58%</t>
+  </si>
+  <si>
+    <t>61,58%</t>
+  </si>
+  <si>
+    <t>23,89%</t>
+  </si>
+  <si>
+    <t>20,05%</t>
+  </si>
+  <si>
+    <t>27,45%</t>
+  </si>
+  <si>
+    <t>35,65%</t>
+  </si>
+  <si>
+    <t>32,54%</t>
+  </si>
+  <si>
+    <t>39,23%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>38,25%</t>
-  </si>
-  <si>
-    <t>27,28%</t>
-  </si>
-  <si>
-    <t>52,8%</t>
-  </si>
-  <si>
-    <t>74,1%</t>
-  </si>
-  <si>
-    <t>65,43%</t>
-  </si>
-  <si>
-    <t>81,98%</t>
-  </si>
-  <si>
-    <t>59,74%</t>
-  </si>
-  <si>
-    <t>51,3%</t>
-  </si>
-  <si>
-    <t>67,99%</t>
+    <t>43,92%</t>
+  </si>
+  <si>
+    <t>38,42%</t>
+  </si>
+  <si>
+    <t>49,42%</t>
+  </si>
+  <si>
+    <t>76,11%</t>
+  </si>
+  <si>
+    <t>72,55%</t>
+  </si>
+  <si>
+    <t>79,95%</t>
+  </si>
+  <si>
+    <t>64,35%</t>
+  </si>
+  <si>
+    <t>60,77%</t>
+  </si>
+  <si>
+    <t>67,46%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>54,74%</t>
-  </si>
-  <si>
-    <t>48,35%</t>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>56,22%</t>
+  </si>
+  <si>
+    <t>51,12%</t>
+  </si>
+  <si>
+    <t>61,28%</t>
+  </si>
+  <si>
+    <t>21,89%</t>
+  </si>
+  <si>
+    <t>18,99%</t>
+  </si>
+  <si>
+    <t>25,25%</t>
+  </si>
+  <si>
+    <t>34,38%</t>
+  </si>
+  <si>
+    <t>31,74%</t>
+  </si>
+  <si>
+    <t>37,36%</t>
+  </si>
+  <si>
+    <t>43,78%</t>
+  </si>
+  <si>
+    <t>38,72%</t>
+  </si>
+  <si>
+    <t>48,88%</t>
+  </si>
+  <si>
+    <t>78,11%</t>
+  </si>
+  <si>
+    <t>74,75%</t>
+  </si>
+  <si>
+    <t>81,01%</t>
+  </si>
+  <si>
+    <t>65,62%</t>
+  </si>
+  <si>
+    <t>62,64%</t>
+  </si>
+  <si>
+    <t>68,26%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>57,61%</t>
+  </si>
+  <si>
+    <t>51,51%</t>
+  </si>
+  <si>
+    <t>63,47%</t>
+  </si>
+  <si>
+    <t>25,91%</t>
+  </si>
+  <si>
+    <t>22,1%</t>
+  </si>
+  <si>
+    <t>30,18%</t>
+  </si>
+  <si>
+    <t>37,53%</t>
+  </si>
+  <si>
+    <t>33,58%</t>
+  </si>
+  <si>
+    <t>40,71%</t>
+  </si>
+  <si>
+    <t>42,39%</t>
+  </si>
+  <si>
+    <t>36,53%</t>
+  </si>
+  <si>
+    <t>48,49%</t>
+  </si>
+  <si>
+    <t>74,09%</t>
+  </si>
+  <si>
+    <t>69,82%</t>
+  </si>
+  <si>
+    <t>77,9%</t>
+  </si>
+  <si>
+    <t>62,47%</t>
+  </si>
+  <si>
+    <t>59,29%</t>
+  </si>
+  <si>
+    <t>66,42%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>49,47%</t>
+  </si>
+  <si>
+    <t>44,83%</t>
+  </si>
+  <si>
+    <t>54,99%</t>
+  </si>
+  <si>
+    <t>27,3%</t>
+  </si>
+  <si>
+    <t>23,87%</t>
+  </si>
+  <si>
+    <t>30,61%</t>
+  </si>
+  <si>
+    <t>35,53%</t>
+  </si>
+  <si>
+    <t>32,51%</t>
+  </si>
+  <si>
+    <t>38,5%</t>
+  </si>
+  <si>
+    <t>50,53%</t>
+  </si>
+  <si>
+    <t>45,01%</t>
+  </si>
+  <si>
+    <t>55,17%</t>
+  </si>
+  <si>
+    <t>72,7%</t>
+  </si>
+  <si>
+    <t>69,39%</t>
+  </si>
+  <si>
+    <t>76,13%</t>
+  </si>
+  <si>
+    <t>64,47%</t>
+  </si>
+  <si>
+    <t>61,5%</t>
+  </si>
+  <si>
+    <t>67,49%</t>
+  </si>
+  <si>
+    <t>54,56%</t>
+  </si>
+  <si>
+    <t>51,86%</t>
+  </si>
+  <si>
+    <t>57,12%</t>
+  </si>
+  <si>
+    <t>24,64%</t>
+  </si>
+  <si>
+    <t>22,86%</t>
+  </si>
+  <si>
+    <t>26,49%</t>
+  </si>
+  <si>
+    <t>35,61%</t>
+  </si>
+  <si>
+    <t>34,19%</t>
+  </si>
+  <si>
+    <t>37,31%</t>
+  </si>
+  <si>
+    <t>45,44%</t>
+  </si>
+  <si>
+    <t>42,88%</t>
+  </si>
+  <si>
+    <t>48,14%</t>
+  </si>
+  <si>
+    <t>75,36%</t>
+  </si>
+  <si>
+    <t>73,51%</t>
+  </si>
+  <si>
+    <t>77,14%</t>
+  </si>
+  <si>
+    <t>64,39%</t>
+  </si>
+  <si>
+    <t>62,69%</t>
+  </si>
+  <si>
+    <t>65,81%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si percibe alguna pensión en 2012 (Tasa respuesta: 65,16%)</t>
+  </si>
+  <si>
+    <t>49,38%</t>
+  </si>
+  <si>
+    <t>44,57%</t>
+  </si>
+  <si>
+    <t>54,22%</t>
+  </si>
+  <si>
+    <t>31,65%</t>
+  </si>
+  <si>
+    <t>27,56%</t>
+  </si>
+  <si>
+    <t>35,54%</t>
+  </si>
+  <si>
+    <t>39,66%</t>
+  </si>
+  <si>
+    <t>36,68%</t>
+  </si>
+  <si>
+    <t>43,43%</t>
+  </si>
+  <si>
+    <t>50,62%</t>
+  </si>
+  <si>
+    <t>45,78%</t>
+  </si>
+  <si>
+    <t>55,43%</t>
+  </si>
+  <si>
+    <t>68,35%</t>
+  </si>
+  <si>
+    <t>64,46%</t>
+  </si>
+  <si>
+    <t>72,44%</t>
+  </si>
+  <si>
+    <t>60,34%</t>
+  </si>
+  <si>
+    <t>56,57%</t>
+  </si>
+  <si>
+    <t>63,32%</t>
+  </si>
+  <si>
+    <t>40,9%</t>
+  </si>
+  <si>
+    <t>36,86%</t>
+  </si>
+  <si>
+    <t>45,09%</t>
+  </si>
+  <si>
+    <t>27,87%</t>
+  </si>
+  <si>
+    <t>24,25%</t>
+  </si>
+  <si>
+    <t>31,2%</t>
+  </si>
+  <si>
+    <t>33,66%</t>
+  </si>
+  <si>
+    <t>31,07%</t>
+  </si>
+  <si>
+    <t>36,29%</t>
+  </si>
+  <si>
+    <t>59,1%</t>
+  </si>
+  <si>
+    <t>54,91%</t>
+  </si>
+  <si>
+    <t>63,14%</t>
+  </si>
+  <si>
+    <t>72,13%</t>
+  </si>
+  <si>
+    <t>68,8%</t>
+  </si>
+  <si>
+    <t>75,75%</t>
+  </si>
+  <si>
+    <t>66,34%</t>
+  </si>
+  <si>
+    <t>63,71%</t>
+  </si>
+  <si>
+    <t>68,93%</t>
+  </si>
+  <si>
+    <t>39,03%</t>
+  </si>
+  <si>
+    <t>34,26%</t>
+  </si>
+  <si>
+    <t>44,24%</t>
+  </si>
+  <si>
+    <t>26,46%</t>
+  </si>
+  <si>
+    <t>22,79%</t>
+  </si>
+  <si>
+    <t>30,58%</t>
+  </si>
+  <si>
+    <t>31,94%</t>
+  </si>
+  <si>
+    <t>29,07%</t>
+  </si>
+  <si>
+    <t>35,27%</t>
   </si>
   <si>
     <t>60,97%</t>
   </si>
   <si>
-    <t>23,49%</t>
-  </si>
-  <si>
-    <t>19,65%</t>
-  </si>
-  <si>
-    <t>27,66%</t>
-  </si>
-  <si>
-    <t>34,67%</t>
-  </si>
-  <si>
-    <t>31,18%</t>
-  </si>
-  <si>
-    <t>37,93%</t>
-  </si>
-  <si>
-    <t>45,26%</t>
-  </si>
-  <si>
-    <t>39,03%</t>
-  </si>
-  <si>
-    <t>51,65%</t>
-  </si>
-  <si>
-    <t>76,51%</t>
-  </si>
-  <si>
-    <t>72,34%</t>
-  </si>
-  <si>
-    <t>80,35%</t>
-  </si>
-  <si>
-    <t>65,33%</t>
-  </si>
-  <si>
-    <t>62,07%</t>
-  </si>
-  <si>
-    <t>68,82%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>56,22%</t>
-  </si>
-  <si>
-    <t>51,12%</t>
-  </si>
-  <si>
-    <t>61,28%</t>
-  </si>
-  <si>
-    <t>21,89%</t>
-  </si>
-  <si>
-    <t>18,99%</t>
-  </si>
-  <si>
-    <t>25,25%</t>
-  </si>
-  <si>
-    <t>34,38%</t>
-  </si>
-  <si>
-    <t>31,74%</t>
-  </si>
-  <si>
-    <t>37,36%</t>
-  </si>
-  <si>
-    <t>43,78%</t>
-  </si>
-  <si>
-    <t>38,72%</t>
-  </si>
-  <si>
-    <t>48,88%</t>
-  </si>
-  <si>
-    <t>78,11%</t>
-  </si>
-  <si>
-    <t>74,75%</t>
-  </si>
-  <si>
-    <t>81,01%</t>
-  </si>
-  <si>
-    <t>65,62%</t>
-  </si>
-  <si>
-    <t>62,64%</t>
-  </si>
-  <si>
-    <t>68,26%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>57,61%</t>
-  </si>
-  <si>
-    <t>51,51%</t>
-  </si>
-  <si>
-    <t>63,47%</t>
-  </si>
-  <si>
-    <t>25,91%</t>
-  </si>
-  <si>
-    <t>22,1%</t>
-  </si>
-  <si>
-    <t>30,18%</t>
-  </si>
-  <si>
-    <t>37,53%</t>
-  </si>
-  <si>
-    <t>33,58%</t>
-  </si>
-  <si>
-    <t>40,71%</t>
-  </si>
-  <si>
-    <t>42,39%</t>
-  </si>
-  <si>
-    <t>36,53%</t>
-  </si>
-  <si>
-    <t>48,49%</t>
-  </si>
-  <si>
-    <t>74,09%</t>
-  </si>
-  <si>
-    <t>69,82%</t>
-  </si>
-  <si>
-    <t>77,9%</t>
-  </si>
-  <si>
-    <t>62,47%</t>
-  </si>
-  <si>
-    <t>59,29%</t>
-  </si>
-  <si>
-    <t>66,42%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>49,47%</t>
-  </si>
-  <si>
-    <t>44,83%</t>
-  </si>
-  <si>
-    <t>54,99%</t>
-  </si>
-  <si>
-    <t>27,3%</t>
-  </si>
-  <si>
-    <t>23,87%</t>
-  </si>
-  <si>
-    <t>30,61%</t>
-  </si>
-  <si>
-    <t>35,53%</t>
-  </si>
-  <si>
-    <t>32,51%</t>
-  </si>
-  <si>
-    <t>38,5%</t>
-  </si>
-  <si>
-    <t>50,53%</t>
-  </si>
-  <si>
-    <t>45,01%</t>
-  </si>
-  <si>
-    <t>55,17%</t>
-  </si>
-  <si>
-    <t>72,7%</t>
-  </si>
-  <si>
-    <t>69,39%</t>
-  </si>
-  <si>
-    <t>76,13%</t>
-  </si>
-  <si>
-    <t>64,47%</t>
-  </si>
-  <si>
-    <t>61,5%</t>
-  </si>
-  <si>
-    <t>67,49%</t>
-  </si>
-  <si>
-    <t>54,56%</t>
-  </si>
-  <si>
-    <t>51,86%</t>
-  </si>
-  <si>
-    <t>57,12%</t>
-  </si>
-  <si>
-    <t>24,64%</t>
-  </si>
-  <si>
-    <t>22,86%</t>
-  </si>
-  <si>
-    <t>26,49%</t>
-  </si>
-  <si>
-    <t>35,61%</t>
-  </si>
-  <si>
-    <t>34,19%</t>
-  </si>
-  <si>
-    <t>37,31%</t>
-  </si>
-  <si>
-    <t>45,44%</t>
-  </si>
-  <si>
-    <t>42,88%</t>
-  </si>
-  <si>
-    <t>48,14%</t>
-  </si>
-  <si>
-    <t>75,36%</t>
-  </si>
-  <si>
-    <t>73,51%</t>
-  </si>
-  <si>
-    <t>77,14%</t>
-  </si>
-  <si>
-    <t>64,39%</t>
-  </si>
-  <si>
-    <t>62,69%</t>
-  </si>
-  <si>
-    <t>65,81%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si percibe alguna pensión en 2012 (Tasa respuesta: 65,16%)</t>
-  </si>
-  <si>
-    <t>42,66%</t>
-  </si>
-  <si>
-    <t>30,88%</t>
-  </si>
-  <si>
-    <t>55,04%</t>
-  </si>
-  <si>
-    <t>29,95%</t>
-  </si>
-  <si>
-    <t>20,78%</t>
-  </si>
-  <si>
-    <t>40,39%</t>
-  </si>
-  <si>
-    <t>35,38%</t>
-  </si>
-  <si>
-    <t>27,03%</t>
-  </si>
-  <si>
-    <t>43,41%</t>
-  </si>
-  <si>
-    <t>57,34%</t>
-  </si>
-  <si>
-    <t>44,96%</t>
-  </si>
-  <si>
-    <t>69,12%</t>
-  </si>
-  <si>
-    <t>70,05%</t>
-  </si>
-  <si>
-    <t>59,61%</t>
-  </si>
-  <si>
-    <t>79,22%</t>
-  </si>
-  <si>
-    <t>64,62%</t>
-  </si>
-  <si>
-    <t>56,59%</t>
-  </si>
-  <si>
-    <t>72,97%</t>
-  </si>
-  <si>
-    <t>50,55%</t>
-  </si>
-  <si>
-    <t>44,97%</t>
-  </si>
-  <si>
-    <t>55,87%</t>
+    <t>55,76%</t>
+  </si>
+  <si>
+    <t>65,74%</t>
+  </si>
+  <si>
+    <t>73,54%</t>
+  </si>
+  <si>
+    <t>69,42%</t>
+  </si>
+  <si>
+    <t>77,21%</t>
+  </si>
+  <si>
+    <t>68,06%</t>
+  </si>
+  <si>
+    <t>64,73%</t>
+  </si>
+  <si>
+    <t>70,93%</t>
+  </si>
+  <si>
+    <t>47,36%</t>
+  </si>
+  <si>
+    <t>42,94%</t>
+  </si>
+  <si>
+    <t>51,69%</t>
+  </si>
+  <si>
+    <t>30,45%</t>
+  </si>
+  <si>
+    <t>27,1%</t>
+  </si>
+  <si>
+    <t>33,84%</t>
+  </si>
+  <si>
+    <t>37,4%</t>
+  </si>
+  <si>
+    <t>34,81%</t>
+  </si>
+  <si>
+    <t>40,58%</t>
+  </si>
+  <si>
+    <t>52,64%</t>
+  </si>
+  <si>
+    <t>48,31%</t>
+  </si>
+  <si>
+    <t>57,06%</t>
+  </si>
+  <si>
+    <t>69,55%</t>
+  </si>
+  <si>
+    <t>66,16%</t>
+  </si>
+  <si>
+    <t>72,9%</t>
+  </si>
+  <si>
+    <t>62,6%</t>
+  </si>
+  <si>
+    <t>59,42%</t>
+  </si>
+  <si>
+    <t>65,19%</t>
+  </si>
+  <si>
+    <t>44,02%</t>
+  </si>
+  <si>
+    <t>41,74%</t>
+  </si>
+  <si>
+    <t>46,27%</t>
+  </si>
+  <si>
+    <t>27,22%</t>
+  </si>
+  <si>
+    <t>30,93%</t>
+  </si>
+  <si>
+    <t>35,58%</t>
+  </si>
+  <si>
+    <t>37,12%</t>
+  </si>
+  <si>
+    <t>55,98%</t>
+  </si>
+  <si>
+    <t>53,73%</t>
+  </si>
+  <si>
+    <t>58,26%</t>
+  </si>
+  <si>
+    <t>69,07%</t>
+  </si>
+  <si>
+    <t>72,78%</t>
+  </si>
+  <si>
+    <t>64,42%</t>
+  </si>
+  <si>
+    <t>62,88%</t>
+  </si>
+  <si>
+    <t>Población según si percibe alguna pensión en 2016 (Tasa respuesta: 63,37%)</t>
+  </si>
+  <si>
+    <t>44,52%</t>
+  </si>
+  <si>
+    <t>39,59%</t>
+  </si>
+  <si>
+    <t>49,68%</t>
+  </si>
+  <si>
+    <t>29,94%</t>
+  </si>
+  <si>
+    <t>25,61%</t>
+  </si>
+  <si>
+    <t>34,03%</t>
+  </si>
+  <si>
+    <t>36,66%</t>
+  </si>
+  <si>
+    <t>40,05%</t>
+  </si>
+  <si>
+    <t>55,48%</t>
+  </si>
+  <si>
+    <t>50,32%</t>
+  </si>
+  <si>
+    <t>60,41%</t>
+  </si>
+  <si>
+    <t>70,06%</t>
+  </si>
+  <si>
+    <t>65,97%</t>
+  </si>
+  <si>
+    <t>74,39%</t>
+  </si>
+  <si>
+    <t>63,34%</t>
+  </si>
+  <si>
+    <t>59,95%</t>
+  </si>
+  <si>
+    <t>43,97%</t>
+  </si>
+  <si>
+    <t>39,89%</t>
+  </si>
+  <si>
+    <t>48,13%</t>
+  </si>
+  <si>
+    <t>27,05%</t>
+  </si>
+  <si>
+    <t>23,55%</t>
+  </si>
+  <si>
+    <t>30,39%</t>
+  </si>
+  <si>
+    <t>34,56%</t>
+  </si>
+  <si>
+    <t>31,78%</t>
+  </si>
+  <si>
+    <t>37,44%</t>
+  </si>
+  <si>
+    <t>56,03%</t>
+  </si>
+  <si>
+    <t>51,87%</t>
+  </si>
+  <si>
+    <t>60,11%</t>
+  </si>
+  <si>
+    <t>72,95%</t>
+  </si>
+  <si>
+    <t>69,61%</t>
+  </si>
+  <si>
+    <t>76,45%</t>
+  </si>
+  <si>
+    <t>65,44%</t>
+  </si>
+  <si>
+    <t>62,56%</t>
+  </si>
+  <si>
+    <t>68,22%</t>
+  </si>
+  <si>
+    <t>46,69%</t>
+  </si>
+  <si>
+    <t>40,82%</t>
+  </si>
+  <si>
+    <t>27,37%</t>
+  </si>
+  <si>
+    <t>23,21%</t>
+  </si>
+  <si>
+    <t>31,77%</t>
+  </si>
+  <si>
+    <t>35,79%</t>
+  </si>
+  <si>
+    <t>32,72%</t>
+  </si>
+  <si>
+    <t>39,19%</t>
+  </si>
+  <si>
+    <t>53,31%</t>
+  </si>
+  <si>
+    <t>59,18%</t>
+  </si>
+  <si>
+    <t>72,63%</t>
+  </si>
+  <si>
+    <t>68,23%</t>
+  </si>
+  <si>
+    <t>76,79%</t>
+  </si>
+  <si>
+    <t>64,21%</t>
+  </si>
+  <si>
+    <t>60,81%</t>
+  </si>
+  <si>
+    <t>67,28%</t>
+  </si>
+  <si>
+    <t>50,3%</t>
+  </si>
+  <si>
+    <t>46,0%</t>
+  </si>
+  <si>
+    <t>54,58%</t>
+  </si>
+  <si>
+    <t>35,75%</t>
   </si>
   <si>
     <t>31,99%</t>
   </si>
   <si>
-    <t>26,95%</t>
-  </si>
-  <si>
-    <t>36,32%</t>
-  </si>
-  <si>
-    <t>40,46%</t>
-  </si>
-  <si>
-    <t>36,79%</t>
-  </si>
-  <si>
-    <t>44,07%</t>
-  </si>
-  <si>
-    <t>49,45%</t>
-  </si>
-  <si>
-    <t>44,13%</t>
-  </si>
-  <si>
-    <t>55,03%</t>
+    <t>39,63%</t>
+  </si>
+  <si>
+    <t>42,01%</t>
+  </si>
+  <si>
+    <t>39,21%</t>
+  </si>
+  <si>
+    <t>44,81%</t>
+  </si>
+  <si>
+    <t>49,7%</t>
+  </si>
+  <si>
+    <t>45,42%</t>
+  </si>
+  <si>
+    <t>54,0%</t>
+  </si>
+  <si>
+    <t>64,25%</t>
+  </si>
+  <si>
+    <t>60,37%</t>
   </si>
   <si>
     <t>68,01%</t>
   </si>
   <si>
-    <t>63,68%</t>
-  </si>
-  <si>
-    <t>73,05%</t>
-  </si>
-  <si>
-    <t>59,54%</t>
-  </si>
-  <si>
-    <t>55,93%</t>
-  </si>
-  <si>
-    <t>63,21%</t>
-  </si>
-  <si>
-    <t>40,9%</t>
-  </si>
-  <si>
-    <t>36,86%</t>
-  </si>
-  <si>
-    <t>45,09%</t>
-  </si>
-  <si>
-    <t>27,87%</t>
-  </si>
-  <si>
-    <t>24,25%</t>
-  </si>
-  <si>
-    <t>31,2%</t>
-  </si>
-  <si>
-    <t>33,66%</t>
-  </si>
-  <si>
-    <t>31,07%</t>
-  </si>
-  <si>
-    <t>36,29%</t>
-  </si>
-  <si>
-    <t>59,1%</t>
-  </si>
-  <si>
-    <t>54,91%</t>
-  </si>
-  <si>
-    <t>63,14%</t>
-  </si>
-  <si>
-    <t>72,13%</t>
-  </si>
-  <si>
-    <t>68,8%</t>
-  </si>
-  <si>
-    <t>75,75%</t>
-  </si>
-  <si>
-    <t>66,34%</t>
-  </si>
-  <si>
-    <t>63,71%</t>
-  </si>
-  <si>
-    <t>68,93%</t>
-  </si>
-  <si>
-    <t>34,26%</t>
-  </si>
-  <si>
-    <t>44,24%</t>
-  </si>
-  <si>
-    <t>26,46%</t>
-  </si>
-  <si>
-    <t>22,79%</t>
-  </si>
-  <si>
-    <t>30,58%</t>
-  </si>
-  <si>
-    <t>31,94%</t>
-  </si>
-  <si>
-    <t>29,07%</t>
-  </si>
-  <si>
-    <t>35,27%</t>
-  </si>
-  <si>
-    <t>55,76%</t>
-  </si>
-  <si>
-    <t>65,74%</t>
-  </si>
-  <si>
-    <t>73,54%</t>
-  </si>
-  <si>
-    <t>69,42%</t>
-  </si>
-  <si>
-    <t>77,21%</t>
-  </si>
-  <si>
-    <t>68,06%</t>
-  </si>
-  <si>
-    <t>64,73%</t>
-  </si>
-  <si>
-    <t>70,93%</t>
-  </si>
-  <si>
-    <t>47,36%</t>
-  </si>
-  <si>
-    <t>42,94%</t>
-  </si>
-  <si>
-    <t>51,69%</t>
-  </si>
-  <si>
-    <t>30,45%</t>
-  </si>
-  <si>
-    <t>27,1%</t>
-  </si>
-  <si>
-    <t>33,84%</t>
-  </si>
-  <si>
-    <t>37,4%</t>
-  </si>
-  <si>
-    <t>34,81%</t>
-  </si>
-  <si>
-    <t>40,58%</t>
-  </si>
-  <si>
-    <t>52,64%</t>
-  </si>
-  <si>
-    <t>48,31%</t>
-  </si>
-  <si>
-    <t>57,06%</t>
-  </si>
-  <si>
-    <t>69,55%</t>
-  </si>
-  <si>
-    <t>66,16%</t>
-  </si>
-  <si>
-    <t>72,9%</t>
-  </si>
-  <si>
-    <t>62,6%</t>
-  </si>
-  <si>
-    <t>59,42%</t>
-  </si>
-  <si>
-    <t>65,19%</t>
-  </si>
-  <si>
-    <t>44,02%</t>
-  </si>
-  <si>
-    <t>41,74%</t>
-  </si>
-  <si>
-    <t>46,27%</t>
-  </si>
-  <si>
-    <t>27,22%</t>
-  </si>
-  <si>
-    <t>30,93%</t>
-  </si>
-  <si>
-    <t>35,58%</t>
-  </si>
-  <si>
-    <t>37,12%</t>
-  </si>
-  <si>
-    <t>55,98%</t>
-  </si>
-  <si>
-    <t>53,73%</t>
-  </si>
-  <si>
-    <t>58,26%</t>
-  </si>
-  <si>
-    <t>69,07%</t>
-  </si>
-  <si>
-    <t>72,78%</t>
-  </si>
-  <si>
-    <t>64,42%</t>
-  </si>
-  <si>
-    <t>62,88%</t>
-  </si>
-  <si>
-    <t>Población según si percibe alguna pensión en 2016 (Tasa respuesta: 63,37%)</t>
-  </si>
-  <si>
-    <t>41,25%</t>
-  </si>
-  <si>
-    <t>29,93%</t>
-  </si>
-  <si>
-    <t>53,93%</t>
-  </si>
-  <si>
-    <t>23,98%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>34,31%</t>
-  </si>
-  <si>
-    <t>31,77%</t>
-  </si>
-  <si>
-    <t>24,87%</t>
+    <t>57,99%</t>
+  </si>
+  <si>
+    <t>55,19%</t>
+  </si>
+  <si>
+    <t>60,79%</t>
+  </si>
+  <si>
+    <t>46,36%</t>
+  </si>
+  <si>
+    <t>43,94%</t>
+  </si>
+  <si>
+    <t>48,4%</t>
+  </si>
+  <si>
+    <t>28,2%</t>
+  </si>
+  <si>
+    <t>32,06%</t>
+  </si>
+  <si>
+    <t>37,33%</t>
+  </si>
+  <si>
+    <t>35,92%</t>
+  </si>
+  <si>
+    <t>53,64%</t>
+  </si>
+  <si>
+    <t>51,6%</t>
+  </si>
+  <si>
+    <t>56,06%</t>
+  </si>
+  <si>
+    <t>67,94%</t>
+  </si>
+  <si>
+    <t>71,8%</t>
+  </si>
+  <si>
+    <t>62,67%</t>
+  </si>
+  <si>
+    <t>64,08%</t>
+  </si>
+  <si>
+    <t>Población según si percibe alguna pensión en 2023 (Tasa respuesta: 57,09%)</t>
+  </si>
+  <si>
+    <t>59,8%</t>
+  </si>
+  <si>
+    <t>52,78%</t>
+  </si>
+  <si>
+    <t>65,84%</t>
+  </si>
+  <si>
+    <t>41,03%</t>
+  </si>
+  <si>
+    <t>37,3%</t>
+  </si>
+  <si>
+    <t>44,53%</t>
+  </si>
+  <si>
+    <t>48,92%</t>
+  </si>
+  <si>
+    <t>45,06%</t>
+  </si>
+  <si>
+    <t>52,2%</t>
+  </si>
+  <si>
+    <t>40,2%</t>
+  </si>
+  <si>
+    <t>34,16%</t>
+  </si>
+  <si>
+    <t>47,22%</t>
+  </si>
+  <si>
+    <t>58,97%</t>
+  </si>
+  <si>
+    <t>55,47%</t>
+  </si>
+  <si>
+    <t>62,7%</t>
+  </si>
+  <si>
+    <t>51,08%</t>
+  </si>
+  <si>
+    <t>47,8%</t>
+  </si>
+  <si>
+    <t>54,94%</t>
+  </si>
+  <si>
+    <t>51,83%</t>
+  </si>
+  <si>
+    <t>45,85%</t>
+  </si>
+  <si>
+    <t>57,71%</t>
+  </si>
+  <si>
+    <t>33,53%</t>
+  </si>
+  <si>
+    <t>30,42%</t>
+  </si>
+  <si>
+    <t>36,96%</t>
+  </si>
+  <si>
+    <t>41,02%</t>
+  </si>
+  <si>
+    <t>37,99%</t>
+  </si>
+  <si>
+    <t>43,86%</t>
+  </si>
+  <si>
+    <t>48,17%</t>
+  </si>
+  <si>
+    <t>42,29%</t>
+  </si>
+  <si>
+    <t>54,15%</t>
+  </si>
+  <si>
+    <t>66,47%</t>
+  </si>
+  <si>
+    <t>63,04%</t>
+  </si>
+  <si>
+    <t>69,58%</t>
+  </si>
+  <si>
+    <t>58,98%</t>
+  </si>
+  <si>
+    <t>56,14%</t>
+  </si>
+  <si>
+    <t>62,01%</t>
+  </si>
+  <si>
+    <t>58,28%</t>
+  </si>
+  <si>
+    <t>50,87%</t>
+  </si>
+  <si>
+    <t>65,41%</t>
+  </si>
+  <si>
+    <t>57,67%</t>
+  </si>
+  <si>
+    <t>34,83%</t>
+  </si>
+  <si>
+    <t>82,86%</t>
+  </si>
+  <si>
+    <t>57,89%</t>
+  </si>
+  <si>
+    <t>45,11%</t>
+  </si>
+  <si>
+    <t>76,15%</t>
+  </si>
+  <si>
+    <t>41,72%</t>
+  </si>
+  <si>
+    <t>34,59%</t>
+  </si>
+  <si>
+    <t>49,13%</t>
+  </si>
+  <si>
+    <t>42,33%</t>
+  </si>
+  <si>
+    <t>17,14%</t>
+  </si>
+  <si>
+    <t>65,17%</t>
+  </si>
+  <si>
+    <t>42,11%</t>
+  </si>
+  <si>
+    <t>23,85%</t>
+  </si>
+  <si>
+    <t>54,89%</t>
+  </si>
+  <si>
+    <t>49,16%</t>
+  </si>
+  <si>
+    <t>43,4%</t>
+  </si>
+  <si>
+    <t>53,99%</t>
   </si>
   <si>
     <t>39,33%</t>
   </si>
   <si>
-    <t>58,75%</t>
-  </si>
-  <si>
-    <t>46,07%</t>
-  </si>
-  <si>
-    <t>70,07%</t>
-  </si>
-  <si>
-    <t>76,02%</t>
-  </si>
-  <si>
-    <t>65,69%</t>
-  </si>
-  <si>
-    <t>84,49%</t>
-  </si>
-  <si>
-    <t>68,23%</t>
+    <t>35,97%</t>
+  </si>
+  <si>
+    <t>42,54%</t>
+  </si>
+  <si>
+    <t>43,53%</t>
+  </si>
+  <si>
+    <t>40,59%</t>
+  </si>
+  <si>
+    <t>46,67%</t>
+  </si>
+  <si>
+    <t>50,84%</t>
+  </si>
+  <si>
+    <t>46,01%</t>
+  </si>
+  <si>
+    <t>56,6%</t>
   </si>
   <si>
     <t>60,67%</t>
   </si>
   <si>
-    <t>75,13%</t>
-  </si>
-  <si>
-    <t>45,15%</t>
-  </si>
-  <si>
-    <t>40,07%</t>
-  </si>
-  <si>
-    <t>50,66%</t>
-  </si>
-  <si>
-    <t>31,14%</t>
-  </si>
-  <si>
-    <t>26,81%</t>
-  </si>
-  <si>
-    <t>37,62%</t>
-  </si>
-  <si>
-    <t>34,18%</t>
-  </si>
-  <si>
-    <t>40,94%</t>
-  </si>
-  <si>
-    <t>54,85%</t>
-  </si>
-  <si>
-    <t>49,34%</t>
-  </si>
-  <si>
-    <t>59,93%</t>
-  </si>
-  <si>
-    <t>68,86%</t>
-  </si>
-  <si>
-    <t>73,19%</t>
-  </si>
-  <si>
-    <t>62,38%</t>
-  </si>
-  <si>
-    <t>59,06%</t>
-  </si>
-  <si>
-    <t>65,82%</t>
-  </si>
-  <si>
-    <t>43,97%</t>
-  </si>
-  <si>
-    <t>39,89%</t>
-  </si>
-  <si>
-    <t>48,13%</t>
-  </si>
-  <si>
-    <t>27,05%</t>
-  </si>
-  <si>
-    <t>23,55%</t>
-  </si>
-  <si>
-    <t>30,39%</t>
-  </si>
-  <si>
-    <t>34,56%</t>
-  </si>
-  <si>
-    <t>31,78%</t>
-  </si>
-  <si>
-    <t>37,44%</t>
-  </si>
-  <si>
-    <t>56,03%</t>
-  </si>
-  <si>
-    <t>51,87%</t>
-  </si>
-  <si>
-    <t>60,11%</t>
-  </si>
-  <si>
-    <t>72,95%</t>
-  </si>
-  <si>
-    <t>69,61%</t>
-  </si>
-  <si>
-    <t>76,45%</t>
-  </si>
-  <si>
-    <t>65,44%</t>
-  </si>
-  <si>
-    <t>62,56%</t>
-  </si>
-  <si>
-    <t>68,22%</t>
-  </si>
-  <si>
-    <t>46,69%</t>
-  </si>
-  <si>
-    <t>40,82%</t>
-  </si>
-  <si>
-    <t>27,37%</t>
-  </si>
-  <si>
-    <t>23,21%</t>
-  </si>
-  <si>
-    <t>35,79%</t>
-  </si>
-  <si>
-    <t>32,72%</t>
-  </si>
-  <si>
-    <t>39,19%</t>
-  </si>
-  <si>
-    <t>53,31%</t>
-  </si>
-  <si>
-    <t>59,18%</t>
-  </si>
-  <si>
-    <t>72,63%</t>
-  </si>
-  <si>
-    <t>76,79%</t>
-  </si>
-  <si>
-    <t>64,21%</t>
-  </si>
-  <si>
-    <t>60,81%</t>
-  </si>
-  <si>
-    <t>67,28%</t>
-  </si>
-  <si>
-    <t>50,3%</t>
-  </si>
-  <si>
-    <t>46,0%</t>
-  </si>
-  <si>
-    <t>54,58%</t>
-  </si>
-  <si>
-    <t>35,75%</t>
-  </si>
-  <si>
-    <t>39,63%</t>
-  </si>
-  <si>
-    <t>42,01%</t>
-  </si>
-  <si>
-    <t>39,21%</t>
-  </si>
-  <si>
-    <t>44,81%</t>
-  </si>
-  <si>
-    <t>49,7%</t>
-  </si>
-  <si>
-    <t>45,42%</t>
-  </si>
-  <si>
-    <t>54,0%</t>
-  </si>
-  <si>
-    <t>64,25%</t>
-  </si>
-  <si>
-    <t>60,37%</t>
-  </si>
-  <si>
-    <t>57,99%</t>
-  </si>
-  <si>
-    <t>55,19%</t>
-  </si>
-  <si>
-    <t>60,79%</t>
-  </si>
-  <si>
-    <t>46,36%</t>
-  </si>
-  <si>
-    <t>43,94%</t>
-  </si>
-  <si>
-    <t>48,4%</t>
-  </si>
-  <si>
-    <t>28,2%</t>
-  </si>
-  <si>
-    <t>32,06%</t>
-  </si>
-  <si>
-    <t>37,33%</t>
-  </si>
-  <si>
-    <t>35,92%</t>
-  </si>
-  <si>
-    <t>53,64%</t>
-  </si>
-  <si>
-    <t>51,6%</t>
-  </si>
-  <si>
-    <t>56,06%</t>
-  </si>
-  <si>
-    <t>67,94%</t>
-  </si>
-  <si>
-    <t>71,8%</t>
-  </si>
-  <si>
-    <t>62,67%</t>
-  </si>
-  <si>
-    <t>64,08%</t>
-  </si>
-  <si>
-    <t>Población según si percibe alguna pensión en 2023 (Tasa respuesta: 57,09%)</t>
-  </si>
-  <si>
-    <t>61,79%</t>
-  </si>
-  <si>
-    <t>45,59%</t>
-  </si>
-  <si>
-    <t>75,01%</t>
-  </si>
-  <si>
-    <t>43,33%</t>
-  </si>
-  <si>
-    <t>51,35%</t>
-  </si>
-  <si>
-    <t>50,17%</t>
-  </si>
-  <si>
-    <t>42,7%</t>
-  </si>
-  <si>
-    <t>57,63%</t>
-  </si>
-  <si>
-    <t>38,21%</t>
-  </si>
-  <si>
-    <t>24,99%</t>
-  </si>
-  <si>
-    <t>54,41%</t>
-  </si>
-  <si>
-    <t>56,67%</t>
-  </si>
-  <si>
-    <t>48,65%</t>
-  </si>
-  <si>
-    <t>49,83%</t>
-  </si>
-  <si>
-    <t>42,37%</t>
-  </si>
-  <si>
-    <t>57,3%</t>
-  </si>
-  <si>
-    <t>62,31%</t>
-  </si>
-  <si>
-    <t>54,54%</t>
-  </si>
-  <si>
-    <t>68,1%</t>
-  </si>
-  <si>
-    <t>40,7%</t>
-  </si>
-  <si>
-    <t>36,33%</t>
-  </si>
-  <si>
-    <t>44,52%</t>
-  </si>
-  <si>
-    <t>49,69%</t>
-  </si>
-  <si>
-    <t>46,13%</t>
+    <t>57,46%</t>
+  </si>
+  <si>
+    <t>64,03%</t>
+  </si>
+  <si>
+    <t>56,47%</t>
   </si>
   <si>
     <t>53,33%</t>
   </si>
   <si>
-    <t>37,69%</t>
-  </si>
-  <si>
-    <t>31,9%</t>
-  </si>
-  <si>
-    <t>45,46%</t>
-  </si>
-  <si>
-    <t>59,3%</t>
-  </si>
-  <si>
-    <t>55,48%</t>
-  </si>
-  <si>
-    <t>63,67%</t>
-  </si>
-  <si>
-    <t>50,31%</t>
-  </si>
-  <si>
-    <t>46,67%</t>
-  </si>
-  <si>
-    <t>53,87%</t>
-  </si>
-  <si>
-    <t>53,78%</t>
-  </si>
-  <si>
-    <t>48,11%</t>
-  </si>
-  <si>
-    <t>59,45%</t>
-  </si>
-  <si>
-    <t>33,67%</t>
-  </si>
-  <si>
-    <t>37,2%</t>
-  </si>
-  <si>
-    <t>41,64%</t>
-  </si>
-  <si>
-    <t>38,64%</t>
-  </si>
-  <si>
-    <t>44,38%</t>
-  </si>
-  <si>
-    <t>46,22%</t>
-  </si>
-  <si>
-    <t>40,55%</t>
-  </si>
-  <si>
-    <t>51,89%</t>
-  </si>
-  <si>
-    <t>66,33%</t>
-  </si>
-  <si>
-    <t>62,8%</t>
-  </si>
-  <si>
-    <t>58,36%</t>
-  </si>
-  <si>
-    <t>55,62%</t>
-  </si>
-  <si>
-    <t>61,36%</t>
-  </si>
-  <si>
-    <t>60,69%</t>
-  </si>
-  <si>
-    <t>53,95%</t>
-  </si>
-  <si>
-    <t>67,61%</t>
-  </si>
-  <si>
-    <t>49,46%</t>
-  </si>
-  <si>
-    <t>35,29%</t>
-  </si>
-  <si>
-    <t>73,64%</t>
-  </si>
-  <si>
-    <t>53,9%</t>
-  </si>
-  <si>
-    <t>46,03%</t>
-  </si>
-  <si>
-    <t>67,58%</t>
-  </si>
-  <si>
-    <t>39,31%</t>
-  </si>
-  <si>
-    <t>32,39%</t>
-  </si>
-  <si>
-    <t>46,05%</t>
-  </si>
-  <si>
-    <t>50,54%</t>
-  </si>
-  <si>
-    <t>26,36%</t>
-  </si>
-  <si>
-    <t>64,71%</t>
-  </si>
-  <si>
-    <t>46,1%</t>
-  </si>
-  <si>
-    <t>32,42%</t>
-  </si>
-  <si>
-    <t>53,97%</t>
-  </si>
-  <si>
-    <t>51,53%</t>
-  </si>
-  <si>
-    <t>46,02%</t>
-  </si>
-  <si>
-    <t>55,94%</t>
-  </si>
-  <si>
-    <t>39,64%</t>
-  </si>
-  <si>
-    <t>36,03%</t>
-  </si>
-  <si>
-    <t>42,85%</t>
-  </si>
-  <si>
-    <t>44,49%</t>
-  </si>
-  <si>
-    <t>41,72%</t>
-  </si>
-  <si>
-    <t>47,54%</t>
-  </si>
-  <si>
-    <t>48,47%</t>
-  </si>
-  <si>
-    <t>44,06%</t>
-  </si>
-  <si>
-    <t>53,98%</t>
-  </si>
-  <si>
-    <t>60,36%</t>
-  </si>
-  <si>
-    <t>57,15%</t>
-  </si>
-  <si>
-    <t>63,97%</t>
-  </si>
-  <si>
-    <t>55,51%</t>
-  </si>
-  <si>
-    <t>52,46%</t>
-  </si>
-  <si>
-    <t>58,28%</t>
-  </si>
-  <si>
-    <t>56,39%</t>
-  </si>
-  <si>
-    <t>53,29%</t>
+    <t>59,41%</t>
+  </si>
+  <si>
+    <t>54,13%</t>
+  </si>
+  <si>
+    <t>50,83%</t>
+  </si>
+  <si>
+    <t>57,0%</t>
+  </si>
+  <si>
+    <t>43,29%</t>
+  </si>
+  <si>
+    <t>36,81%</t>
   </si>
   <si>
     <t>59,16%</t>
   </si>
   <si>
-    <t>40,69%</t>
-  </si>
-  <si>
-    <t>37,06%</t>
-  </si>
-  <si>
-    <t>50,73%</t>
-  </si>
-  <si>
-    <t>47,01%</t>
-  </si>
-  <si>
-    <t>44,77%</t>
-  </si>
-  <si>
-    <t>52,66%</t>
-  </si>
-  <si>
-    <t>43,61%</t>
+    <t>47,68%</t>
+  </si>
+  <si>
+    <t>44,09%</t>
+  </si>
+  <si>
+    <t>58,57%</t>
+  </si>
+  <si>
+    <t>45,87%</t>
+  </si>
+  <si>
+    <t>43,0%</t>
+  </si>
+  <si>
+    <t>49,17%</t>
+  </si>
+  <si>
+    <t>56,71%</t>
   </si>
   <si>
     <t>40,84%</t>
   </si>
   <si>
-    <t>46,71%</t>
-  </si>
-  <si>
-    <t>59,31%</t>
-  </si>
-  <si>
-    <t>49,27%</t>
-  </si>
-  <si>
-    <t>62,94%</t>
-  </si>
-  <si>
-    <t>52,99%</t>
-  </si>
-  <si>
-    <t>47,34%</t>
-  </si>
-  <si>
-    <t>55,23%</t>
+    <t>63,19%</t>
+  </si>
+  <si>
+    <t>52,32%</t>
+  </si>
+  <si>
+    <t>41,43%</t>
+  </si>
+  <si>
+    <t>55,91%</t>
   </si>
 </sst>
 </file>
@@ -1743,8 +1554,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BE09320-5513-4098-9E48-C377AAB3C763}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DCD5004-093A-47B7-9F12-9650B6B5E026}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1861,10 +1672,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>34</v>
+        <v>176</v>
       </c>
       <c r="D4" s="7">
-        <v>36080</v>
+        <v>171110</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1876,10 +1687,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>26</v>
+        <v>128</v>
       </c>
       <c r="I4" s="7">
-        <v>22634</v>
+        <v>126647</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1891,10 +1702,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>60</v>
+        <v>304</v>
       </c>
       <c r="N4" s="7">
-        <v>58714</v>
+        <v>297758</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1912,10 +1723,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>21</v>
+        <v>135</v>
       </c>
       <c r="D5" s="7">
-        <v>22352</v>
+        <v>133983</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1927,10 +1738,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>74</v>
+        <v>413</v>
       </c>
       <c r="I5" s="7">
-        <v>64759</v>
+        <v>403480</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1942,10 +1753,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>95</v>
+        <v>548</v>
       </c>
       <c r="N5" s="7">
-        <v>87111</v>
+        <v>537463</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1963,10 +1774,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>55</v>
+        <v>311</v>
       </c>
       <c r="D6" s="7">
-        <v>58432</v>
+        <v>305093</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1978,10 +1789,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>100</v>
+        <v>541</v>
       </c>
       <c r="I6" s="7">
-        <v>87393</v>
+        <v>530127</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1993,10 +1804,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>155</v>
+        <v>852</v>
       </c>
       <c r="N6" s="7">
-        <v>145825</v>
+        <v>835221</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -2016,10 +1827,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>142</v>
+        <v>223</v>
       </c>
       <c r="D7" s="7">
-        <v>135031</v>
+        <v>225328</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -2031,10 +1842,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>102</v>
+        <v>142</v>
       </c>
       <c r="I7" s="7">
-        <v>104013</v>
+        <v>153384</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -2046,10 +1857,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>244</v>
+        <v>365</v>
       </c>
       <c r="N7" s="7">
-        <v>239043</v>
+        <v>378712</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -2067,10 +1878,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>114</v>
+        <v>164</v>
       </c>
       <c r="D8" s="7">
-        <v>111631</v>
+        <v>175449</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -2082,10 +1893,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>339</v>
+        <v>517</v>
       </c>
       <c r="I8" s="7">
-        <v>338721</v>
+        <v>547283</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -2097,10 +1908,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>453</v>
+        <v>681</v>
       </c>
       <c r="N8" s="7">
-        <v>450353</v>
+        <v>722732</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -2118,10 +1929,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>256</v>
+        <v>387</v>
       </c>
       <c r="D9" s="7">
-        <v>246662</v>
+        <v>400777</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -2133,10 +1944,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>441</v>
+        <v>659</v>
       </c>
       <c r="I9" s="7">
-        <v>442734</v>
+        <v>700667</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2148,10 +1959,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>697</v>
+        <v>1046</v>
       </c>
       <c r="N9" s="7">
-        <v>689396</v>
+        <v>1101444</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2171,10 +1982,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>223</v>
+        <v>152</v>
       </c>
       <c r="D10" s="7">
-        <v>225328</v>
+        <v>155381</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -2186,10 +1997,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>142</v>
+        <v>121</v>
       </c>
       <c r="I10" s="7">
-        <v>153384</v>
+        <v>120783</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -2201,10 +2012,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>365</v>
+        <v>273</v>
       </c>
       <c r="N10" s="7">
-        <v>378712</v>
+        <v>276164</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -2222,10 +2033,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>164</v>
+        <v>112</v>
       </c>
       <c r="D11" s="7">
-        <v>175449</v>
+        <v>114324</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -2237,10 +2048,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>517</v>
+        <v>357</v>
       </c>
       <c r="I11" s="7">
-        <v>547283</v>
+        <v>345411</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -2252,10 +2063,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>681</v>
+        <v>469</v>
       </c>
       <c r="N11" s="7">
-        <v>722732</v>
+        <v>459735</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -2273,10 +2084,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>387</v>
+        <v>264</v>
       </c>
       <c r="D12" s="7">
-        <v>400777</v>
+        <v>269705</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -2288,10 +2099,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>659</v>
+        <v>478</v>
       </c>
       <c r="I12" s="7">
-        <v>700667</v>
+        <v>466194</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2303,10 +2114,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1046</v>
+        <v>742</v>
       </c>
       <c r="N12" s="7">
-        <v>1101444</v>
+        <v>735899</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2326,10 +2137,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>152</v>
+        <v>209</v>
       </c>
       <c r="D13" s="7">
-        <v>155381</v>
+        <v>189860</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -2341,10 +2152,10 @@
         <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>121</v>
+        <v>167</v>
       </c>
       <c r="I13" s="7">
-        <v>120783</v>
+        <v>177316</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>73</v>
@@ -2356,10 +2167,10 @@
         <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>273</v>
+        <v>376</v>
       </c>
       <c r="N13" s="7">
-        <v>276164</v>
+        <v>367176</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>76</v>
@@ -2377,10 +2188,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>112</v>
+        <v>207</v>
       </c>
       <c r="D14" s="7">
-        <v>114324</v>
+        <v>193908</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>79</v>
@@ -2392,10 +2203,10 @@
         <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>357</v>
+        <v>463</v>
       </c>
       <c r="I14" s="7">
-        <v>345411</v>
+        <v>472236</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>82</v>
@@ -2407,10 +2218,10 @@
         <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>469</v>
+        <v>670</v>
       </c>
       <c r="N14" s="7">
-        <v>459735</v>
+        <v>666144</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>85</v>
@@ -2428,10 +2239,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>264</v>
+        <v>416</v>
       </c>
       <c r="D15" s="7">
-        <v>269705</v>
+        <v>383768</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2443,10 +2254,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>478</v>
+        <v>630</v>
       </c>
       <c r="I15" s="7">
-        <v>466194</v>
+        <v>649552</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2458,10 +2269,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>742</v>
+        <v>1046</v>
       </c>
       <c r="N15" s="7">
-        <v>735899</v>
+        <v>1033320</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2475,55 +2286,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>209</v>
+        <v>760</v>
       </c>
       <c r="D16" s="7">
-        <v>189860</v>
+        <v>741679</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="H16" s="7">
+        <v>558</v>
+      </c>
+      <c r="I16" s="7">
+        <v>578130</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="H16" s="7">
-        <v>167</v>
-      </c>
-      <c r="I16" s="7">
-        <v>177316</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>1318</v>
+      </c>
+      <c r="N16" s="7">
+        <v>1319809</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="M16" s="7">
-        <v>376</v>
-      </c>
-      <c r="N16" s="7">
-        <v>367176</v>
-      </c>
-      <c r="O16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2532,49 +2343,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>207</v>
+        <v>618</v>
       </c>
       <c r="D17" s="7">
-        <v>193908</v>
+        <v>617664</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="H17" s="7">
+        <v>1750</v>
+      </c>
+      <c r="I17" s="7">
+        <v>1768411</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="H17" s="7">
-        <v>463</v>
-      </c>
-      <c r="I17" s="7">
-        <v>472236</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>2368</v>
+      </c>
+      <c r="N17" s="7">
+        <v>2386074</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="M17" s="7">
-        <v>670</v>
-      </c>
-      <c r="N17" s="7">
-        <v>666144</v>
-      </c>
-      <c r="O17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2583,10 +2394,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>416</v>
+        <v>1378</v>
       </c>
       <c r="D18" s="7">
-        <v>383768</v>
+        <v>1359343</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -2598,10 +2409,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>630</v>
+        <v>2308</v>
       </c>
       <c r="I18" s="7">
-        <v>649552</v>
+        <v>2346541</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -2613,10 +2424,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1046</v>
+        <v>3686</v>
       </c>
       <c r="N18" s="7">
-        <v>1033320</v>
+        <v>3705883</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -2629,171 +2440,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>760</v>
-      </c>
-      <c r="D19" s="7">
-        <v>741679</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="H19" s="7">
-        <v>558</v>
-      </c>
-      <c r="I19" s="7">
-        <v>578130</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="M19" s="7">
-        <v>1318</v>
-      </c>
-      <c r="N19" s="7">
-        <v>1319809</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>618</v>
-      </c>
-      <c r="D20" s="7">
-        <v>617664</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="H20" s="7">
-        <v>1750</v>
-      </c>
-      <c r="I20" s="7">
-        <v>1768410</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="M20" s="7">
-        <v>2368</v>
-      </c>
-      <c r="N20" s="7">
-        <v>2386075</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>1378</v>
-      </c>
-      <c r="D21" s="7">
-        <v>1359343</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>2308</v>
-      </c>
-      <c r="I21" s="7">
-        <v>2346540</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>3686</v>
-      </c>
-      <c r="N21" s="7">
-        <v>3705884</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>125</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2806,8 +2461,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{109B7594-05AF-4134-9614-C000F7AB54EF}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F576FA50-5CDF-4892-A2C0-F5F0889BD133}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2823,7 +2478,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2924,49 +2579,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>31</v>
+        <v>196</v>
       </c>
       <c r="D4" s="7">
-        <v>27314</v>
+        <v>212566</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="H4" s="7">
-        <v>23</v>
+        <v>155</v>
       </c>
       <c r="I4" s="7">
-        <v>25666</v>
+        <v>165198</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="M4" s="7">
-        <v>54</v>
+        <v>351</v>
       </c>
       <c r="N4" s="7">
-        <v>52980</v>
+        <v>377764</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2975,49 +2630,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>37</v>
+        <v>214</v>
       </c>
       <c r="D5" s="7">
-        <v>36718</v>
+        <v>217935</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>138</v>
+        <v>119</v>
       </c>
       <c r="H5" s="7">
-        <v>53</v>
+        <v>331</v>
       </c>
       <c r="I5" s="7">
-        <v>60037</v>
+        <v>356733</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>141</v>
+        <v>122</v>
       </c>
       <c r="M5" s="7">
-        <v>90</v>
+        <v>545</v>
       </c>
       <c r="N5" s="7">
-        <v>96755</v>
+        <v>574668</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3026,10 +2681,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>68</v>
+        <v>410</v>
       </c>
       <c r="D6" s="7">
-        <v>64032</v>
+        <v>430501</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3041,10 +2696,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>76</v>
+        <v>486</v>
       </c>
       <c r="I6" s="7">
-        <v>85703</v>
+        <v>521931</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3056,10 +2711,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>144</v>
+        <v>896</v>
       </c>
       <c r="N6" s="7">
-        <v>149735</v>
+        <v>952432</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3079,49 +2734,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>165</v>
+        <v>222</v>
       </c>
       <c r="D7" s="7">
-        <v>185252</v>
+        <v>246243</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
       <c r="H7" s="7">
+        <v>190</v>
+      </c>
+      <c r="I7" s="7">
+        <v>209750</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="M7" s="7">
+        <v>412</v>
+      </c>
+      <c r="N7" s="7">
+        <v>455992</v>
+      </c>
+      <c r="O7" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="I7" s="7">
-        <v>139531</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="M7" s="7">
-        <v>297</v>
-      </c>
-      <c r="N7" s="7">
-        <v>324783</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>151</v>
-      </c>
       <c r="P7" s="7" t="s">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3130,49 +2785,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>177</v>
+        <v>331</v>
       </c>
       <c r="D8" s="7">
-        <v>181217</v>
+        <v>355771</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>154</v>
+        <v>135</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>155</v>
+        <v>136</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>156</v>
+        <v>137</v>
       </c>
       <c r="H8" s="7">
-        <v>278</v>
+        <v>497</v>
       </c>
       <c r="I8" s="7">
-        <v>296696</v>
+        <v>542812</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>157</v>
+        <v>138</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>159</v>
+        <v>140</v>
       </c>
       <c r="M8" s="7">
-        <v>455</v>
+        <v>828</v>
       </c>
       <c r="N8" s="7">
-        <v>477914</v>
+        <v>898584</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>160</v>
+        <v>141</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3181,10 +2836,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>342</v>
+        <v>553</v>
       </c>
       <c r="D9" s="7">
-        <v>366469</v>
+        <v>602014</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3196,10 +2851,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>410</v>
+        <v>687</v>
       </c>
       <c r="I9" s="7">
-        <v>436227</v>
+        <v>752562</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3211,10 +2866,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>752</v>
+        <v>1240</v>
       </c>
       <c r="N9" s="7">
-        <v>802697</v>
+        <v>1354576</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3234,49 +2889,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>222</v>
+        <v>147</v>
       </c>
       <c r="D10" s="7">
-        <v>246243</v>
+        <v>168741</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>164</v>
+        <v>145</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
       <c r="H10" s="7">
-        <v>190</v>
+        <v>132</v>
       </c>
       <c r="I10" s="7">
-        <v>209750</v>
+        <v>147873</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>166</v>
+        <v>147</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
       <c r="M10" s="7">
-        <v>412</v>
+        <v>279</v>
       </c>
       <c r="N10" s="7">
-        <v>455992</v>
+        <v>316614</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>169</v>
+        <v>150</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3285,49 +2940,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>331</v>
+        <v>247</v>
       </c>
       <c r="D11" s="7">
-        <v>355771</v>
+        <v>263557</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="H11" s="7">
-        <v>497</v>
+        <v>378</v>
       </c>
       <c r="I11" s="7">
-        <v>542812</v>
+        <v>410995</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="M11" s="7">
-        <v>828</v>
+        <v>625</v>
       </c>
       <c r="N11" s="7">
-        <v>898584</v>
+        <v>674551</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>179</v>
+        <v>160</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>180</v>
+        <v>161</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3336,10 +2991,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>553</v>
+        <v>394</v>
       </c>
       <c r="D12" s="7">
-        <v>602014</v>
+        <v>432298</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -3351,10 +3006,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>687</v>
+        <v>510</v>
       </c>
       <c r="I12" s="7">
-        <v>752562</v>
+        <v>558868</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3366,10 +3021,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1240</v>
+        <v>904</v>
       </c>
       <c r="N12" s="7">
-        <v>1354576</v>
+        <v>991165</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3389,49 +3044,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>147</v>
+        <v>222</v>
       </c>
       <c r="D13" s="7">
-        <v>168741</v>
+        <v>244670</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>42</v>
+        <v>162</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>182</v>
+        <v>164</v>
       </c>
       <c r="H13" s="7">
-        <v>132</v>
+        <v>212</v>
       </c>
       <c r="I13" s="7">
-        <v>147873</v>
+        <v>225397</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>183</v>
+        <v>165</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>184</v>
+        <v>166</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>185</v>
+        <v>167</v>
       </c>
       <c r="M13" s="7">
-        <v>279</v>
+        <v>434</v>
       </c>
       <c r="N13" s="7">
-        <v>316614</v>
+        <v>470068</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>186</v>
+        <v>168</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>187</v>
+        <v>169</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>188</v>
+        <v>170</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3440,49 +3095,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>247</v>
+        <v>273</v>
       </c>
       <c r="D14" s="7">
-        <v>263557</v>
+        <v>271930</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>34</v>
+        <v>171</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>190</v>
+        <v>173</v>
       </c>
       <c r="H14" s="7">
-        <v>378</v>
+        <v>493</v>
       </c>
       <c r="I14" s="7">
-        <v>410995</v>
+        <v>514781</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>191</v>
+        <v>174</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>192</v>
+        <v>175</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>193</v>
+        <v>176</v>
       </c>
       <c r="M14" s="7">
-        <v>625</v>
+        <v>766</v>
       </c>
       <c r="N14" s="7">
-        <v>674551</v>
+        <v>786711</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>194</v>
+        <v>177</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>196</v>
+        <v>179</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3491,10 +3146,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>394</v>
+        <v>495</v>
       </c>
       <c r="D15" s="7">
-        <v>432298</v>
+        <v>516600</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -3506,10 +3161,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>510</v>
+        <v>705</v>
       </c>
       <c r="I15" s="7">
-        <v>558868</v>
+        <v>740178</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -3521,10 +3176,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>904</v>
+        <v>1200</v>
       </c>
       <c r="N15" s="7">
-        <v>991165</v>
+        <v>1256779</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -3538,55 +3193,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>222</v>
+        <v>787</v>
       </c>
       <c r="D16" s="7">
-        <v>244670</v>
+        <v>872220</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>197</v>
+        <v>180</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>198</v>
+        <v>181</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>199</v>
+        <v>182</v>
       </c>
       <c r="H16" s="7">
-        <v>212</v>
+        <v>689</v>
       </c>
       <c r="I16" s="7">
-        <v>225397</v>
+        <v>748218</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>200</v>
+        <v>151</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>201</v>
+        <v>183</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>202</v>
+        <v>184</v>
       </c>
       <c r="M16" s="7">
-        <v>434</v>
+        <v>1476</v>
       </c>
       <c r="N16" s="7">
-        <v>470067</v>
+        <v>1620438</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>203</v>
+        <v>185</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>204</v>
+        <v>95</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>205</v>
+        <v>186</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3595,49 +3250,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>273</v>
+        <v>1065</v>
       </c>
       <c r="D17" s="7">
-        <v>271930</v>
+        <v>1109193</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>206</v>
+        <v>187</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>207</v>
+        <v>188</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>208</v>
+        <v>189</v>
       </c>
       <c r="H17" s="7">
-        <v>493</v>
+        <v>1699</v>
       </c>
       <c r="I17" s="7">
-        <v>514781</v>
+        <v>1825320</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>209</v>
+        <v>161</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>211</v>
+        <v>191</v>
       </c>
       <c r="M17" s="7">
-        <v>766</v>
+        <v>2764</v>
       </c>
       <c r="N17" s="7">
-        <v>786711</v>
+        <v>2934514</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>212</v>
+        <v>192</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>213</v>
+        <v>193</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>214</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3646,10 +3301,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>495</v>
+        <v>1852</v>
       </c>
       <c r="D18" s="7">
-        <v>516600</v>
+        <v>1981413</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -3661,10 +3316,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>705</v>
+        <v>2388</v>
       </c>
       <c r="I18" s="7">
-        <v>740178</v>
+        <v>2573538</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -3676,10 +3331,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1200</v>
+        <v>4240</v>
       </c>
       <c r="N18" s="7">
-        <v>1256778</v>
+        <v>4554952</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -3692,171 +3347,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>787</v>
-      </c>
-      <c r="D19" s="7">
-        <v>872220</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="H19" s="7">
-        <v>689</v>
-      </c>
-      <c r="I19" s="7">
-        <v>748218</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="M19" s="7">
-        <v>1476</v>
-      </c>
-      <c r="N19" s="7">
-        <v>1620438</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>1065</v>
-      </c>
-      <c r="D20" s="7">
-        <v>1109193</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="H20" s="7">
-        <v>1699</v>
-      </c>
-      <c r="I20" s="7">
-        <v>1825320</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="M20" s="7">
-        <v>2764</v>
-      </c>
-      <c r="N20" s="7">
-        <v>2934514</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>1852</v>
-      </c>
-      <c r="D21" s="7">
-        <v>1981413</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>2388</v>
-      </c>
-      <c r="I21" s="7">
-        <v>2573538</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>4240</v>
-      </c>
-      <c r="N21" s="7">
-        <v>4554952</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>125</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3869,8 +3368,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{778CE8E4-B321-4C95-9DD7-D9AE964E9A45}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FD3B6AD-898B-4BA2-BAFB-B7F96070C599}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3886,7 +3385,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>229</v>
+        <v>194</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3987,49 +3486,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>30</v>
+        <v>195</v>
       </c>
       <c r="D4" s="7">
-        <v>28271</v>
+        <v>189492</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>230</v>
+        <v>195</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>231</v>
+        <v>196</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>232</v>
+        <v>197</v>
       </c>
       <c r="H4" s="7">
-        <v>20</v>
+        <v>136</v>
       </c>
       <c r="I4" s="7">
-        <v>20014</v>
+        <v>149121</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>233</v>
+        <v>198</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>234</v>
+        <v>199</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>235</v>
+        <v>200</v>
       </c>
       <c r="M4" s="7">
-        <v>50</v>
+        <v>331</v>
       </c>
       <c r="N4" s="7">
-        <v>48285</v>
+        <v>338613</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>236</v>
+        <v>201</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>237</v>
+        <v>132</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>238</v>
+        <v>202</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4038,49 +3537,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>37</v>
+        <v>221</v>
       </c>
       <c r="D5" s="7">
-        <v>40265</v>
+        <v>236120</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>239</v>
+        <v>203</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>240</v>
+        <v>204</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>241</v>
+        <v>205</v>
       </c>
       <c r="H5" s="7">
-        <v>63</v>
+        <v>349</v>
       </c>
       <c r="I5" s="7">
-        <v>63455</v>
+        <v>348929</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>242</v>
+        <v>206</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>243</v>
+        <v>207</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>244</v>
+        <v>208</v>
       </c>
       <c r="M5" s="7">
-        <v>100</v>
+        <v>570</v>
       </c>
       <c r="N5" s="7">
-        <v>103720</v>
+        <v>585049</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>245</v>
+        <v>209</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>246</v>
+        <v>210</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>247</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4089,10 +3588,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>67</v>
+        <v>416</v>
       </c>
       <c r="D6" s="7">
-        <v>68536</v>
+        <v>425612</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -4104,10 +3603,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>83</v>
+        <v>485</v>
       </c>
       <c r="I6" s="7">
-        <v>83469</v>
+        <v>498050</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -4119,10 +3618,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>150</v>
+        <v>901</v>
       </c>
       <c r="N6" s="7">
-        <v>152005</v>
+        <v>923662</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -4142,49 +3641,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>165</v>
+        <v>262</v>
       </c>
       <c r="D7" s="7">
-        <v>161221</v>
+        <v>264615</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>248</v>
+        <v>211</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>249</v>
+        <v>212</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>250</v>
+        <v>213</v>
       </c>
       <c r="H7" s="7">
-        <v>116</v>
+        <v>175</v>
       </c>
       <c r="I7" s="7">
-        <v>129107</v>
+        <v>203855</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>251</v>
+        <v>214</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>252</v>
+        <v>215</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>150</v>
+        <v>216</v>
       </c>
       <c r="M7" s="7">
-        <v>281</v>
+        <v>437</v>
       </c>
       <c r="N7" s="7">
-        <v>290328</v>
+        <v>468470</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>253</v>
+        <v>217</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>254</v>
+        <v>218</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>255</v>
+        <v>219</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4193,49 +3692,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>184</v>
+        <v>312</v>
       </c>
       <c r="D8" s="7">
-        <v>195855</v>
+        <v>337207</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>256</v>
+        <v>220</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>257</v>
+        <v>221</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>258</v>
+        <v>222</v>
       </c>
       <c r="H8" s="7">
-        <v>286</v>
+        <v>521</v>
       </c>
       <c r="I8" s="7">
-        <v>285474</v>
+        <v>549832</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>259</v>
+        <v>223</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>158</v>
+        <v>224</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>260</v>
+        <v>225</v>
       </c>
       <c r="M8" s="7">
-        <v>470</v>
+        <v>833</v>
       </c>
       <c r="N8" s="7">
-        <v>481329</v>
+        <v>887039</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>261</v>
+        <v>226</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>262</v>
+        <v>227</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>263</v>
+        <v>228</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4244,10 +3743,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>349</v>
+        <v>574</v>
       </c>
       <c r="D9" s="7">
-        <v>357076</v>
+        <v>601822</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -4259,10 +3758,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>402</v>
+        <v>696</v>
       </c>
       <c r="I9" s="7">
-        <v>414581</v>
+        <v>753687</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -4274,10 +3773,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>751</v>
+        <v>1270</v>
       </c>
       <c r="N9" s="7">
-        <v>771657</v>
+        <v>1355509</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -4297,49 +3796,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>262</v>
+        <v>173</v>
       </c>
       <c r="D10" s="7">
-        <v>264615</v>
+        <v>182071</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>264</v>
+        <v>229</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>265</v>
+        <v>230</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>266</v>
+        <v>52</v>
       </c>
       <c r="H10" s="7">
-        <v>175</v>
+        <v>117</v>
       </c>
       <c r="I10" s="7">
-        <v>203855</v>
+        <v>138296</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>267</v>
+        <v>231</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>268</v>
+        <v>232</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>269</v>
+        <v>233</v>
       </c>
       <c r="M10" s="7">
-        <v>437</v>
+        <v>290</v>
       </c>
       <c r="N10" s="7">
-        <v>468470</v>
+        <v>320367</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>270</v>
+        <v>234</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>271</v>
+        <v>235</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>272</v>
+        <v>236</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4348,49 +3847,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>312</v>
+        <v>190</v>
       </c>
       <c r="D11" s="7">
-        <v>337207</v>
+        <v>207855</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>273</v>
+        <v>237</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>274</v>
+        <v>62</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>275</v>
+        <v>238</v>
       </c>
       <c r="H11" s="7">
-        <v>521</v>
+        <v>345</v>
       </c>
       <c r="I11" s="7">
-        <v>549832</v>
+        <v>366912</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>276</v>
+        <v>239</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>277</v>
+        <v>240</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>278</v>
+        <v>241</v>
       </c>
       <c r="M11" s="7">
-        <v>833</v>
+        <v>535</v>
       </c>
       <c r="N11" s="7">
-        <v>887039</v>
+        <v>574767</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>279</v>
+        <v>242</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>280</v>
+        <v>243</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>281</v>
+        <v>244</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4399,10 +3898,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>574</v>
+        <v>363</v>
       </c>
       <c r="D12" s="7">
-        <v>601822</v>
+        <v>389926</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4414,10 +3913,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>696</v>
+        <v>462</v>
       </c>
       <c r="I12" s="7">
-        <v>753687</v>
+        <v>505208</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4429,10 +3928,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1270</v>
+        <v>825</v>
       </c>
       <c r="N12" s="7">
-        <v>1355509</v>
+        <v>895134</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4452,49 +3951,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>173</v>
+        <v>273</v>
       </c>
       <c r="D13" s="7">
-        <v>182071</v>
+        <v>266047</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>282</v>
+        <v>245</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>283</v>
+        <v>246</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>71</v>
+        <v>247</v>
       </c>
       <c r="H13" s="7">
-        <v>117</v>
+        <v>211</v>
       </c>
       <c r="I13" s="7">
-        <v>138296</v>
+        <v>250749</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>284</v>
+        <v>248</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>285</v>
+        <v>249</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>236</v>
+        <v>250</v>
       </c>
       <c r="M13" s="7">
-        <v>290</v>
+        <v>484</v>
       </c>
       <c r="N13" s="7">
-        <v>320367</v>
+        <v>516796</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>286</v>
+        <v>251</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>287</v>
+        <v>252</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>288</v>
+        <v>253</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4503,49 +4002,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>190</v>
+        <v>258</v>
       </c>
       <c r="D14" s="7">
-        <v>207855</v>
+        <v>262910</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>289</v>
+        <v>254</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>81</v>
+        <v>255</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>290</v>
+        <v>256</v>
       </c>
       <c r="H14" s="7">
-        <v>345</v>
+        <v>425</v>
       </c>
       <c r="I14" s="7">
-        <v>366912</v>
+        <v>450581</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>291</v>
+        <v>257</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>245</v>
+        <v>258</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>292</v>
+        <v>259</v>
       </c>
       <c r="M14" s="7">
-        <v>535</v>
+        <v>683</v>
       </c>
       <c r="N14" s="7">
-        <v>574767</v>
+        <v>713491</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>293</v>
+        <v>260</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>294</v>
+        <v>261</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>295</v>
+        <v>262</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4554,10 +4053,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>363</v>
+        <v>531</v>
       </c>
       <c r="D15" s="7">
-        <v>389926</v>
+        <v>528957</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4569,10 +4068,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>462</v>
+        <v>636</v>
       </c>
       <c r="I15" s="7">
-        <v>505208</v>
+        <v>701330</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4584,10 +4083,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>825</v>
+        <v>1167</v>
       </c>
       <c r="N15" s="7">
-        <v>895134</v>
+        <v>1230287</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4601,55 +4100,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>273</v>
+        <v>903</v>
       </c>
       <c r="D16" s="7">
-        <v>266047</v>
+        <v>902225</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>296</v>
+        <v>263</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>297</v>
+        <v>264</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>298</v>
+        <v>265</v>
       </c>
       <c r="H16" s="7">
-        <v>211</v>
+        <v>639</v>
       </c>
       <c r="I16" s="7">
-        <v>250749</v>
+        <v>742021</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>299</v>
+        <v>56</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>148</v>
+        <v>266</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>300</v>
+        <v>267</v>
       </c>
       <c r="M16" s="7">
-        <v>484</v>
+        <v>1542</v>
       </c>
       <c r="N16" s="7">
-        <v>516796</v>
+        <v>1644246</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>301</v>
+        <v>268</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>302</v>
+        <v>269</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>303</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4658,49 +4157,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>258</v>
+        <v>981</v>
       </c>
       <c r="D17" s="7">
-        <v>262910</v>
+        <v>1044091</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>304</v>
+        <v>270</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>305</v>
+        <v>271</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>306</v>
+        <v>272</v>
       </c>
       <c r="H17" s="7">
-        <v>425</v>
+        <v>1640</v>
       </c>
       <c r="I17" s="7">
-        <v>450581</v>
+        <v>1716255</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>307</v>
+        <v>64</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>308</v>
+        <v>273</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>157</v>
+        <v>274</v>
       </c>
       <c r="M17" s="7">
-        <v>683</v>
+        <v>2621</v>
       </c>
       <c r="N17" s="7">
-        <v>713491</v>
+        <v>2760347</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>309</v>
+        <v>275</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>310</v>
+        <v>34</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>311</v>
+        <v>276</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4709,10 +4208,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>531</v>
+        <v>1884</v>
       </c>
       <c r="D18" s="7">
-        <v>528957</v>
+        <v>1946316</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -4724,10 +4223,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>636</v>
+        <v>2279</v>
       </c>
       <c r="I18" s="7">
-        <v>701330</v>
+        <v>2458276</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -4739,10 +4238,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1167</v>
+        <v>4163</v>
       </c>
       <c r="N18" s="7">
-        <v>1230287</v>
+        <v>4404593</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -4755,171 +4254,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>903</v>
-      </c>
-      <c r="D19" s="7">
-        <v>902225</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="H19" s="7">
-        <v>639</v>
-      </c>
-      <c r="I19" s="7">
-        <v>742021</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="M19" s="7">
-        <v>1542</v>
-      </c>
-      <c r="N19" s="7">
-        <v>1644246</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>981</v>
-      </c>
-      <c r="D20" s="7">
-        <v>1044091</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="H20" s="7">
-        <v>1640</v>
-      </c>
-      <c r="I20" s="7">
-        <v>1716255</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="M20" s="7">
-        <v>2621</v>
-      </c>
-      <c r="N20" s="7">
-        <v>2760346</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>1884</v>
-      </c>
-      <c r="D21" s="7">
-        <v>1946316</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>2279</v>
-      </c>
-      <c r="I21" s="7">
-        <v>2458276</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>4163</v>
-      </c>
-      <c r="N21" s="7">
-        <v>4404592</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>125</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4932,8 +4275,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B65E10A2-874B-4C37-A27A-13A2DED5A871}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AB2BC9D-7C14-42CB-9EBC-1CF23CE547B0}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4949,7 +4292,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>326</v>
+        <v>277</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5050,49 +4393,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>47</v>
+        <v>277</v>
       </c>
       <c r="D4" s="7">
-        <v>30861</v>
+        <v>179964</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>327</v>
+        <v>278</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>328</v>
+        <v>279</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>329</v>
+        <v>280</v>
       </c>
       <c r="H4" s="7">
-        <v>89</v>
+        <v>396</v>
       </c>
       <c r="I4" s="7">
-        <v>36803</v>
+        <v>170085</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>330</v>
+        <v>281</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>95</v>
+        <v>282</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>331</v>
+        <v>283</v>
       </c>
       <c r="M4" s="7">
-        <v>136</v>
+        <v>673</v>
       </c>
       <c r="N4" s="7">
-        <v>67664</v>
+        <v>350049</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>332</v>
+        <v>284</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>333</v>
+        <v>285</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>334</v>
+        <v>286</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5101,49 +4444,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>20</v>
+        <v>113</v>
       </c>
       <c r="D5" s="7">
-        <v>19082</v>
+        <v>121004</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>335</v>
+        <v>287</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>336</v>
+        <v>288</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>337</v>
+        <v>289</v>
       </c>
       <c r="H5" s="7">
-        <v>81</v>
+        <v>423</v>
       </c>
       <c r="I5" s="7">
-        <v>48129</v>
+        <v>244445</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>338</v>
+        <v>290</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>339</v>
+        <v>291</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>104</v>
+        <v>292</v>
       </c>
       <c r="M5" s="7">
-        <v>101</v>
+        <v>536</v>
       </c>
       <c r="N5" s="7">
-        <v>67211</v>
+        <v>365449</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>340</v>
+        <v>293</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>341</v>
+        <v>294</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>342</v>
+        <v>295</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5152,10 +4495,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>67</v>
+        <v>390</v>
       </c>
       <c r="D6" s="7">
-        <v>49943</v>
+        <v>300968</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -5167,10 +4510,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>170</v>
+        <v>819</v>
       </c>
       <c r="I6" s="7">
-        <v>84932</v>
+        <v>414530</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -5182,10 +4525,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>237</v>
+        <v>1209</v>
       </c>
       <c r="N6" s="7">
-        <v>134875</v>
+        <v>715498</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -5205,49 +4548,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>230</v>
+        <v>287</v>
       </c>
       <c r="D7" s="7">
-        <v>160098</v>
+        <v>198172</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>343</v>
+        <v>296</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>344</v>
+        <v>297</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>345</v>
+        <v>298</v>
       </c>
       <c r="H7" s="7">
-        <v>307</v>
+        <v>360</v>
       </c>
       <c r="I7" s="7">
-        <v>146787</v>
+        <v>184788</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>346</v>
+        <v>299</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>347</v>
+        <v>300</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>348</v>
+        <v>301</v>
       </c>
       <c r="M7" s="7">
-        <v>537</v>
+        <v>647</v>
       </c>
       <c r="N7" s="7">
-        <v>306885</v>
+        <v>382961</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>349</v>
+        <v>302</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>350</v>
+        <v>303</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>351</v>
+        <v>304</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5256,49 +4599,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>93</v>
+        <v>144</v>
       </c>
       <c r="D8" s="7">
-        <v>96848</v>
+        <v>184164</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>352</v>
+        <v>305</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>353</v>
+        <v>306</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>354</v>
+        <v>307</v>
       </c>
       <c r="H8" s="7">
-        <v>342</v>
+        <v>553</v>
       </c>
       <c r="I8" s="7">
-        <v>213875</v>
+        <v>366371</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>355</v>
+        <v>308</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>356</v>
+        <v>309</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>357</v>
+        <v>310</v>
       </c>
       <c r="M8" s="7">
-        <v>435</v>
+        <v>697</v>
       </c>
       <c r="N8" s="7">
-        <v>310723</v>
+        <v>550535</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>358</v>
+        <v>311</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>359</v>
+        <v>312</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>360</v>
+        <v>313</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5307,10 +4650,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>323</v>
+        <v>431</v>
       </c>
       <c r="D9" s="7">
-        <v>256946</v>
+        <v>382336</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -5322,10 +4665,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>649</v>
+        <v>913</v>
       </c>
       <c r="I9" s="7">
-        <v>360662</v>
+        <v>551159</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -5337,10 +4680,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>972</v>
+        <v>1344</v>
       </c>
       <c r="N9" s="7">
-        <v>617608</v>
+        <v>933496</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -5360,49 +4703,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>287</v>
+        <v>246</v>
       </c>
       <c r="D10" s="7">
-        <v>215953</v>
+        <v>200866</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>361</v>
+        <v>314</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>362</v>
+        <v>315</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>363</v>
+        <v>316</v>
       </c>
       <c r="H10" s="7">
-        <v>360</v>
+        <v>250</v>
       </c>
       <c r="I10" s="7">
-        <v>205580</v>
+        <v>349752</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>364</v>
+        <v>317</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>185</v>
+        <v>318</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>365</v>
+        <v>319</v>
       </c>
       <c r="M10" s="7">
-        <v>647</v>
+        <v>496</v>
       </c>
       <c r="N10" s="7">
-        <v>421533</v>
+        <v>550618</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>366</v>
+        <v>320</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>367</v>
+        <v>321</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>368</v>
+        <v>322</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5411,49 +4754,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>144</v>
+        <v>97</v>
       </c>
       <c r="D11" s="7">
-        <v>185620</v>
+        <v>143802</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="H11" s="7">
         <v>369</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>370</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>371</v>
-      </c>
-      <c r="H11" s="7">
-        <v>553</v>
-      </c>
       <c r="I11" s="7">
-        <v>405081</v>
+        <v>256680</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>372</v>
+        <v>326</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>373</v>
+        <v>327</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>192</v>
+        <v>328</v>
       </c>
       <c r="M11" s="7">
-        <v>697</v>
+        <v>466</v>
       </c>
       <c r="N11" s="7">
-        <v>590701</v>
+        <v>400482</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>374</v>
+        <v>329</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>375</v>
+        <v>330</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>376</v>
+        <v>331</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5462,10 +4805,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>431</v>
+        <v>343</v>
       </c>
       <c r="D12" s="7">
-        <v>401573</v>
+        <v>344668</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -5477,10 +4820,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>913</v>
+        <v>619</v>
       </c>
       <c r="I12" s="7">
-        <v>610661</v>
+        <v>606432</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -5492,10 +4835,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1344</v>
+        <v>962</v>
       </c>
       <c r="N12" s="7">
-        <v>1012234</v>
+        <v>951100</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -5515,49 +4858,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>246</v>
+        <v>325</v>
       </c>
       <c r="D13" s="7">
-        <v>216906</v>
+        <v>222468</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>377</v>
+        <v>332</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>378</v>
+        <v>333</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>379</v>
+        <v>334</v>
       </c>
       <c r="H13" s="7">
-        <v>250</v>
+        <v>427</v>
       </c>
       <c r="I13" s="7">
-        <v>270032</v>
+        <v>238337</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>380</v>
+        <v>335</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>381</v>
+        <v>336</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>382</v>
+        <v>337</v>
       </c>
       <c r="M13" s="7">
-        <v>496</v>
+        <v>752</v>
       </c>
       <c r="N13" s="7">
-        <v>486938</v>
+        <v>460805</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>383</v>
+        <v>338</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>384</v>
+        <v>339</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>385</v>
+        <v>340</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5566,49 +4909,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>97</v>
+        <v>200</v>
       </c>
       <c r="D14" s="7">
-        <v>140473</v>
+        <v>230087</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>386</v>
+        <v>341</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>387</v>
+        <v>342</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>388</v>
+        <v>343</v>
       </c>
       <c r="H14" s="7">
-        <v>369</v>
+        <v>524</v>
       </c>
       <c r="I14" s="7">
-        <v>275966</v>
+        <v>367645</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>389</v>
+        <v>344</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>390</v>
+        <v>345</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>391</v>
+        <v>346</v>
       </c>
       <c r="M14" s="7">
-        <v>466</v>
+        <v>724</v>
       </c>
       <c r="N14" s="7">
-        <v>416439</v>
+        <v>597732</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>392</v>
+        <v>347</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>393</v>
+        <v>348</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>394</v>
+        <v>349</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5617,10 +4960,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>343</v>
+        <v>525</v>
       </c>
       <c r="D15" s="7">
-        <v>357379</v>
+        <v>452555</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -5632,10 +4975,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>619</v>
+        <v>951</v>
       </c>
       <c r="I15" s="7">
-        <v>545998</v>
+        <v>605982</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -5647,10 +4990,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>962</v>
+        <v>1476</v>
       </c>
       <c r="N15" s="7">
-        <v>903377</v>
+        <v>1058537</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -5664,55 +5007,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>325</v>
+        <v>1135</v>
       </c>
       <c r="D16" s="7">
-        <v>241251</v>
+        <v>801470</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>395</v>
+        <v>350</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>396</v>
+        <v>351</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>397</v>
+        <v>352</v>
       </c>
       <c r="H16" s="7">
-        <v>427</v>
+        <v>1433</v>
       </c>
       <c r="I16" s="7">
-        <v>269137</v>
+        <v>942962</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>398</v>
+        <v>353</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>399</v>
+        <v>354</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>400</v>
+        <v>355</v>
       </c>
       <c r="M16" s="7">
-        <v>752</v>
+        <v>2568</v>
       </c>
       <c r="N16" s="7">
-        <v>510388</v>
+        <v>1744432</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>401</v>
+        <v>356</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>402</v>
+        <v>357</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>403</v>
+        <v>358</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5721,49 +5064,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>200</v>
+        <v>554</v>
       </c>
       <c r="D17" s="7">
-        <v>226906</v>
+        <v>679057</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>404</v>
+        <v>359</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>405</v>
+        <v>360</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>406</v>
+        <v>361</v>
       </c>
       <c r="H17" s="7">
-        <v>524</v>
+        <v>1869</v>
       </c>
       <c r="I17" s="7">
-        <v>409838</v>
+        <v>1235141</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>407</v>
+        <v>362</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>408</v>
+        <v>363</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>409</v>
+        <v>364</v>
       </c>
       <c r="M17" s="7">
-        <v>724</v>
+        <v>2423</v>
       </c>
       <c r="N17" s="7">
-        <v>636745</v>
+        <v>1914198</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>410</v>
+        <v>365</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>411</v>
+        <v>366</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>412</v>
+        <v>367</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5772,10 +5115,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>525</v>
+        <v>1689</v>
       </c>
       <c r="D18" s="7">
-        <v>468157</v>
+        <v>1480527</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -5787,10 +5130,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>951</v>
+        <v>3302</v>
       </c>
       <c r="I18" s="7">
-        <v>678975</v>
+        <v>2178103</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -5802,10 +5145,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1476</v>
+        <v>4991</v>
       </c>
       <c r="N18" s="7">
-        <v>1147133</v>
+        <v>3658630</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -5818,171 +5161,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>1135</v>
-      </c>
-      <c r="D19" s="7">
-        <v>865069</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>413</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>414</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>415</v>
-      </c>
-      <c r="H19" s="7">
-        <v>1433</v>
-      </c>
-      <c r="I19" s="7">
-        <v>928340</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>416</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>417</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>418</v>
-      </c>
-      <c r="M19" s="7">
-        <v>2568</v>
-      </c>
-      <c r="N19" s="7">
-        <v>1793409</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>419</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>420</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>554</v>
-      </c>
-      <c r="D20" s="7">
-        <v>668929</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>422</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>423</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>424</v>
-      </c>
-      <c r="H20" s="7">
-        <v>1869</v>
-      </c>
-      <c r="I20" s="7">
-        <v>1352890</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>425</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>426</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>427</v>
-      </c>
-      <c r="M20" s="7">
-        <v>2423</v>
-      </c>
-      <c r="N20" s="7">
-        <v>2021819</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>428</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>429</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>1689</v>
-      </c>
-      <c r="D21" s="7">
-        <v>1533998</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3302</v>
-      </c>
-      <c r="I21" s="7">
-        <v>2281230</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>4991</v>
-      </c>
-      <c r="N21" s="7">
-        <v>3815228</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>125</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
